--- a/806209426/localisation/excel/countries_cosmetic_l_german.xlsx
+++ b/806209426/localisation/excel/countries_cosmetic_l_german.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1766">
   <si>
     <t xml:space="preserve">l_german:</t>
   </si>
@@ -5287,26 +5287,34 @@
     <t xml:space="preserve"> SIA_THAI_GREAT_fascism:</t>
   </si>
   <si>
-    <t xml:space="preserve">Great Kingdom of Thailand</t>
+    <t xml:space="preserve">Großes Königreich Thailand</t>
   </si>
   <si>
     <t xml:space="preserve"> SIA_THAI_GREAT_fascism_DEF:</t>
   </si>
   <si>
-    <t xml:space="preserve">Greater Thailand</t>
+    <t xml:space="preserve">Groß-Thailand</t>
   </si>
   <si>
     <t xml:space="preserve"> SIA_THAI_GREAT_fascism_ADJ:0</t>
   </si>
   <si>
+    <t xml:space="preserve">Thailändisch</t>
+  </si>
+  <si>
     <t xml:space="preserve"> SIA_THAI_GREAT_neutrality:</t>
   </si>
   <si>
+    <t xml:space="preserve">Großes Königreich von Thailand</t>
+  </si>
+  <si>
     <t xml:space="preserve"> SIA_THAI_GREAT_neutrality_DEF:</t>
   </si>
   <si>
-    <t xml:space="preserve">The Great Kingdom of Thailand
- SIA_THAI_GREAT_neutrality_ADJ:	"Thai</t>
+    <t xml:space="preserve">Das Großkönigreich Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIA_THAI_GREAT_neutrality_ADJ:</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -5319,7 +5327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5347,6 +5355,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5408,7 +5422,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5537,8 +5551,8 @@
   </sheetPr>
   <dimension ref="A1:D1081"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13408,7 +13422,14 @@
       <c r="B492" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D492" s="1"/>
+      <c r="C492" s="1" t="str">
+        <f aca="false">A492 &amp;" " &amp;"""" &amp;B492 &amp;""""</f>
+        <v> RAT_UNIFIED_fascism_DEF: "Das Rattanakosin-Reich"</v>
+      </c>
+      <c r="D492" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A492),"",C492)</f>
+        <v> RAT_UNIFIED_fascism_DEF: "Das Rattanakosin-Reich"</v>
+      </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
@@ -13417,7 +13438,14 @@
       <c r="B493" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D493" s="1"/>
+      <c r="C493" s="1" t="str">
+        <f aca="false">A493 &amp;" " &amp;"""" &amp;B493 &amp;""""</f>
+        <v> RAT_UNIFIED_democratic_DEF: "Die Rattanakosin-Föderation"</v>
+      </c>
+      <c r="D493" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A493),"",C493)</f>
+        <v> RAT_UNIFIED_democratic_DEF: "Die Rattanakosin-Föderation"</v>
+      </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
@@ -13426,7 +13454,14 @@
       <c r="B494" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="D494" s="1"/>
+      <c r="C494" s="1" t="str">
+        <f aca="false">A494 &amp;" " &amp;"""" &amp;B494 &amp;""""</f>
+        <v> RAT_UNIFIED_communism_DEF: "Der Sozialistische Staat Rattanakosin"</v>
+      </c>
+      <c r="D494" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A494),"",C494)</f>
+        <v> RAT_UNIFIED_communism_DEF: "Der Sozialistische Staat Rattanakosin"</v>
+      </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
@@ -13435,7 +13470,14 @@
       <c r="B495" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="D495" s="1"/>
+      <c r="C495" s="1" t="str">
+        <f aca="false">A495 &amp;" " &amp;"""" &amp;B495 &amp;""""</f>
+        <v> HRE_UNIFIED_neutrality: "Heiliges Römisches Reich"</v>
+      </c>
+      <c r="D495" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A495),"",C495)</f>
+        <v> HRE_UNIFIED_neutrality: "Heiliges Römisches Reich"</v>
+      </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
@@ -13444,7 +13486,14 @@
       <c r="B496" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="D496" s="1"/>
+      <c r="C496" s="1" t="str">
+        <f aca="false">A496 &amp;" " &amp;"""" &amp;B496 &amp;""""</f>
+        <v> HRE_UNIFIED_fascism: "Nationalistischer Römischer Staat"</v>
+      </c>
+      <c r="D496" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A496),"",C496)</f>
+        <v> HRE_UNIFIED_fascism: "Nationalistischer Römischer Staat"</v>
+      </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
@@ -13453,7 +13502,14 @@
       <c r="B497" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D497" s="1"/>
+      <c r="C497" s="1" t="str">
+        <f aca="false">A497 &amp;" " &amp;"""" &amp;B497 &amp;""""</f>
+        <v> HRE_UNIFIED_democratic: "Säkulare Römische Föderation"</v>
+      </c>
+      <c r="D497" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A497),"",C497)</f>
+        <v> HRE_UNIFIED_democratic: "Säkulare Römische Föderation"</v>
+      </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
@@ -13462,7 +13518,14 @@
       <c r="B498" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D498" s="1"/>
+      <c r="C498" s="1" t="str">
+        <f aca="false">A498 &amp;" " &amp;"""" &amp;B498 &amp;""""</f>
+        <v> HRE_UNIFIED_communism: "Sozialistische Römische Republik"</v>
+      </c>
+      <c r="D498" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A498),"",C498)</f>
+        <v> HRE_UNIFIED_communism: "Sozialistische Römische Republik"</v>
+      </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
@@ -13471,7 +13534,14 @@
       <c r="B499" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="D499" s="1"/>
+      <c r="C499" s="1" t="str">
+        <f aca="false">A499 &amp;" " &amp;"""" &amp;B499 &amp;""""</f>
+        <v> HRE_UNIFIED_neutrality_DEF: "Das Heilige Römische Reich"</v>
+      </c>
+      <c r="D499" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A499),"",C499)</f>
+        <v> HRE_UNIFIED_neutrality_DEF: "Das Heilige Römische Reich"</v>
+      </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
@@ -13480,6 +13550,14 @@
       <c r="B500" s="1" t="s">
         <v>849</v>
       </c>
+      <c r="C500" s="1" t="str">
+        <f aca="false">A500 &amp;" " &amp;"""" &amp;B500 &amp;""""</f>
+        <v> HRE_UNIFIED_fascism_DEF: "Der Nationalistische Römische Staat"</v>
+      </c>
+      <c r="D500" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A500),"",C500)</f>
+        <v> HRE_UNIFIED_fascism_DEF: "Der Nationalistische Römische Staat"</v>
+      </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
@@ -13488,6 +13566,14 @@
       <c r="B501" s="1" t="s">
         <v>851</v>
       </c>
+      <c r="C501" s="1" t="str">
+        <f aca="false">A501 &amp;" " &amp;"""" &amp;B501 &amp;""""</f>
+        <v> HRE_UNIFIED_democratic_DEF: "Die Säkulare Römische Föderation"</v>
+      </c>
+      <c r="D501" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A501),"",C501)</f>
+        <v> HRE_UNIFIED_democratic_DEF: "Die Säkulare Römische Föderation"</v>
+      </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
@@ -13496,6 +13582,14 @@
       <c r="B502" s="1" t="s">
         <v>853</v>
       </c>
+      <c r="C502" s="1" t="str">
+        <f aca="false">A502 &amp;" " &amp;"""" &amp;B502 &amp;""""</f>
+        <v> HRE_UNIFIED_communism_DEF: "Die Sozialistische Römische Republik"</v>
+      </c>
+      <c r="D502" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A502),"",C502)</f>
+        <v> HRE_UNIFIED_communism_DEF: "Die Sozialistische Römische Republik"</v>
+      </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
@@ -13504,6 +13598,14 @@
       <c r="B503" s="1" t="s">
         <v>855</v>
       </c>
+      <c r="C503" s="1" t="str">
+        <f aca="false">A503 &amp;" " &amp;"""" &amp;B503 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_puppet: "Reorganisierte Regierung von China"</v>
+      </c>
+      <c r="D503" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A503),"",C503)</f>
+        <v> CHI_JAP_fascism_autonomy_puppet: "Reorganisierte Regierung von China"</v>
+      </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
@@ -13512,6 +13614,14 @@
       <c r="B504" s="1" t="s">
         <v>855</v>
       </c>
+      <c r="C504" s="1" t="str">
+        <f aca="false">A504 &amp;" " &amp;"""" &amp;B504 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_reichsprotectorate: "Reorganisierte Regierung von China"</v>
+      </c>
+      <c r="D504" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A504),"",C504)</f>
+        <v> CHI_JAP_fascism_autonomy_reichsprotectorate: "Reorganisierte Regierung von China"</v>
+      </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
@@ -13520,6 +13630,14 @@
       <c r="B505" s="1" t="s">
         <v>858</v>
       </c>
+      <c r="C505" s="1" t="str">
+        <f aca="false">A505 &amp;" " &amp;"""" &amp;B505 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_integrated_puppet: "Chinesische Übergangsregierung"</v>
+      </c>
+      <c r="D505" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A505),"",C505)</f>
+        <v> CHI_JAP_fascism_autonomy_integrated_puppet: "Chinesische Übergangsregierung"</v>
+      </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
@@ -13528,6 +13646,14 @@
       <c r="B506" s="1" t="s">
         <v>858</v>
       </c>
+      <c r="C506" s="1" t="str">
+        <f aca="false">A506 &amp;" " &amp;"""" &amp;B506 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_reichskommissariat: "Chinesische Übergangsregierung"</v>
+      </c>
+      <c r="D506" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A506),"",C506)</f>
+        <v> CHI_JAP_fascism_autonomy_reichskommissariat: "Chinesische Übergangsregierung"</v>
+      </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
@@ -13536,6 +13662,14 @@
       <c r="B507" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C507" s="1" t="str">
+        <f aca="false">A507 &amp;" " &amp;"""" &amp;B507 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_puppet: "Mandschukuo"</v>
+      </c>
+      <c r="D507" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A507),"",C507)</f>
+        <v> MAN_JAP_fascism_autonomy_puppet: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
@@ -13544,6 +13678,14 @@
       <c r="B508" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C508" s="1" t="str">
+        <f aca="false">A508 &amp;" " &amp;"""" &amp;B508 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_reichsprotectorate: "Mandschukuo"</v>
+      </c>
+      <c r="D508" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A508),"",C508)</f>
+        <v> MAN_JAP_fascism_autonomy_reichsprotectorate: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
@@ -13552,6 +13694,14 @@
       <c r="B509" s="1" t="s">
         <v>864</v>
       </c>
+      <c r="C509" s="1" t="str">
+        <f aca="false">A509 &amp;" " &amp;"""" &amp;B509 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_colony: "Kaiserreich Mandschukuo"</v>
+      </c>
+      <c r="D509" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A509),"",C509)</f>
+        <v> MAN_JAP_fascism_autonomy_colony: "Kaiserreich Mandschukuo"</v>
+      </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
@@ -13560,6 +13710,14 @@
       <c r="B510" s="1" t="s">
         <v>866</v>
       </c>
+      <c r="C510" s="1" t="str">
+        <f aca="false">A510 &amp;" " &amp;"""" &amp;B510 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_dominion: "Reich Mandschukuo"</v>
+      </c>
+      <c r="D510" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A510),"",C510)</f>
+        <v> MAN_JAP_fascism_autonomy_dominion: "Reich Mandschukuo"</v>
+      </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
@@ -13568,6 +13726,14 @@
       <c r="B511" s="1" t="s">
         <v>866</v>
       </c>
+      <c r="C511" s="1" t="str">
+        <f aca="false">A511 &amp;" " &amp;"""" &amp;B511 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_satellite: "Reich Mandschukuo"</v>
+      </c>
+      <c r="D511" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A511),"",C511)</f>
+        <v> MAN_JAP_fascism_autonomy_satellite: "Reich Mandschukuo"</v>
+      </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
@@ -13576,6 +13742,14 @@
       <c r="B512" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C512" s="1" t="str">
+        <f aca="false">A512 &amp;" " &amp;"""" &amp;B512 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_integrated_puppet: "Mandschukuo"</v>
+      </c>
+      <c r="D512" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A512),"",C512)</f>
+        <v> MAN_JAP_fascism_autonomy_integrated_puppet: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
@@ -13584,6 +13758,14 @@
       <c r="B513" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C513" s="1" t="str">
+        <f aca="false">A513 &amp;" " &amp;"""" &amp;B513 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_reichskommissariat: "Mandschukuo"</v>
+      </c>
+      <c r="D513" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A513),"",C513)</f>
+        <v> MAN_JAP_fascism_autonomy_reichskommissariat: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
@@ -13592,6 +13774,14 @@
       <c r="B514" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C514" s="1" t="str">
+        <f aca="false">A514 &amp;" " &amp;"""" &amp;B514 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_protectorate: "Mandschukuo"</v>
+      </c>
+      <c r="D514" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A514),"",C514)</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_protectorate: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
@@ -13600,6 +13790,14 @@
       <c r="B515" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C515" s="1" t="str">
+        <f aca="false">A515 &amp;" " &amp;"""" &amp;B515 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_subject: "Mandschukuo"</v>
+      </c>
+      <c r="D515" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A515),"",C515)</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_subject: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
@@ -13608,6 +13806,14 @@
       <c r="B516" s="1" t="s">
         <v>866</v>
       </c>
+      <c r="C516" s="1" t="str">
+        <f aca="false">A516 &amp;" " &amp;"""" &amp;B516 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_associate: "Reich Mandschukuo"</v>
+      </c>
+      <c r="D516" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A516),"",C516)</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_associate: "Reich Mandschukuo"</v>
+      </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
@@ -13616,6 +13822,14 @@
       <c r="B517" s="1" t="s">
         <v>855</v>
       </c>
+      <c r="C517" s="1" t="str">
+        <f aca="false">A517 &amp;" " &amp;"""" &amp;B517 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_wtt_imperial_protectorate: "Reorganisierte Regierung von China"</v>
+      </c>
+      <c r="D517" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A517),"",C517)</f>
+        <v> CHI_JAP_fascism_autonomy_wtt_imperial_protectorate: "Reorganisierte Regierung von China"</v>
+      </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
@@ -13624,6 +13838,14 @@
       <c r="B518" s="1" t="s">
         <v>875</v>
       </c>
+      <c r="C518" s="1" t="str">
+        <f aca="false">A518 &amp;" " &amp;"""" &amp;B518 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_wtt_imperial_associate: "Chinesische konstitutionelle Republik"</v>
+      </c>
+      <c r="D518" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A518),"",C518)</f>
+        <v> CHI_JAP_fascism_autonomy_wtt_imperial_associate: "Chinesische konstitutionelle Republik"</v>
+      </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
@@ -13632,6 +13854,14 @@
       <c r="B519" s="1" t="s">
         <v>877</v>
       </c>
+      <c r="C519" s="1" t="str">
+        <f aca="false">A519 &amp;" " &amp;"""" &amp;B519 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_puppet_DEF: "die Reorganisierte Regierung von China"</v>
+      </c>
+      <c r="D519" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A519),"",C519)</f>
+        <v> CHI_JAP_fascism_autonomy_puppet_DEF: "die Reorganisierte Regierung von China"</v>
+      </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
@@ -13640,6 +13870,14 @@
       <c r="B520" s="1" t="s">
         <v>877</v>
       </c>
+      <c r="C520" s="1" t="str">
+        <f aca="false">A520 &amp;" " &amp;"""" &amp;B520 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_reichsprotectorate_DEF: "die Reorganisierte Regierung von China"</v>
+      </c>
+      <c r="D520" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A520),"",C520)</f>
+        <v> CHI_JAP_fascism_autonomy_reichsprotectorate_DEF: "die Reorganisierte Regierung von China"</v>
+      </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
@@ -13648,6 +13886,14 @@
       <c r="B521" s="1" t="s">
         <v>880</v>
       </c>
+      <c r="C521" s="1" t="str">
+        <f aca="false">A521 &amp;" " &amp;"""" &amp;B521 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_integrated_puppet_DEF: "die Chinesische Übergangsregierung"</v>
+      </c>
+      <c r="D521" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A521),"",C521)</f>
+        <v> CHI_JAP_fascism_autonomy_integrated_puppet_DEF: "die Chinesische Übergangsregierung"</v>
+      </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
@@ -13656,6 +13902,14 @@
       <c r="B522" s="1" t="s">
         <v>880</v>
       </c>
+      <c r="C522" s="1" t="str">
+        <f aca="false">A522 &amp;" " &amp;"""" &amp;B522 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_reichskommissariat_DEF: "die Chinesische Übergangsregierung"</v>
+      </c>
+      <c r="D522" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A522),"",C522)</f>
+        <v> CHI_JAP_fascism_autonomy_reichskommissariat_DEF: "die Chinesische Übergangsregierung"</v>
+      </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
@@ -13664,6 +13918,14 @@
       <c r="B523" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C523" s="1" t="str">
+        <f aca="false">A523 &amp;" " &amp;"""" &amp;B523 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_puppet_DEF: "Mandschukuo"</v>
+      </c>
+      <c r="D523" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A523),"",C523)</f>
+        <v> MAN_JAP_fascism_autonomy_puppet_DEF: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
@@ -13672,6 +13934,14 @@
       <c r="B524" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C524" s="1" t="str">
+        <f aca="false">A524 &amp;" " &amp;"""" &amp;B524 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_reichsprotectorate_DEF: "Mandschukuo"</v>
+      </c>
+      <c r="D524" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A524),"",C524)</f>
+        <v> MAN_JAP_fascism_autonomy_reichsprotectorate_DEF: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
@@ -13680,6 +13950,14 @@
       <c r="B525" s="1" t="s">
         <v>885</v>
       </c>
+      <c r="C525" s="1" t="str">
+        <f aca="false">A525 &amp;" " &amp;"""" &amp;B525 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_colony_DEF: "das Kaiserreich Mandschukuo"</v>
+      </c>
+      <c r="D525" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A525),"",C525)</f>
+        <v> MAN_JAP_fascism_autonomy_colony_DEF: "das Kaiserreich Mandschukuo"</v>
+      </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
@@ -13688,6 +13966,14 @@
       <c r="B526" s="1" t="s">
         <v>887</v>
       </c>
+      <c r="C526" s="1" t="str">
+        <f aca="false">A526 &amp;" " &amp;"""" &amp;B526 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_dominion_DEF: "das Reich Mandschukuo"</v>
+      </c>
+      <c r="D526" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A526),"",C526)</f>
+        <v> MAN_JAP_fascism_autonomy_dominion_DEF: "das Reich Mandschukuo"</v>
+      </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
@@ -13696,6 +13982,14 @@
       <c r="B527" s="1" t="s">
         <v>887</v>
       </c>
+      <c r="C527" s="1" t="str">
+        <f aca="false">A527 &amp;" " &amp;"""" &amp;B527 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_satellite_DEF: "das Reich Mandschukuo"</v>
+      </c>
+      <c r="D527" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A527),"",C527)</f>
+        <v> MAN_JAP_fascism_autonomy_satellite_DEF: "das Reich Mandschukuo"</v>
+      </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
@@ -13704,6 +13998,14 @@
       <c r="B528" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C528" s="1" t="str">
+        <f aca="false">A528 &amp;" " &amp;"""" &amp;B528 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_integrated_puppet_DEF: "Mandschukuo"</v>
+      </c>
+      <c r="D528" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A528),"",C528)</f>
+        <v> MAN_JAP_fascism_autonomy_integrated_puppet_DEF: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
@@ -13712,6 +14014,14 @@
       <c r="B529" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C529" s="1" t="str">
+        <f aca="false">A529 &amp;" " &amp;"""" &amp;B529 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_reichskommissariat_DEF: "Mandschukuo"</v>
+      </c>
+      <c r="D529" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A529),"",C529)</f>
+        <v> MAN_JAP_fascism_autonomy_reichskommissariat_DEF: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
@@ -13720,6 +14030,14 @@
       <c r="B530" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C530" s="1" t="str">
+        <f aca="false">A530 &amp;" " &amp;"""" &amp;B530 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_protectorate_DEF: "Mandschukuo"</v>
+      </c>
+      <c r="D530" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A530),"",C530)</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_protectorate_DEF: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
@@ -13728,6 +14046,14 @@
       <c r="B531" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="C531" s="1" t="str">
+        <f aca="false">A531 &amp;" " &amp;"""" &amp;B531 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_subject_DEF: "Mandschukuo"</v>
+      </c>
+      <c r="D531" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A531),"",C531)</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_subject_DEF: "Mandschukuo"</v>
+      </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
@@ -13736,6 +14062,14 @@
       <c r="B532" s="1" t="s">
         <v>887</v>
       </c>
+      <c r="C532" s="1" t="str">
+        <f aca="false">A532 &amp;" " &amp;"""" &amp;B532 &amp;""""</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_associate_DEF: "das Reich Mandschukuo"</v>
+      </c>
+      <c r="D532" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A532),"",C532)</f>
+        <v> MAN_JAP_fascism_autonomy_wtt_imperial_associate_DEF: "das Reich Mandschukuo"</v>
+      </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
@@ -13744,6 +14078,14 @@
       <c r="B533" s="1" t="s">
         <v>877</v>
       </c>
+      <c r="C533" s="1" t="str">
+        <f aca="false">A533 &amp;" " &amp;"""" &amp;B533 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_wtt_imperial_protectorate_DEF: "die Reorganisierte Regierung von China"</v>
+      </c>
+      <c r="D533" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A533),"",C533)</f>
+        <v> CHI_JAP_fascism_autonomy_wtt_imperial_protectorate_DEF: "die Reorganisierte Regierung von China"</v>
+      </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
@@ -13752,6 +14094,14 @@
       <c r="B534" s="1" t="s">
         <v>896</v>
       </c>
+      <c r="C534" s="1" t="str">
+        <f aca="false">A534 &amp;" " &amp;"""" &amp;B534 &amp;""""</f>
+        <v> CHI_JAP_fascism_autonomy_wtt_imperial_associate_DEF: "die Chinesische konstitutionelle Republik"</v>
+      </c>
+      <c r="D534" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A534),"",C534)</f>
+        <v> CHI_JAP_fascism_autonomy_wtt_imperial_associate_DEF: "die Chinesische konstitutionelle Republik"</v>
+      </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
@@ -13760,6 +14110,14 @@
       <c r="B535" s="1" t="s">
         <v>898</v>
       </c>
+      <c r="C535" s="1" t="str">
+        <f aca="false">A535 &amp;" " &amp;"""" &amp;B535 &amp;""""</f>
+        <v> GER_provisional_gvt_neutrality: "Deutsche Militärjunta"</v>
+      </c>
+      <c r="D535" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A535),"",C535)</f>
+        <v> GER_provisional_gvt_neutrality: "Deutsche Militärjunta"</v>
+      </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
@@ -13768,6 +14126,14 @@
       <c r="B536" s="1" t="s">
         <v>900</v>
       </c>
+      <c r="C536" s="1" t="str">
+        <f aca="false">A536 &amp;" " &amp;"""" &amp;B536 &amp;""""</f>
+        <v> GER_provisional_gvt_democratic: "Deutsche Übergangsregierung"</v>
+      </c>
+      <c r="D536" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A536),"",C536)</f>
+        <v> GER_provisional_gvt_democratic: "Deutsche Übergangsregierung"</v>
+      </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
@@ -13776,6 +14142,14 @@
       <c r="B537" s="1" t="s">
         <v>902</v>
       </c>
+      <c r="C537" s="1" t="str">
+        <f aca="false">A537 &amp;" " &amp;"""" &amp;B537 &amp;""""</f>
+        <v> GER_german_empire_neutrality: "Deutsches Reich"</v>
+      </c>
+      <c r="D537" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A537),"",C537)</f>
+        <v> GER_german_empire_neutrality: "Deutsches Reich"</v>
+      </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
@@ -13784,6 +14158,14 @@
       <c r="B538" s="1" t="s">
         <v>904</v>
       </c>
+      <c r="C538" s="1" t="str">
+        <f aca="false">A538 &amp;" " &amp;"""" &amp;B538 &amp;""""</f>
+        <v> GER_german_empire_neutrality_DEF: "das Deutsche Reich"</v>
+      </c>
+      <c r="D538" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A538),"",C538)</f>
+        <v> GER_german_empire_neutrality_DEF: "das Deutsche Reich"</v>
+      </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
@@ -13792,6 +14174,14 @@
       <c r="B539" s="1" t="s">
         <v>906</v>
       </c>
+      <c r="C539" s="1" t="str">
+        <f aca="false">A539 &amp;" " &amp;"""" &amp;B539 &amp;""""</f>
+        <v> GER_german_monarchy_democratic: "Deutschland"</v>
+      </c>
+      <c r="D539" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A539),"",C539)</f>
+        <v> GER_german_monarchy_democratic: "Deutschland"</v>
+      </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
@@ -13800,6 +14190,14 @@
       <c r="B540" s="1" t="s">
         <v>906</v>
       </c>
+      <c r="C540" s="1" t="str">
+        <f aca="false">A540 &amp;" " &amp;"""" &amp;B540 &amp;""""</f>
+        <v> GER_german_monarchy_democratic_DEF: "Deutschland"</v>
+      </c>
+      <c r="D540" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A540),"",C540)</f>
+        <v> GER_german_monarchy_democratic_DEF: "Deutschland"</v>
+      </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
@@ -13808,6 +14206,14 @@
       <c r="B541" s="1" t="s">
         <v>909</v>
       </c>
+      <c r="C541" s="1" t="str">
+        <f aca="false">A541 &amp;" " &amp;"""" &amp;B541 &amp;""""</f>
+        <v> PRC_proclaimed_communism: "Volksrepublik China"</v>
+      </c>
+      <c r="D541" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A541),"",C541)</f>
+        <v> PRC_proclaimed_communism: "Volksrepublik China"</v>
+      </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
@@ -13816,6 +14222,14 @@
       <c r="B542" s="1" t="s">
         <v>911</v>
       </c>
+      <c r="C542" s="1" t="str">
+        <f aca="false">A542 &amp;" " &amp;"""" &amp;B542 &amp;""""</f>
+        <v> PRC_proclaimed_communism_DEF: "Die Volksrepublik China"</v>
+      </c>
+      <c r="D542" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A542),"",C542)</f>
+        <v> PRC_proclaimed_communism_DEF: "Die Volksrepublik China"</v>
+      </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
@@ -13824,6 +14238,14 @@
       <c r="B543" s="1" t="s">
         <v>913</v>
       </c>
+      <c r="C543" s="1" t="str">
+        <f aca="false">A543 &amp;" " &amp;"""" &amp;B543 &amp;""""</f>
+        <v> PRC_proclaimed_democratic: "Republik China"</v>
+      </c>
+      <c r="D543" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A543),"",C543)</f>
+        <v> PRC_proclaimed_democratic: "Republik China"</v>
+      </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
@@ -13832,6 +14254,14 @@
       <c r="B544" s="1" t="s">
         <v>915</v>
       </c>
+      <c r="C544" s="1" t="str">
+        <f aca="false">A544 &amp;" " &amp;"""" &amp;B544 &amp;""""</f>
+        <v> PRC_proclaimed_neutrality: "China"</v>
+      </c>
+      <c r="D544" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A544),"",C544)</f>
+        <v> PRC_proclaimed_neutrality: "China"</v>
+      </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
@@ -13840,6 +14270,14 @@
       <c r="B545" s="1" t="s">
         <v>915</v>
       </c>
+      <c r="C545" s="1" t="str">
+        <f aca="false">A545 &amp;" " &amp;"""" &amp;B545 &amp;""""</f>
+        <v> CHI_warlord_leader_neutrality: "China"</v>
+      </c>
+      <c r="D545" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A545),"",C545)</f>
+        <v> CHI_warlord_leader_neutrality: "China"</v>
+      </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
@@ -13848,6 +14286,14 @@
       <c r="B546" s="1" t="s">
         <v>915</v>
       </c>
+      <c r="C546" s="1" t="str">
+        <f aca="false">A546 &amp;" " &amp;"""" &amp;B546 &amp;""""</f>
+        <v> CHI_warlord_leader_neutrality_DEF: "China"</v>
+      </c>
+      <c r="D546" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A546),"",C546)</f>
+        <v> CHI_warlord_leader_neutrality_DEF: "China"</v>
+      </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
@@ -13856,6 +14302,14 @@
       <c r="B547" s="1" t="s">
         <v>913</v>
       </c>
+      <c r="C547" s="1" t="str">
+        <f aca="false">A547 &amp;" " &amp;"""" &amp;B547 &amp;""""</f>
+        <v> CHI_warlord_leader_democratic: "Republik China"</v>
+      </c>
+      <c r="D547" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A547),"",C547)</f>
+        <v> CHI_warlord_leader_democratic: "Republik China"</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
@@ -13864,6 +14318,14 @@
       <c r="B548" s="1" t="s">
         <v>920</v>
       </c>
+      <c r="C548" s="1" t="str">
+        <f aca="false">A548 &amp;" " &amp;"""" &amp;B548 &amp;""""</f>
+        <v> CHI_warlord_leader_democratic_DEF: "die Republik China"</v>
+      </c>
+      <c r="D548" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A548),"",C548)</f>
+        <v> CHI_warlord_leader_democratic_DEF: "die Republik China"</v>
+      </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
@@ -13872,6 +14334,14 @@
       <c r="B549" s="1" t="s">
         <v>922</v>
       </c>
+      <c r="C549" s="1" t="str">
+        <f aca="false">A549 &amp;" " &amp;"""" &amp;B549 &amp;""""</f>
+        <v> MAN_kwantung_army_fascism: "Kaiserliche Kwantung-Territorien"</v>
+      </c>
+      <c r="D549" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A549),"",C549)</f>
+        <v> MAN_kwantung_army_fascism: "Kaiserliche Kwantung-Territorien"</v>
+      </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
@@ -13880,6 +14350,14 @@
       <c r="B550" s="1" t="s">
         <v>924</v>
       </c>
+      <c r="C550" s="1" t="str">
+        <f aca="false">A550 &amp;" " &amp;"""" &amp;B550 &amp;""""</f>
+        <v> MAN_kwantung_army_communism: "Mandschurische Volksrepublik"</v>
+      </c>
+      <c r="D550" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A550),"",C550)</f>
+        <v> MAN_kwantung_army_communism: "Mandschurische Volksrepublik"</v>
+      </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
@@ -13888,6 +14366,14 @@
       <c r="B551" s="1" t="s">
         <v>926</v>
       </c>
+      <c r="C551" s="1" t="str">
+        <f aca="false">A551 &amp;" " &amp;"""" &amp;B551 &amp;""""</f>
+        <v> MAN_kwantung_army_democratic: "Mandschurische Bundesprovinzen"</v>
+      </c>
+      <c r="D551" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A551),"",C551)</f>
+        <v> MAN_kwantung_army_democratic: "Mandschurische Bundesprovinzen"</v>
+      </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
@@ -13896,6 +14382,14 @@
       <c r="B552" s="1" t="s">
         <v>928</v>
       </c>
+      <c r="C552" s="1" t="str">
+        <f aca="false">A552 &amp;" " &amp;"""" &amp;B552 &amp;""""</f>
+        <v> MAN_kwantung_army_fascism_DEF: "die Kaiserlichen Kwantung-Territorien"</v>
+      </c>
+      <c r="D552" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A552),"",C552)</f>
+        <v> MAN_kwantung_army_fascism_DEF: "die Kaiserlichen Kwantung-Territorien"</v>
+      </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
@@ -13904,6 +14398,14 @@
       <c r="B553" s="1" t="s">
         <v>930</v>
       </c>
+      <c r="C553" s="1" t="str">
+        <f aca="false">A553 &amp;" " &amp;"""" &amp;B553 &amp;""""</f>
+        <v> MAN_kwantung_army_communism_DEF: "die Mandschurische Volksrepublik"</v>
+      </c>
+      <c r="D553" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A553),"",C553)</f>
+        <v> MAN_kwantung_army_communism_DEF: "die Mandschurische Volksrepublik"</v>
+      </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
@@ -13912,6 +14414,14 @@
       <c r="B554" s="1" t="s">
         <v>932</v>
       </c>
+      <c r="C554" s="1" t="str">
+        <f aca="false">A554 &amp;" " &amp;"""" &amp;B554 &amp;""""</f>
+        <v> MAN_kwantung_army_democratic_DEF: "die Mandschurischen Bundesprovinzen"</v>
+      </c>
+      <c r="D554" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A554),"",C554)</f>
+        <v> MAN_kwantung_army_democratic_DEF: "die Mandschurischen Bundesprovinzen"</v>
+      </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
@@ -13920,6 +14430,14 @@
       <c r="B555" s="1" t="s">
         <v>934</v>
       </c>
+      <c r="C555" s="1" t="str">
+        <f aca="false">A555 &amp;" " &amp;"""" &amp;B555 &amp;""""</f>
+        <v> MAN_restored_fascism: "Chinesisches Reich"</v>
+      </c>
+      <c r="D555" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A555),"",C555)</f>
+        <v> MAN_restored_fascism: "Chinesisches Reich"</v>
+      </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
@@ -13928,6 +14446,14 @@
       <c r="B556" s="1" t="s">
         <v>934</v>
       </c>
+      <c r="C556" s="1" t="str">
+        <f aca="false">A556 &amp;" " &amp;"""" &amp;B556 &amp;""""</f>
+        <v> MAN_restored_neutrality: "Chinesisches Reich"</v>
+      </c>
+      <c r="D556" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A556),"",C556)</f>
+        <v> MAN_restored_neutrality: "Chinesisches Reich"</v>
+      </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
@@ -13936,6 +14462,14 @@
       <c r="B557" s="1" t="s">
         <v>937</v>
       </c>
+      <c r="C557" s="1" t="str">
+        <f aca="false">A557 &amp;" " &amp;"""" &amp;B557 &amp;""""</f>
+        <v> MAN_restored_democratic: "Chinesische konstitutionelle Monarchie"</v>
+      </c>
+      <c r="D557" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A557),"",C557)</f>
+        <v> MAN_restored_democratic: "Chinesische konstitutionelle Monarchie"</v>
+      </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
@@ -13944,6 +14478,14 @@
       <c r="B558" s="1" t="s">
         <v>939</v>
       </c>
+      <c r="C558" s="1" t="str">
+        <f aca="false">A558 &amp;" " &amp;"""" &amp;B558 &amp;""""</f>
+        <v> MAN_restored_communism: "Republiken der Vereinten Chinesischen Völker"</v>
+      </c>
+      <c r="D558" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A558),"",C558)</f>
+        <v> MAN_restored_communism: "Republiken der Vereinten Chinesischen Völker"</v>
+      </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
@@ -13952,6 +14494,14 @@
       <c r="B559" s="1" t="s">
         <v>941</v>
       </c>
+      <c r="C559" s="1" t="str">
+        <f aca="false">A559 &amp;" " &amp;"""" &amp;B559 &amp;""""</f>
+        <v> MAN_restored_fascism_DEF: "das chinesische Reich"</v>
+      </c>
+      <c r="D559" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A559),"",C559)</f>
+        <v> MAN_restored_fascism_DEF: "das chinesische Reich"</v>
+      </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
@@ -13960,6 +14510,14 @@
       <c r="B560" s="1" t="s">
         <v>941</v>
       </c>
+      <c r="C560" s="1" t="str">
+        <f aca="false">A560 &amp;" " &amp;"""" &amp;B560 &amp;""""</f>
+        <v> MAN_restored_neutrality_DEF: "das chinesische Reich"</v>
+      </c>
+      <c r="D560" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A560),"",C560)</f>
+        <v> MAN_restored_neutrality_DEF: "das chinesische Reich"</v>
+      </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
@@ -13968,6 +14526,14 @@
       <c r="B561" s="1" t="s">
         <v>944</v>
       </c>
+      <c r="C561" s="1" t="str">
+        <f aca="false">A561 &amp;" " &amp;"""" &amp;B561 &amp;""""</f>
+        <v> MAN_restored_democratic_DEF: "die Chinesische konstitutionelle Monarchie"</v>
+      </c>
+      <c r="D561" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A561),"",C561)</f>
+        <v> MAN_restored_democratic_DEF: "die Chinesische konstitutionelle Monarchie"</v>
+      </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
@@ -13976,6 +14542,14 @@
       <c r="B562" s="1" t="s">
         <v>946</v>
       </c>
+      <c r="C562" s="1" t="str">
+        <f aca="false">A562 &amp;" " &amp;"""" &amp;B562 &amp;""""</f>
+        <v> MAN_restored_communism_DEF: "die Republiken der Vereinten Chinesischen Völker"</v>
+      </c>
+      <c r="D562" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A562),"",C562)</f>
+        <v> MAN_restored_communism_DEF: "die Republiken der Vereinten Chinesischen Völker"</v>
+      </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
@@ -13984,6 +14558,14 @@
       <c r="B563" s="1" t="s">
         <v>948</v>
       </c>
+      <c r="C563" s="1" t="str">
+        <f aca="false">A563 &amp;" " &amp;"""" &amp;B563 &amp;""""</f>
+        <v> JAP_showa_restoration_fascism: "Japan"</v>
+      </c>
+      <c r="D563" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A563),"",C563)</f>
+        <v> JAP_showa_restoration_fascism: "Japan"</v>
+      </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
@@ -13992,6 +14574,14 @@
       <c r="B564" s="1" t="s">
         <v>950</v>
       </c>
+      <c r="C564" s="1" t="str">
+        <f aca="false">A564 &amp;" " &amp;"""" &amp;B564 &amp;""""</f>
+        <v> JAP_showa_restoration_neutrality: "Reich Japan"</v>
+      </c>
+      <c r="D564" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A564),"",C564)</f>
+        <v> JAP_showa_restoration_neutrality: "Reich Japan"</v>
+      </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
@@ -14000,6 +14590,14 @@
       <c r="B565" s="1" t="s">
         <v>952</v>
       </c>
+      <c r="C565" s="1" t="str">
+        <f aca="false">A565 &amp;" " &amp;"""" &amp;B565 &amp;""""</f>
+        <v> JAP_showa_restoration_democratic: "Japanischer Staat"</v>
+      </c>
+      <c r="D565" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A565),"",C565)</f>
+        <v> JAP_showa_restoration_democratic: "Japanischer Staat"</v>
+      </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
@@ -14008,6 +14606,14 @@
       <c r="B566" s="1" t="s">
         <v>954</v>
       </c>
+      <c r="C566" s="1" t="str">
+        <f aca="false">A566 &amp;" " &amp;"""" &amp;B566 &amp;""""</f>
+        <v> JAP_showa_restoration_communism: "Japanische Volksrepublik"</v>
+      </c>
+      <c r="D566" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A566),"",C566)</f>
+        <v> JAP_showa_restoration_communism: "Japanische Volksrepublik"</v>
+      </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
@@ -14016,6 +14622,14 @@
       <c r="B567" s="1" t="s">
         <v>948</v>
       </c>
+      <c r="C567" s="1" t="str">
+        <f aca="false">A567 &amp;" " &amp;"""" &amp;B567 &amp;""""</f>
+        <v> JAP_showa_restoration_fascism_DEF: "Japan"</v>
+      </c>
+      <c r="D567" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A567),"",C567)</f>
+        <v> JAP_showa_restoration_fascism_DEF: "Japan"</v>
+      </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
@@ -14024,6 +14638,14 @@
       <c r="B568" s="1" t="s">
         <v>957</v>
       </c>
+      <c r="C568" s="1" t="str">
+        <f aca="false">A568 &amp;" " &amp;"""" &amp;B568 &amp;""""</f>
+        <v> JAP_showa_restoration_neutrality_DEF: "das Reich Japan"</v>
+      </c>
+      <c r="D568" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A568),"",C568)</f>
+        <v> JAP_showa_restoration_neutrality_DEF: "das Reich Japan"</v>
+      </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
@@ -14032,6 +14654,14 @@
       <c r="B569" s="1" t="s">
         <v>959</v>
       </c>
+      <c r="C569" s="1" t="str">
+        <f aca="false">A569 &amp;" " &amp;"""" &amp;B569 &amp;""""</f>
+        <v> JAP_showa_restoration_democratic_DEF: "der japanische Staat"</v>
+      </c>
+      <c r="D569" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A569),"",C569)</f>
+        <v> JAP_showa_restoration_democratic_DEF: "der japanische Staat"</v>
+      </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
@@ -14040,6 +14670,14 @@
       <c r="B570" s="1" t="s">
         <v>961</v>
       </c>
+      <c r="C570" s="1" t="str">
+        <f aca="false">A570 &amp;" " &amp;"""" &amp;B570 &amp;""""</f>
+        <v> JAP_showa_restoration_communism_DEF: "die Volksrepublik Japan"</v>
+      </c>
+      <c r="D570" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A570),"",C570)</f>
+        <v> JAP_showa_restoration_communism_DEF: "die Volksrepublik Japan"</v>
+      </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
@@ -14048,6 +14686,14 @@
       <c r="B571" s="1" t="s">
         <v>963</v>
       </c>
+      <c r="C571" s="1" t="str">
+        <f aca="false">A571 &amp;" " &amp;"""" &amp;B571 &amp;""""</f>
+        <v> GER_greater_german_reich_fascism: "Großdeutsches Reich"</v>
+      </c>
+      <c r="D571" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A571),"",C571)</f>
+        <v> GER_greater_german_reich_fascism: "Großdeutsches Reich"</v>
+      </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
@@ -14056,6 +14702,14 @@
       <c r="B572" s="1" t="s">
         <v>934</v>
       </c>
+      <c r="C572" s="1" t="str">
+        <f aca="false">A572 &amp;" " &amp;"""" &amp;B572 &amp;""""</f>
+        <v> CHI_warlord_PRC_fascism: "Chinesisches Reich"</v>
+      </c>
+      <c r="D572" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A572),"",C572)</f>
+        <v> CHI_warlord_PRC_fascism: "Chinesisches Reich"</v>
+      </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
@@ -14064,6 +14718,14 @@
       <c r="B573" s="1" t="s">
         <v>941</v>
       </c>
+      <c r="C573" s="1" t="str">
+        <f aca="false">A573 &amp;" " &amp;"""" &amp;B573 &amp;""""</f>
+        <v> CHI_warlord_PRC_fascism_DEF: "das chinesische Reich"</v>
+      </c>
+      <c r="D573" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A573),"",C573)</f>
+        <v> CHI_warlord_PRC_fascism_DEF: "das chinesische Reich"</v>
+      </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
@@ -14072,6 +14734,14 @@
       <c r="B574" s="1" t="s">
         <v>967</v>
       </c>
+      <c r="C574" s="1" t="str">
+        <f aca="false">A574 &amp;" " &amp;"""" &amp;B574 &amp;""""</f>
+        <v> CHI_warlord_PRC_democratic: "Chinesische Republik"</v>
+      </c>
+      <c r="D574" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A574),"",C574)</f>
+        <v> CHI_warlord_PRC_democratic: "Chinesische Republik"</v>
+      </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
@@ -14080,6 +14750,14 @@
       <c r="B575" s="1" t="s">
         <v>969</v>
       </c>
+      <c r="C575" s="1" t="str">
+        <f aca="false">A575 &amp;" " &amp;"""" &amp;B575 &amp;""""</f>
+        <v> CHI_warlord_PRC_democratic_DEF: "die chinesische Republik"</v>
+      </c>
+      <c r="D575" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A575),"",C575)</f>
+        <v> CHI_warlord_PRC_democratic_DEF: "die chinesische Republik"</v>
+      </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
@@ -14088,6 +14766,14 @@
       <c r="B576" s="1" t="s">
         <v>915</v>
       </c>
+      <c r="C576" s="1" t="str">
+        <f aca="false">A576 &amp;" " &amp;"""" &amp;B576 &amp;""""</f>
+        <v> CHI_warlord_PRC_neutrality: "China"</v>
+      </c>
+      <c r="D576" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A576),"",C576)</f>
+        <v> CHI_warlord_PRC_neutrality: "China"</v>
+      </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
@@ -14096,6 +14782,14 @@
       <c r="B577" s="1" t="s">
         <v>915</v>
       </c>
+      <c r="C577" s="1" t="str">
+        <f aca="false">A577 &amp;" " &amp;"""" &amp;B577 &amp;""""</f>
+        <v> CHI_warlord_PRC_neutrality_DEF: "China"</v>
+      </c>
+      <c r="D577" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A577),"",C577)</f>
+        <v> CHI_warlord_PRC_neutrality_DEF: "China"</v>
+      </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
@@ -14104,6 +14798,14 @@
       <c r="B578" s="1" t="s">
         <v>973</v>
       </c>
+      <c r="C578" s="1" t="str">
+        <f aca="false">A578 &amp;" " &amp;"""" &amp;B578 &amp;""""</f>
+        <v> CHI_warlord_PRC_communism: "das Kommunistische China"</v>
+      </c>
+      <c r="D578" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A578),"",C578)</f>
+        <v> CHI_warlord_PRC_communism: "das Kommunistische China"</v>
+      </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
@@ -14112,6 +14814,14 @@
       <c r="B579" s="1" t="s">
         <v>973</v>
       </c>
+      <c r="C579" s="1" t="str">
+        <f aca="false">A579 &amp;" " &amp;"""" &amp;B579 &amp;""""</f>
+        <v> CHI_warlord_PRC_communism_DEF: "das Kommunistische China"</v>
+      </c>
+      <c r="D579" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A579),"",C579)</f>
+        <v> CHI_warlord_PRC_communism_DEF: "das Kommunistische China"</v>
+      </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
@@ -14120,6 +14830,14 @@
       <c r="B580" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C580" s="1" t="str">
+        <f aca="false">A580 &amp;" " &amp;"""" &amp;B580 &amp;""""</f>
+        <v> CHI_warlord_PRC_fascism_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D580" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A580),"",C580)</f>
+        <v> CHI_warlord_PRC_fascism_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
@@ -14128,6 +14846,14 @@
       <c r="B581" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C581" s="1" t="str">
+        <f aca="false">A581 &amp;" " &amp;"""" &amp;B581 &amp;""""</f>
+        <v> CHI_warlord_PRC_democratic_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D581" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A581),"",C581)</f>
+        <v> CHI_warlord_PRC_democratic_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
@@ -14136,6 +14862,14 @@
       <c r="B582" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C582" s="1" t="str">
+        <f aca="false">A582 &amp;" " &amp;"""" &amp;B582 &amp;""""</f>
+        <v> CHI_warlord_PRC_neutrality_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D582" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A582),"",C582)</f>
+        <v> CHI_warlord_PRC_neutrality_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
@@ -14144,6 +14878,14 @@
       <c r="B583" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C583" s="1" t="str">
+        <f aca="false">A583 &amp;" " &amp;"""" &amp;B583 &amp;""""</f>
+        <v> CHI_warlord_PRC_communism_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D583" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A583),"",C583)</f>
+        <v> CHI_warlord_PRC_communism_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
@@ -14152,6 +14894,14 @@
       <c r="B584" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C584" s="1" t="str">
+        <f aca="false">A584 &amp;" " &amp;"""" &amp;B584 &amp;""""</f>
+        <v> CHI_warlord_leader_neutrality_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D584" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A584),"",C584)</f>
+        <v> CHI_warlord_leader_neutrality_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
@@ -14160,6 +14910,14 @@
       <c r="B585" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C585" s="1" t="str">
+        <f aca="false">A585 &amp;" " &amp;"""" &amp;B585 &amp;""""</f>
+        <v> CHI_warlord_leader_democratic_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D585" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A585),"",C585)</f>
+        <v> CHI_warlord_leader_democratic_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
@@ -14168,6 +14926,14 @@
       <c r="B586" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C586" s="1" t="str">
+        <f aca="false">A586 &amp;" " &amp;"""" &amp;B586 &amp;""""</f>
+        <v> MAN_restored_fascism_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D586" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A586),"",C586)</f>
+        <v> MAN_restored_fascism_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
@@ -14176,6 +14942,14 @@
       <c r="B587" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C587" s="1" t="str">
+        <f aca="false">A587 &amp;" " &amp;"""" &amp;B587 &amp;""""</f>
+        <v> MAN_restored_neutrality_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D587" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A587),"",C587)</f>
+        <v> MAN_restored_neutrality_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
@@ -14184,6 +14958,14 @@
       <c r="B588" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C588" s="1" t="str">
+        <f aca="false">A588 &amp;" " &amp;"""" &amp;B588 &amp;""""</f>
+        <v> MAN_restored_democratic_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D588" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A588),"",C588)</f>
+        <v> MAN_restored_democratic_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
@@ -14192,6 +14974,14 @@
       <c r="B589" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C589" s="1" t="str">
+        <f aca="false">A589 &amp;" " &amp;"""" &amp;B589 &amp;""""</f>
+        <v> MAN_restored_communism_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D589" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A589),"",C589)</f>
+        <v> MAN_restored_communism_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
@@ -14200,6 +14990,14 @@
       <c r="B590" s="1" t="s">
         <v>987</v>
       </c>
+      <c r="C590" s="1" t="str">
+        <f aca="false">A590 &amp;" " &amp;"""" &amp;B590 &amp;""""</f>
+        <v> CHI_power_struggle_defeated_neutrality: "CC-Clique"</v>
+      </c>
+      <c r="D590" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A590),"",C590)</f>
+        <v> CHI_power_struggle_defeated_neutrality: "CC-Clique"</v>
+      </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
@@ -14208,6 +15006,14 @@
       <c r="B591" s="1" t="s">
         <v>989</v>
       </c>
+      <c r="C591" s="1" t="str">
+        <f aca="false">A591 &amp;" " &amp;"""" &amp;B591 &amp;""""</f>
+        <v> CHI_power_struggle_defeated_neutrality_DEF: "die CC-Clique"</v>
+      </c>
+      <c r="D591" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A591),"",C591)</f>
+        <v> CHI_power_struggle_defeated_neutrality_DEF: "die CC-Clique"</v>
+      </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
@@ -14216,6 +15022,14 @@
       <c r="B592" s="1" t="s">
         <v>991</v>
       </c>
+      <c r="C592" s="1" t="str">
+        <f aca="false">A592 &amp;" " &amp;"""" &amp;B592 &amp;""""</f>
+        <v> CHI_power_struggle_defeated_democratic: "Republikanische Regierung von China"</v>
+      </c>
+      <c r="D592" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A592),"",C592)</f>
+        <v> CHI_power_struggle_defeated_democratic: "Republikanische Regierung von China"</v>
+      </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
@@ -14224,6 +15038,14 @@
       <c r="B593" s="1" t="s">
         <v>993</v>
       </c>
+      <c r="C593" s="1" t="str">
+        <f aca="false">A593 &amp;" " &amp;"""" &amp;B593 &amp;""""</f>
+        <v> CHI_power_struggle_defeated_democratic_DEF: "die Republikanische Regierung von China"</v>
+      </c>
+      <c r="D593" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A593),"",C593)</f>
+        <v> CHI_power_struggle_defeated_democratic_DEF: "die Republikanische Regierung von China"</v>
+      </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
@@ -14232,6 +15054,14 @@
       <c r="B594" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C594" s="1" t="str">
+        <f aca="false">A594 &amp;" " &amp;"""" &amp;B594 &amp;""""</f>
+        <v> CHI_power_struggle_defeated_neutrality_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D594" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A594),"",C594)</f>
+        <v> CHI_power_struggle_defeated_neutrality_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
@@ -14240,6 +15070,14 @@
       <c r="B595" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="C595" s="1" t="str">
+        <f aca="false">A595 &amp;" " &amp;"""" &amp;B595 &amp;""""</f>
+        <v> CHI_power_struggle_defeated_democratic_ADJ: "Chinesisch"</v>
+      </c>
+      <c r="D595" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A595),"",C595)</f>
+        <v> CHI_power_struggle_defeated_democratic_ADJ: "Chinesisch"</v>
+      </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
@@ -14248,6 +15086,14 @@
       <c r="B596" s="1" t="s">
         <v>997</v>
       </c>
+      <c r="C596" s="1" t="str">
+        <f aca="false">A596 &amp;" " &amp;"""" &amp;B596 &amp;""""</f>
+        <v> USA_CSA_fascism: "Confederated States of America"</v>
+      </c>
+      <c r="D596" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A596),"",C596)</f>
+        <v> USA_CSA_fascism: "Confederated States of America"</v>
+      </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
@@ -14256,6 +15102,14 @@
       <c r="B597" s="1" t="s">
         <v>999</v>
       </c>
+      <c r="C597" s="1" t="str">
+        <f aca="false">A597 &amp;" " &amp;"""" &amp;B597 &amp;""""</f>
+        <v> USA_CSA_fascism_DEF: "die Confederated States of America"</v>
+      </c>
+      <c r="D597" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A597),"",C597)</f>
+        <v> USA_CSA_fascism_DEF: "die Confederated States of America"</v>
+      </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
@@ -14264,6 +15118,14 @@
       <c r="B598" s="1" t="s">
         <v>1001</v>
       </c>
+      <c r="C598" s="1" t="str">
+        <f aca="false">A598 &amp;" " &amp;"""" &amp;B598 &amp;""""</f>
+        <v> USA_CSA_democratic: "Confederacy of American States"</v>
+      </c>
+      <c r="D598" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A598),"",C598)</f>
+        <v> USA_CSA_democratic: "Confederacy of American States"</v>
+      </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
@@ -14272,6 +15134,14 @@
       <c r="B599" s="1" t="s">
         <v>1003</v>
       </c>
+      <c r="C599" s="1" t="str">
+        <f aca="false">A599 &amp;" " &amp;"""" &amp;B599 &amp;""""</f>
+        <v> USA_CSA_democratic_DEF: "die Confederacy of American States"</v>
+      </c>
+      <c r="D599" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A599),"",C599)</f>
+        <v> USA_CSA_democratic_DEF: "die Confederacy of American States"</v>
+      </c>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
@@ -14280,6 +15150,14 @@
       <c r="B600" s="1" t="s">
         <v>1005</v>
       </c>
+      <c r="C600" s="1" t="str">
+        <f aca="false">A600 &amp;" " &amp;"""" &amp;B600 &amp;""""</f>
+        <v> USA_CSA_communism: "Confederacy of American Workers"</v>
+      </c>
+      <c r="D600" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A600),"",C600)</f>
+        <v> USA_CSA_communism: "Confederacy of American Workers"</v>
+      </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
@@ -14288,6 +15166,14 @@
       <c r="B601" s="1" t="s">
         <v>1007</v>
       </c>
+      <c r="C601" s="1" t="str">
+        <f aca="false">A601 &amp;" " &amp;"""" &amp;B601 &amp;""""</f>
+        <v> USA_CSA_communism_DEF: "die Confederacy of American Workers"</v>
+      </c>
+      <c r="D601" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A601),"",C601)</f>
+        <v> USA_CSA_communism_DEF: "die Confederacy of American Workers"</v>
+      </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
@@ -14296,6 +15182,14 @@
       <c r="B602" s="1" t="s">
         <v>1009</v>
       </c>
+      <c r="C602" s="1" t="str">
+        <f aca="false">A602 &amp;" " &amp;"""" &amp;B602 &amp;""""</f>
+        <v> USA_CSA_neutrality: "Amerikanische Junta"</v>
+      </c>
+      <c r="D602" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A602),"",C602)</f>
+        <v> USA_CSA_neutrality: "Amerikanische Junta"</v>
+      </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
@@ -14304,6 +15198,14 @@
       <c r="B603" s="1" t="s">
         <v>1011</v>
       </c>
+      <c r="C603" s="1" t="str">
+        <f aca="false">A603 &amp;" " &amp;"""" &amp;B603 &amp;""""</f>
+        <v> USA_CSA_neutrality_DEF: "die Amerikanische Junta"</v>
+      </c>
+      <c r="D603" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A603),"",C603)</f>
+        <v> USA_CSA_neutrality_DEF: "die Amerikanische Junta"</v>
+      </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
@@ -14312,6 +15214,14 @@
       <c r="B604" s="1" t="s">
         <v>1013</v>
       </c>
+      <c r="C604" s="1" t="str">
+        <f aca="false">A604 &amp;" " &amp;"""" &amp;B604 &amp;""""</f>
+        <v> USA_CSA_fascism_ADJ: "Confederate"</v>
+      </c>
+      <c r="D604" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A604),"",C604)</f>
+        <v> USA_CSA_fascism_ADJ: "Confederate"</v>
+      </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
@@ -14320,6 +15230,14 @@
       <c r="B605" s="1" t="s">
         <v>1013</v>
       </c>
+      <c r="C605" s="1" t="str">
+        <f aca="false">A605 &amp;" " &amp;"""" &amp;B605 &amp;""""</f>
+        <v> USA_CSA_communism_ADJ: "Confederate"</v>
+      </c>
+      <c r="D605" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A605),"",C605)</f>
+        <v> USA_CSA_communism_ADJ: "Confederate"</v>
+      </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
@@ -14328,6 +15246,14 @@
       <c r="B606" s="1" t="s">
         <v>1013</v>
       </c>
+      <c r="C606" s="1" t="str">
+        <f aca="false">A606 &amp;" " &amp;"""" &amp;B606 &amp;""""</f>
+        <v> USA_CSA_democratic_ADJ: "Confederate"</v>
+      </c>
+      <c r="D606" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A606),"",C606)</f>
+        <v> USA_CSA_democratic_ADJ: "Confederate"</v>
+      </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
@@ -14336,6 +15262,14 @@
       <c r="B607" s="1" t="s">
         <v>1017</v>
       </c>
+      <c r="C607" s="1" t="str">
+        <f aca="false">A607 &amp;" " &amp;"""" &amp;B607 &amp;""""</f>
+        <v> USA_CSA_neutrality_ADJ: "amerikanisch"</v>
+      </c>
+      <c r="D607" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A607),"",C607)</f>
+        <v> USA_CSA_neutrality_ADJ: "amerikanisch"</v>
+      </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
@@ -14344,6 +15278,14 @@
       <c r="B608" s="1" t="s">
         <v>1019</v>
       </c>
+      <c r="C608" s="1" t="str">
+        <f aca="false">A608 &amp;" " &amp;"""" &amp;B608 &amp;""""</f>
+        <v> USA_REBEL_fascism: "Amerikanisches Reich"</v>
+      </c>
+      <c r="D608" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A608),"",C608)</f>
+        <v> USA_REBEL_fascism: "Amerikanisches Reich"</v>
+      </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
@@ -14352,6 +15294,14 @@
       <c r="B609" s="1" t="s">
         <v>1021</v>
       </c>
+      <c r="C609" s="1" t="str">
+        <f aca="false">A609 &amp;" " &amp;"""" &amp;B609 &amp;""""</f>
+        <v> USA_REBEL_fascism_DEF: "das amerikanische Reich"</v>
+      </c>
+      <c r="D609" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A609),"",C609)</f>
+        <v> USA_REBEL_fascism_DEF: "das amerikanische Reich"</v>
+      </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
@@ -14360,6 +15310,14 @@
       <c r="B610" s="1" t="s">
         <v>1023</v>
       </c>
+      <c r="C610" s="1" t="str">
+        <f aca="false">A610 &amp;" " &amp;"""" &amp;B610 &amp;""""</f>
+        <v> USA_REBEL_democratic: "Konstitutionelle Staaten von Amerika"</v>
+      </c>
+      <c r="D610" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A610),"",C610)</f>
+        <v> USA_REBEL_democratic: "Konstitutionelle Staaten von Amerika"</v>
+      </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
@@ -14368,6 +15326,14 @@
       <c r="B611" s="1" t="s">
         <v>1025</v>
       </c>
+      <c r="C611" s="1" t="str">
+        <f aca="false">A611 &amp;" " &amp;"""" &amp;B611 &amp;""""</f>
+        <v> USA_REBEL_democratic_DEF: "die Konstitutionellen Staaten von Amerika"</v>
+      </c>
+      <c r="D611" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A611),"",C611)</f>
+        <v> USA_REBEL_democratic_DEF: "die Konstitutionellen Staaten von Amerika"</v>
+      </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
@@ -14376,6 +15342,14 @@
       <c r="B612" s="1" t="s">
         <v>1027</v>
       </c>
+      <c r="C612" s="1" t="str">
+        <f aca="false">A612 &amp;" " &amp;"""" &amp;B612 &amp;""""</f>
+        <v> USA_REBEL_communism: "Vereinigte Sozialistische Staaten"</v>
+      </c>
+      <c r="D612" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A612),"",C612)</f>
+        <v> USA_REBEL_communism: "Vereinigte Sozialistische Staaten"</v>
+      </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
@@ -14384,6 +15358,14 @@
       <c r="B613" s="1" t="s">
         <v>1029</v>
       </c>
+      <c r="C613" s="1" t="str">
+        <f aca="false">A613 &amp;" " &amp;"""" &amp;B613 &amp;""""</f>
+        <v> USA_REBEL_communism_DEF: "die Vereinigten Sozialistischen Staaten"</v>
+      </c>
+      <c r="D613" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A613),"",C613)</f>
+        <v> USA_REBEL_communism_DEF: "die Vereinigten Sozialistischen Staaten"</v>
+      </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
@@ -14392,6 +15374,14 @@
       <c r="B614" s="1" t="s">
         <v>1031</v>
       </c>
+      <c r="C614" s="1" t="str">
+        <f aca="false">A614 &amp;" " &amp;"""" &amp;B614 &amp;""""</f>
+        <v> USA_REBEL_neutrality: "Freie Staaten von Amerika"</v>
+      </c>
+      <c r="D614" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A614),"",C614)</f>
+        <v> USA_REBEL_neutrality: "Freie Staaten von Amerika"</v>
+      </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
@@ -14400,6 +15390,14 @@
       <c r="B615" s="1" t="s">
         <v>1033</v>
       </c>
+      <c r="C615" s="1" t="str">
+        <f aca="false">A615 &amp;" " &amp;"""" &amp;B615 &amp;""""</f>
+        <v> USA_REBEL_neutrality_DEF: "die Freien Staaten von Amerika"</v>
+      </c>
+      <c r="D615" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A615),"",C615)</f>
+        <v> USA_REBEL_neutrality_DEF: "die Freien Staaten von Amerika"</v>
+      </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
@@ -14408,6 +15406,14 @@
       <c r="B616" s="1" t="s">
         <v>1017</v>
       </c>
+      <c r="C616" s="1" t="str">
+        <f aca="false">A616 &amp;" " &amp;"""" &amp;B616 &amp;""""</f>
+        <v> USA_REBEL_fascism_ADJ: "amerikanisch"</v>
+      </c>
+      <c r="D616" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A616),"",C616)</f>
+        <v> USA_REBEL_fascism_ADJ: "amerikanisch"</v>
+      </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
@@ -14416,6 +15422,14 @@
       <c r="B617" s="1" t="s">
         <v>1017</v>
       </c>
+      <c r="C617" s="1" t="str">
+        <f aca="false">A617 &amp;" " &amp;"""" &amp;B617 &amp;""""</f>
+        <v> USA_REBEL_communism_ADJ: "amerikanisch"</v>
+      </c>
+      <c r="D617" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A617),"",C617)</f>
+        <v> USA_REBEL_communism_ADJ: "amerikanisch"</v>
+      </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
@@ -14424,6 +15438,14 @@
       <c r="B618" s="1" t="s">
         <v>1037</v>
       </c>
+      <c r="C618" s="1" t="str">
+        <f aca="false">A618 &amp;" " &amp;"""" &amp;B618 &amp;""""</f>
+        <v> USA_REBEL_democratic_ADJ: "konstitutionalistisch"</v>
+      </c>
+      <c r="D618" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A618),"",C618)</f>
+        <v> USA_REBEL_democratic_ADJ: "konstitutionalistisch"</v>
+      </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
@@ -14432,6 +15454,14 @@
       <c r="B619" s="1" t="s">
         <v>1039</v>
       </c>
+      <c r="C619" s="1" t="str">
+        <f aca="false">A619 &amp;" " &amp;"""" &amp;B619 &amp;""""</f>
+        <v> USA_REBEL_neutrality_ADJ: "freiamerikanisch"</v>
+      </c>
+      <c r="D619" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A619),"",C619)</f>
+        <v> USA_REBEL_neutrality_ADJ: "freiamerikanisch"</v>
+      </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
@@ -14440,6 +15470,14 @@
       <c r="B620" s="1" t="s">
         <v>1041</v>
       </c>
+      <c r="C620" s="1" t="str">
+        <f aca="false">A620 &amp;" " &amp;"""" &amp;B620 &amp;""""</f>
+        <v> MEX_cristero_fascism: "Katholisch-Mexiko"</v>
+      </c>
+      <c r="D620" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A620),"",C620)</f>
+        <v> MEX_cristero_fascism: "Katholisch-Mexiko"</v>
+      </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
@@ -14448,6 +15486,14 @@
       <c r="B621" s="1" t="s">
         <v>1041</v>
       </c>
+      <c r="C621" s="1" t="str">
+        <f aca="false">A621 &amp;" " &amp;"""" &amp;B621 &amp;""""</f>
+        <v> MEX_cristero_fascism_DEF: "Katholisch-Mexiko"</v>
+      </c>
+      <c r="D621" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A621),"",C621)</f>
+        <v> MEX_cristero_fascism_DEF: "Katholisch-Mexiko"</v>
+      </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
@@ -14456,6 +15502,14 @@
       <c r="B622" s="1" t="s">
         <v>1044</v>
       </c>
+      <c r="C622" s="1" t="str">
+        <f aca="false">A622 &amp;" " &amp;"""" &amp;B622 &amp;""""</f>
+        <v> MEX_cristero_fascism_ADJ: "Mexikanisch"</v>
+      </c>
+      <c r="D622" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A622),"",C622)</f>
+        <v> MEX_cristero_fascism_ADJ: "Mexikanisch"</v>
+      </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
@@ -14464,6 +15518,14 @@
       <c r="B623" s="1" t="s">
         <v>1046</v>
       </c>
+      <c r="C623" s="1" t="str">
+        <f aca="false">A623 &amp;" " &amp;"""" &amp;B623 &amp;""""</f>
+        <v> MEX_cristero_neutrality: "Drittes Mexikanisches Reich"</v>
+      </c>
+      <c r="D623" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A623),"",C623)</f>
+        <v> MEX_cristero_neutrality: "Drittes Mexikanisches Reich"</v>
+      </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
@@ -14472,6 +15534,14 @@
       <c r="B624" s="1" t="s">
         <v>1048</v>
       </c>
+      <c r="C624" s="1" t="str">
+        <f aca="false">A624 &amp;" " &amp;"""" &amp;B624 &amp;""""</f>
+        <v> MEX_cristero_neutrality_DEF: "das Dritte Mexikanische Reich"</v>
+      </c>
+      <c r="D624" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A624),"",C624)</f>
+        <v> MEX_cristero_neutrality_DEF: "das Dritte Mexikanische Reich"</v>
+      </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
@@ -14480,6 +15550,14 @@
       <c r="B625" s="1" t="s">
         <v>1044</v>
       </c>
+      <c r="C625" s="1" t="str">
+        <f aca="false">A625 &amp;" " &amp;"""" &amp;B625 &amp;""""</f>
+        <v> MEX_cristero_neutrality_ADJ: "Mexikanisch"</v>
+      </c>
+      <c r="D625" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A625),"",C625)</f>
+        <v> MEX_cristero_neutrality_ADJ: "Mexikanisch"</v>
+      </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
@@ -14488,6 +15566,14 @@
       <c r="B626" s="1" t="s">
         <v>1051</v>
       </c>
+      <c r="C626" s="1" t="str">
+        <f aca="false">A626 &amp;" " &amp;"""" &amp;B626 &amp;""""</f>
+        <v> MEX_cristero_democratic: "Mexikanische Republik"</v>
+      </c>
+      <c r="D626" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A626),"",C626)</f>
+        <v> MEX_cristero_democratic: "Mexikanische Republik"</v>
+      </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
@@ -14496,6 +15582,14 @@
       <c r="B627" s="1" t="s">
         <v>1053</v>
       </c>
+      <c r="C627" s="1" t="str">
+        <f aca="false">A627 &amp;" " &amp;"""" &amp;B627 &amp;""""</f>
+        <v> MEX_cristero_democratic_DEF: "die Mexikanische Republik"</v>
+      </c>
+      <c r="D627" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A627),"",C627)</f>
+        <v> MEX_cristero_democratic_DEF: "die Mexikanische Republik"</v>
+      </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
@@ -14504,6 +15598,14 @@
       <c r="B628" s="1" t="s">
         <v>1044</v>
       </c>
+      <c r="C628" s="1" t="str">
+        <f aca="false">A628 &amp;" " &amp;"""" &amp;B628 &amp;""""</f>
+        <v> MEX_cristero_democratic_ADJ: "Mexikanisch"</v>
+      </c>
+      <c r="D628" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A628),"",C628)</f>
+        <v> MEX_cristero_democratic_ADJ: "Mexikanisch"</v>
+      </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
@@ -14512,6 +15614,14 @@
       <c r="B629" s="1" t="s">
         <v>1056</v>
       </c>
+      <c r="C629" s="1" t="str">
+        <f aca="false">A629 &amp;" " &amp;"""" &amp;B629 &amp;""""</f>
+        <v> MEX_cristero_communism: "Mexikanische Sozialistische Republik"</v>
+      </c>
+      <c r="D629" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A629),"",C629)</f>
+        <v> MEX_cristero_communism: "Mexikanische Sozialistische Republik"</v>
+      </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
@@ -14520,6 +15630,14 @@
       <c r="B630" s="1" t="s">
         <v>1058</v>
       </c>
+      <c r="C630" s="1" t="str">
+        <f aca="false">A630 &amp;" " &amp;"""" &amp;B630 &amp;""""</f>
+        <v> MEX_cristero_communism_DEF: "die Mexikanische Sozialistische Republik"</v>
+      </c>
+      <c r="D630" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A630),"",C630)</f>
+        <v> MEX_cristero_communism_DEF: "die Mexikanische Sozialistische Republik"</v>
+      </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
@@ -14528,6 +15646,14 @@
       <c r="B631" s="1" t="s">
         <v>1044</v>
       </c>
+      <c r="C631" s="1" t="str">
+        <f aca="false">A631 &amp;" " &amp;"""" &amp;B631 &amp;""""</f>
+        <v> MEX_cristero_communism_ADJ: "Mexikanisch"</v>
+      </c>
+      <c r="D631" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A631),"",C631)</f>
+        <v> MEX_cristero_communism_ADJ: "Mexikanisch"</v>
+      </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
@@ -14536,6 +15662,14 @@
       <c r="B632" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C632" s="1" t="str">
+        <f aca="false">A632 &amp;" " &amp;"""" &amp;B632 &amp;""""</f>
+        <v> MEX_SPR_fascism_subject: "Neuspanien"</v>
+      </c>
+      <c r="D632" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A632),"",C632)</f>
+        <v> MEX_SPR_fascism_subject: "Neuspanien"</v>
+      </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
@@ -14544,6 +15678,14 @@
       <c r="B633" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C633" s="1" t="str">
+        <f aca="false">A633 &amp;" " &amp;"""" &amp;B633 &amp;""""</f>
+        <v> MEX_SPR_fascism_subject_DEF: "Neuspanien"</v>
+      </c>
+      <c r="D633" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A633),"",C633)</f>
+        <v> MEX_SPR_fascism_subject_DEF: "Neuspanien"</v>
+      </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
@@ -14552,6 +15694,14 @@
       <c r="B634" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="C634" s="1" t="str">
+        <f aca="false">A634 &amp;" " &amp;"""" &amp;B634 &amp;""""</f>
+        <v> MEX_SPR_fascism_subject_ADJ: "neuspanisch"</v>
+      </c>
+      <c r="D634" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A634),"",C634)</f>
+        <v> MEX_SPR_fascism_subject_ADJ: "neuspanisch"</v>
+      </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
@@ -14560,6 +15710,14 @@
       <c r="B635" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C635" s="1" t="str">
+        <f aca="false">A635 &amp;" " &amp;"""" &amp;B635 &amp;""""</f>
+        <v> MEX_SPR_neutrality_subject: "Neuspanien"</v>
+      </c>
+      <c r="D635" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A635),"",C635)</f>
+        <v> MEX_SPR_neutrality_subject: "Neuspanien"</v>
+      </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
@@ -14568,6 +15726,14 @@
       <c r="B636" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C636" s="1" t="str">
+        <f aca="false">A636 &amp;" " &amp;"""" &amp;B636 &amp;""""</f>
+        <v> MEX_SPR_neutrality_subject_DEF: "Neuspanien"</v>
+      </c>
+      <c r="D636" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A636),"",C636)</f>
+        <v> MEX_SPR_neutrality_subject_DEF: "Neuspanien"</v>
+      </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
@@ -14576,6 +15742,14 @@
       <c r="B637" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="C637" s="1" t="str">
+        <f aca="false">A637 &amp;" " &amp;"""" &amp;B637 &amp;""""</f>
+        <v> MEX_SPR_neutrality_subject_ADJ: "neuspanisch"</v>
+      </c>
+      <c r="D637" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A637),"",C637)</f>
+        <v> MEX_SPR_neutrality_subject_ADJ: "neuspanisch"</v>
+      </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
@@ -14584,6 +15758,14 @@
       <c r="B638" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C638" s="1" t="str">
+        <f aca="false">A638 &amp;" " &amp;"""" &amp;B638 &amp;""""</f>
+        <v> MEX_cristero_SPR_fascism_subject: "Neuspanien"</v>
+      </c>
+      <c r="D638" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A638),"",C638)</f>
+        <v> MEX_cristero_SPR_fascism_subject: "Neuspanien"</v>
+      </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
@@ -14592,6 +15774,14 @@
       <c r="B639" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C639" s="1" t="str">
+        <f aca="false">A639 &amp;" " &amp;"""" &amp;B639 &amp;""""</f>
+        <v> MEX_cristero_SPR_fascism_subject_DEF: "Neuspanien"</v>
+      </c>
+      <c r="D639" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A639),"",C639)</f>
+        <v> MEX_cristero_SPR_fascism_subject_DEF: "Neuspanien"</v>
+      </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
@@ -14600,6 +15790,14 @@
       <c r="B640" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="C640" s="1" t="str">
+        <f aca="false">A640 &amp;" " &amp;"""" &amp;B640 &amp;""""</f>
+        <v> MEX_cristero_SPR_fascism_subject_ADJ: "neuspanisch"</v>
+      </c>
+      <c r="D640" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A640),"",C640)</f>
+        <v> MEX_cristero_SPR_fascism_subject_ADJ: "neuspanisch"</v>
+      </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
@@ -14608,6 +15806,14 @@
       <c r="B641" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C641" s="1" t="str">
+        <f aca="false">A641 &amp;" " &amp;"""" &amp;B641 &amp;""""</f>
+        <v> MEX_cristero_SPR_neutrality_subject: "Neuspanien"</v>
+      </c>
+      <c r="D641" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A641),"",C641)</f>
+        <v> MEX_cristero_SPR_neutrality_subject: "Neuspanien"</v>
+      </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
@@ -14616,6 +15822,14 @@
       <c r="B642" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C642" s="1" t="str">
+        <f aca="false">A642 &amp;" " &amp;"""" &amp;B642 &amp;""""</f>
+        <v> MEX_cristero_SPR_neutrality_subject_DEF: "Neuspanien"</v>
+      </c>
+      <c r="D642" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A642),"",C642)</f>
+        <v> MEX_cristero_SPR_neutrality_subject_DEF: "Neuspanien"</v>
+      </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
@@ -14624,6 +15838,14 @@
       <c r="B643" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="C643" s="1" t="str">
+        <f aca="false">A643 &amp;" " &amp;"""" &amp;B643 &amp;""""</f>
+        <v> MEX_cristero_SPR_neutrality_subject_ADJ: "neuspanisch"</v>
+      </c>
+      <c r="D643" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A643),"",C643)</f>
+        <v> MEX_cristero_SPR_neutrality_subject_ADJ: "neuspanisch"</v>
+      </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
@@ -14632,6 +15854,14 @@
       <c r="B644" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C644" s="1" t="str">
+        <f aca="false">A644 &amp;" " &amp;"""" &amp;B644 &amp;""""</f>
+        <v> MEX_SPA_fascism_subject: "Neuspanien"</v>
+      </c>
+      <c r="D644" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A644),"",C644)</f>
+        <v> MEX_SPA_fascism_subject: "Neuspanien"</v>
+      </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
@@ -14640,6 +15870,14 @@
       <c r="B645" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C645" s="1" t="str">
+        <f aca="false">A645 &amp;" " &amp;"""" &amp;B645 &amp;""""</f>
+        <v> MEX_SPA_fascism_subject_DEF: "Neuspanien"</v>
+      </c>
+      <c r="D645" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A645),"",C645)</f>
+        <v> MEX_SPA_fascism_subject_DEF: "Neuspanien"</v>
+      </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
@@ -14648,6 +15886,14 @@
       <c r="B646" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="C646" s="1" t="str">
+        <f aca="false">A646 &amp;" " &amp;"""" &amp;B646 &amp;""""</f>
+        <v> MEX_SPA_fascism_subject_ADJ: "neuspanisch"</v>
+      </c>
+      <c r="D646" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A646),"",C646)</f>
+        <v> MEX_SPA_fascism_subject_ADJ: "neuspanisch"</v>
+      </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
@@ -14656,6 +15902,14 @@
       <c r="B647" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C647" s="1" t="str">
+        <f aca="false">A647 &amp;" " &amp;"""" &amp;B647 &amp;""""</f>
+        <v> MEX_SPA_neutrality_subject: "Neuspanien"</v>
+      </c>
+      <c r="D647" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A647),"",C647)</f>
+        <v> MEX_SPA_neutrality_subject: "Neuspanien"</v>
+      </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
@@ -14664,6 +15918,14 @@
       <c r="B648" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C648" s="1" t="str">
+        <f aca="false">A648 &amp;" " &amp;"""" &amp;B648 &amp;""""</f>
+        <v> MEX_SPA_neutrality_subject_DEF: "Neuspanien"</v>
+      </c>
+      <c r="D648" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A648),"",C648)</f>
+        <v> MEX_SPA_neutrality_subject_DEF: "Neuspanien"</v>
+      </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
@@ -14672,6 +15934,14 @@
       <c r="B649" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="C649" s="1" t="str">
+        <f aca="false">A649 &amp;" " &amp;"""" &amp;B649 &amp;""""</f>
+        <v> MEX_SPA_neutrality_subject_ADJ: "neuspanisch"</v>
+      </c>
+      <c r="D649" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A649),"",C649)</f>
+        <v> MEX_SPA_neutrality_subject_ADJ: "neuspanisch"</v>
+      </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
@@ -14680,6 +15950,14 @@
       <c r="B650" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C650" s="1" t="str">
+        <f aca="false">A650 &amp;" " &amp;"""" &amp;B650 &amp;""""</f>
+        <v> MEX_cristero_SPA_fascism_subject: "Neuspanien"</v>
+      </c>
+      <c r="D650" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A650),"",C650)</f>
+        <v> MEX_cristero_SPA_fascism_subject: "Neuspanien"</v>
+      </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
@@ -14688,6 +15966,14 @@
       <c r="B651" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C651" s="1" t="str">
+        <f aca="false">A651 &amp;" " &amp;"""" &amp;B651 &amp;""""</f>
+        <v> MEX_cristero_SPA_fascism_subject_DEF: "Neuspanien"</v>
+      </c>
+      <c r="D651" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A651),"",C651)</f>
+        <v> MEX_cristero_SPA_fascism_subject_DEF: "Neuspanien"</v>
+      </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
@@ -14696,6 +15982,14 @@
       <c r="B652" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="C652" s="1" t="str">
+        <f aca="false">A652 &amp;" " &amp;"""" &amp;B652 &amp;""""</f>
+        <v> MEX_cristero_SPA_fascism_subject_ADJ: "neuspanisch"</v>
+      </c>
+      <c r="D652" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A652),"",C652)</f>
+        <v> MEX_cristero_SPA_fascism_subject_ADJ: "neuspanisch"</v>
+      </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
@@ -14704,6 +15998,14 @@
       <c r="B653" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C653" s="1" t="str">
+        <f aca="false">A653 &amp;" " &amp;"""" &amp;B653 &amp;""""</f>
+        <v> MEX_cristero_SPA_neutrality_subject: "Neuspanien"</v>
+      </c>
+      <c r="D653" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A653),"",C653)</f>
+        <v> MEX_cristero_SPA_neutrality_subject: "Neuspanien"</v>
+      </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
@@ -14712,6 +16014,14 @@
       <c r="B654" s="1" t="s">
         <v>1061</v>
       </c>
+      <c r="C654" s="1" t="str">
+        <f aca="false">A654 &amp;" " &amp;"""" &amp;B654 &amp;""""</f>
+        <v> MEX_cristero_SPA_neutrality_subject_DEF: "Neuspanien"</v>
+      </c>
+      <c r="D654" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A654),"",C654)</f>
+        <v> MEX_cristero_SPA_neutrality_subject_DEF: "Neuspanien"</v>
+      </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
@@ -14720,6 +16030,14 @@
       <c r="B655" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="C655" s="1" t="str">
+        <f aca="false">A655 &amp;" " &amp;"""" &amp;B655 &amp;""""</f>
+        <v> MEX_cristero_SPA_neutrality_subject_ADJ: "neuspanisch"</v>
+      </c>
+      <c r="D655" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A655),"",C655)</f>
+        <v> MEX_cristero_SPA_neutrality_subject_ADJ: "neuspanisch"</v>
+      </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
@@ -14728,6 +16046,14 @@
       <c r="B656" s="1" t="s">
         <v>1087</v>
       </c>
+      <c r="C656" s="1" t="str">
+        <f aca="false">A656 &amp;" " &amp;"""" &amp;B656 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_fascism: "Das Empire"</v>
+      </c>
+      <c r="D656" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A656),"",C656)</f>
+        <v> ENG_imperial_federation_unified_fascism: "Das Empire"</v>
+      </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
@@ -14736,6 +16062,14 @@
       <c r="B657" s="1" t="s">
         <v>1089</v>
       </c>
+      <c r="C657" s="1" t="str">
+        <f aca="false">A657 &amp;" " &amp;"""" &amp;B657 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_communism: "Commonwealth of Peoples"</v>
+      </c>
+      <c r="D657" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A657),"",C657)</f>
+        <v> ENG_imperial_federation_unified_communism: "Commonwealth of Peoples"</v>
+      </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
@@ -14744,6 +16078,14 @@
       <c r="B658" s="1" t="s">
         <v>1091</v>
       </c>
+      <c r="C658" s="1" t="str">
+        <f aca="false">A658 &amp;" " &amp;"""" &amp;B658 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_democratic: "Commonwealth of Nations"</v>
+      </c>
+      <c r="D658" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A658),"",C658)</f>
+        <v> ENG_imperial_federation_unified_democratic: "Commonwealth of Nations"</v>
+      </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
@@ -14752,6 +16094,14 @@
       <c r="B659" s="1" t="s">
         <v>1093</v>
       </c>
+      <c r="C659" s="1" t="str">
+        <f aca="false">A659 &amp;" " &amp;"""" &amp;B659 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_neutrality: "Imperial Federation"</v>
+      </c>
+      <c r="D659" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A659),"",C659)</f>
+        <v> ENG_imperial_federation_unified_neutrality: "Imperial Federation"</v>
+      </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
@@ -14760,6 +16110,14 @@
       <c r="B660" s="1" t="s">
         <v>1095</v>
       </c>
+      <c r="C660" s="1" t="str">
+        <f aca="false">A660 &amp;" " &amp;"""" &amp;B660 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_fascism_DEF: "das Empire"</v>
+      </c>
+      <c r="D660" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A660),"",C660)</f>
+        <v> ENG_imperial_federation_unified_fascism_DEF: "das Empire"</v>
+      </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
@@ -14768,6 +16126,14 @@
       <c r="B661" s="1" t="s">
         <v>1097</v>
       </c>
+      <c r="C661" s="1" t="str">
+        <f aca="false">A661 &amp;" " &amp;"""" &amp;B661 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_communism_DEF: "das Commonwealth of Peoples"</v>
+      </c>
+      <c r="D661" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A661),"",C661)</f>
+        <v> ENG_imperial_federation_unified_communism_DEF: "das Commonwealth of Peoples"</v>
+      </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
@@ -14776,6 +16142,14 @@
       <c r="B662" s="1" t="s">
         <v>1099</v>
       </c>
+      <c r="C662" s="1" t="str">
+        <f aca="false">A662 &amp;" " &amp;"""" &amp;B662 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_democratic_DEF: "das Commonwealth of Nations"</v>
+      </c>
+      <c r="D662" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A662),"",C662)</f>
+        <v> ENG_imperial_federation_unified_democratic_DEF: "das Commonwealth of Nations"</v>
+      </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
@@ -14784,6 +16158,14 @@
       <c r="B663" s="1" t="s">
         <v>1101</v>
       </c>
+      <c r="C663" s="1" t="str">
+        <f aca="false">A663 &amp;" " &amp;"""" &amp;B663 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_neutrality_DEF: "die Imperial Federation"</v>
+      </c>
+      <c r="D663" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A663),"",C663)</f>
+        <v> ENG_imperial_federation_unified_neutrality_DEF: "die Imperial Federation"</v>
+      </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
@@ -14792,6 +16174,14 @@
       <c r="B664" s="1" t="s">
         <v>1103</v>
       </c>
+      <c r="C664" s="1" t="str">
+        <f aca="false">A664 &amp;" " &amp;"""" &amp;B664 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_fascism_ADJ: "imperial"</v>
+      </c>
+      <c r="D664" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A664),"",C664)</f>
+        <v> ENG_imperial_federation_unified_fascism_ADJ: "imperial"</v>
+      </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
@@ -14800,6 +16190,14 @@
       <c r="B665" s="1" t="s">
         <v>1105</v>
       </c>
+      <c r="C665" s="1" t="str">
+        <f aca="false">A665 &amp;" " &amp;"""" &amp;B665 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_communism_ADJ: "Commonwealth"</v>
+      </c>
+      <c r="D665" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A665),"",C665)</f>
+        <v> ENG_imperial_federation_unified_communism_ADJ: "Commonwealth"</v>
+      </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
@@ -14808,6 +16206,14 @@
       <c r="B666" s="1" t="s">
         <v>1105</v>
       </c>
+      <c r="C666" s="1" t="str">
+        <f aca="false">A666 &amp;" " &amp;"""" &amp;B666 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_democratic_ADJ: "Commonwealth"</v>
+      </c>
+      <c r="D666" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A666),"",C666)</f>
+        <v> ENG_imperial_federation_unified_democratic_ADJ: "Commonwealth"</v>
+      </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
@@ -14816,6 +16222,14 @@
       <c r="B667" s="1" t="s">
         <v>1103</v>
       </c>
+      <c r="C667" s="1" t="str">
+        <f aca="false">A667 &amp;" " &amp;"""" &amp;B667 &amp;""""</f>
+        <v> ENG_imperial_federation_unified_neutrality_ADJ: "imperial"</v>
+      </c>
+      <c r="D667" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A667),"",C667)</f>
+        <v> ENG_imperial_federation_unified_neutrality_ADJ: "imperial"</v>
+      </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="s">
@@ -14824,6 +16238,14 @@
       <c r="B668" s="1" t="s">
         <v>1087</v>
       </c>
+      <c r="C668" s="1" t="str">
+        <f aca="false">A668 &amp;" " &amp;"""" &amp;B668 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_fascism: "Das Empire"</v>
+      </c>
+      <c r="D668" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A668),"",C668)</f>
+        <v> ENG_imperial_federation_india_unified_fascism: "Das Empire"</v>
+      </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
@@ -14832,6 +16254,14 @@
       <c r="B669" s="1" t="s">
         <v>1089</v>
       </c>
+      <c r="C669" s="1" t="str">
+        <f aca="false">A669 &amp;" " &amp;"""" &amp;B669 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_communism: "Commonwealth of Peoples"</v>
+      </c>
+      <c r="D669" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A669),"",C669)</f>
+        <v> ENG_imperial_federation_india_unified_communism: "Commonwealth of Peoples"</v>
+      </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
@@ -14840,6 +16270,14 @@
       <c r="B670" s="1" t="s">
         <v>1091</v>
       </c>
+      <c r="C670" s="1" t="str">
+        <f aca="false">A670 &amp;" " &amp;"""" &amp;B670 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_democratic: "Commonwealth of Nations"</v>
+      </c>
+      <c r="D670" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A670),"",C670)</f>
+        <v> ENG_imperial_federation_india_unified_democratic: "Commonwealth of Nations"</v>
+      </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
@@ -14848,6 +16286,14 @@
       <c r="B671" s="1" t="s">
         <v>1093</v>
       </c>
+      <c r="C671" s="1" t="str">
+        <f aca="false">A671 &amp;" " &amp;"""" &amp;B671 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_neutrality: "Imperial Federation"</v>
+      </c>
+      <c r="D671" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A671),"",C671)</f>
+        <v> ENG_imperial_federation_india_unified_neutrality: "Imperial Federation"</v>
+      </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
@@ -14856,6 +16302,14 @@
       <c r="B672" s="1" t="s">
         <v>1095</v>
       </c>
+      <c r="C672" s="1" t="str">
+        <f aca="false">A672 &amp;" " &amp;"""" &amp;B672 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_fascism_DEF: "das Empire"</v>
+      </c>
+      <c r="D672" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A672),"",C672)</f>
+        <v> ENG_imperial_federation_india_unified_fascism_DEF: "das Empire"</v>
+      </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
@@ -14864,6 +16318,14 @@
       <c r="B673" s="1" t="s">
         <v>1097</v>
       </c>
+      <c r="C673" s="1" t="str">
+        <f aca="false">A673 &amp;" " &amp;"""" &amp;B673 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_communism_DEF: "das Commonwealth of Peoples"</v>
+      </c>
+      <c r="D673" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A673),"",C673)</f>
+        <v> ENG_imperial_federation_india_unified_communism_DEF: "das Commonwealth of Peoples"</v>
+      </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
@@ -14872,6 +16334,14 @@
       <c r="B674" s="1" t="s">
         <v>1099</v>
       </c>
+      <c r="C674" s="1" t="str">
+        <f aca="false">A674 &amp;" " &amp;"""" &amp;B674 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_democratic_DEF: "das Commonwealth of Nations"</v>
+      </c>
+      <c r="D674" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A674),"",C674)</f>
+        <v> ENG_imperial_federation_india_unified_democratic_DEF: "das Commonwealth of Nations"</v>
+      </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="s">
@@ -14880,6 +16350,14 @@
       <c r="B675" s="1" t="s">
         <v>1101</v>
       </c>
+      <c r="C675" s="1" t="str">
+        <f aca="false">A675 &amp;" " &amp;"""" &amp;B675 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_neutrality_DEF: "die Imperial Federation"</v>
+      </c>
+      <c r="D675" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A675),"",C675)</f>
+        <v> ENG_imperial_federation_india_unified_neutrality_DEF: "die Imperial Federation"</v>
+      </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="s">
@@ -14888,6 +16366,14 @@
       <c r="B676" s="1" t="s">
         <v>1103</v>
       </c>
+      <c r="C676" s="1" t="str">
+        <f aca="false">A676 &amp;" " &amp;"""" &amp;B676 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_fascism_ADJ: "imperial"</v>
+      </c>
+      <c r="D676" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A676),"",C676)</f>
+        <v> ENG_imperial_federation_india_unified_fascism_ADJ: "imperial"</v>
+      </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
@@ -14896,6 +16382,14 @@
       <c r="B677" s="1" t="s">
         <v>1105</v>
       </c>
+      <c r="C677" s="1" t="str">
+        <f aca="false">A677 &amp;" " &amp;"""" &amp;B677 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_communism_ADJ: "Commonwealth"</v>
+      </c>
+      <c r="D677" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A677),"",C677)</f>
+        <v> ENG_imperial_federation_india_unified_communism_ADJ: "Commonwealth"</v>
+      </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="s">
@@ -14904,6 +16398,14 @@
       <c r="B678" s="1" t="s">
         <v>1105</v>
       </c>
+      <c r="C678" s="1" t="str">
+        <f aca="false">A678 &amp;" " &amp;"""" &amp;B678 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_democratic_ADJ: "Commonwealth"</v>
+      </c>
+      <c r="D678" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A678),"",C678)</f>
+        <v> ENG_imperial_federation_india_unified_democratic_ADJ: "Commonwealth"</v>
+      </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="s">
@@ -14912,6 +16414,14 @@
       <c r="B679" s="1" t="s">
         <v>1103</v>
       </c>
+      <c r="C679" s="1" t="str">
+        <f aca="false">A679 &amp;" " &amp;"""" &amp;B679 &amp;""""</f>
+        <v> ENG_imperial_federation_india_unified_neutrality_ADJ: "imperial"</v>
+      </c>
+      <c r="D679" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A679),"",C679)</f>
+        <v> ENG_imperial_federation_india_unified_neutrality_ADJ: "imperial"</v>
+      </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="s">
@@ -14920,6 +16430,14 @@
       <c r="B680" s="1" t="s">
         <v>1121</v>
       </c>
+      <c r="C680" s="1" t="str">
+        <f aca="false">A680 &amp;" " &amp;"""" &amp;B680 &amp;""""</f>
+        <v> ENG_imperialist_canada_fascism: "Imperialistisches Kanada"</v>
+      </c>
+      <c r="D680" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A680),"",C680)</f>
+        <v> ENG_imperialist_canada_fascism: "Imperialistisches Kanada"</v>
+      </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="s">
@@ -14928,6 +16446,14 @@
       <c r="B681" s="1" t="s">
         <v>1121</v>
       </c>
+      <c r="C681" s="1" t="str">
+        <f aca="false">A681 &amp;" " &amp;"""" &amp;B681 &amp;""""</f>
+        <v> ENG_imperialist_canada_fascism_DEF: "Imperialistisches Kanada"</v>
+      </c>
+      <c r="D681" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A681),"",C681)</f>
+        <v> ENG_imperialist_canada_fascism_DEF: "Imperialistisches Kanada"</v>
+      </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="s">
@@ -14936,6 +16462,14 @@
       <c r="B682" s="1" t="s">
         <v>1124</v>
       </c>
+      <c r="C682" s="1" t="str">
+        <f aca="false">A682 &amp;" " &amp;"""" &amp;B682 &amp;""""</f>
+        <v> ENG_imperialist_canada_fascism_ADJ: "imperialistisch-kanadisch"</v>
+      </c>
+      <c r="D682" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A682),"",C682)</f>
+        <v> ENG_imperialist_canada_fascism_ADJ: "imperialistisch-kanadisch"</v>
+      </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="s">
@@ -14944,6 +16478,14 @@
       <c r="B683" s="1" t="s">
         <v>1121</v>
       </c>
+      <c r="C683" s="1" t="str">
+        <f aca="false">A683 &amp;" " &amp;"""" &amp;B683 &amp;""""</f>
+        <v> ENG_imperialist_canada_neutrality: "Imperialistisches Kanada"</v>
+      </c>
+      <c r="D683" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A683),"",C683)</f>
+        <v> ENG_imperialist_canada_neutrality: "Imperialistisches Kanada"</v>
+      </c>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="s">
@@ -14952,6 +16494,14 @@
       <c r="B684" s="1" t="s">
         <v>1121</v>
       </c>
+      <c r="C684" s="1" t="str">
+        <f aca="false">A684 &amp;" " &amp;"""" &amp;B684 &amp;""""</f>
+        <v> ENG_imperialist_canada_neutrality_DEF: "Imperialistisches Kanada"</v>
+      </c>
+      <c r="D684" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A684),"",C684)</f>
+        <v> ENG_imperialist_canada_neutrality_DEF: "Imperialistisches Kanada"</v>
+      </c>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
@@ -14960,6 +16510,14 @@
       <c r="B685" s="1" t="s">
         <v>1124</v>
       </c>
+      <c r="C685" s="1" t="str">
+        <f aca="false">A685 &amp;" " &amp;"""" &amp;B685 &amp;""""</f>
+        <v> ENG_imperialist_canada_neutrality_ADJ: "imperialistisch-kanadisch"</v>
+      </c>
+      <c r="D685" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A685),"",C685)</f>
+        <v> ENG_imperialist_canada_neutrality_ADJ: "imperialistisch-kanadisch"</v>
+      </c>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
@@ -14968,6 +16526,14 @@
       <c r="B686" s="1" t="s">
         <v>1129</v>
       </c>
+      <c r="C686" s="1" t="str">
+        <f aca="false">A686 &amp;" " &amp;"""" &amp;B686 &amp;""""</f>
+        <v> ENG_imperialist_south_africa_fascism: "Imperialistisches Südafrika"</v>
+      </c>
+      <c r="D686" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A686),"",C686)</f>
+        <v> ENG_imperialist_south_africa_fascism: "Imperialistisches Südafrika"</v>
+      </c>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
@@ -14976,6 +16542,14 @@
       <c r="B687" s="1" t="s">
         <v>1129</v>
       </c>
+      <c r="C687" s="1" t="str">
+        <f aca="false">A687 &amp;" " &amp;"""" &amp;B687 &amp;""""</f>
+        <v> ENG_imperialist_south_africa_fascism_DEF: "Imperialistisches Südafrika"</v>
+      </c>
+      <c r="D687" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A687),"",C687)</f>
+        <v> ENG_imperialist_south_africa_fascism_DEF: "Imperialistisches Südafrika"</v>
+      </c>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="s">
@@ -14984,6 +16558,14 @@
       <c r="B688" s="1" t="s">
         <v>1132</v>
       </c>
+      <c r="C688" s="1" t="str">
+        <f aca="false">A688 &amp;" " &amp;"""" &amp;B688 &amp;""""</f>
+        <v> ENG_imperialist_south_africa_fascism_ADJ: "imperialistisch-südafrikanisch"</v>
+      </c>
+      <c r="D688" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A688),"",C688)</f>
+        <v> ENG_imperialist_south_africa_fascism_ADJ: "imperialistisch-südafrikanisch"</v>
+      </c>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
@@ -14992,6 +16574,14 @@
       <c r="B689" s="1" t="s">
         <v>1129</v>
       </c>
+      <c r="C689" s="1" t="str">
+        <f aca="false">A689 &amp;" " &amp;"""" &amp;B689 &amp;""""</f>
+        <v> ENG_imperialist_south_africa_neutrality: "Imperialistisches Südafrika"</v>
+      </c>
+      <c r="D689" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A689),"",C689)</f>
+        <v> ENG_imperialist_south_africa_neutrality: "Imperialistisches Südafrika"</v>
+      </c>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="s">
@@ -15000,6 +16590,14 @@
       <c r="B690" s="1" t="s">
         <v>1129</v>
       </c>
+      <c r="C690" s="1" t="str">
+        <f aca="false">A690 &amp;" " &amp;"""" &amp;B690 &amp;""""</f>
+        <v> ENG_imperialist_south_africa_neutrality_DEF: "Imperialistisches Südafrika"</v>
+      </c>
+      <c r="D690" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A690),"",C690)</f>
+        <v> ENG_imperialist_south_africa_neutrality_DEF: "Imperialistisches Südafrika"</v>
+      </c>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="s">
@@ -15008,6 +16606,14 @@
       <c r="B691" s="1" t="s">
         <v>1136</v>
       </c>
+      <c r="C691" s="1" t="str">
+        <f aca="false">A691 &amp;" " &amp;"""" &amp;B691 &amp;""""</f>
+        <v> ENG_imperialist_south_africa_neutrality_ADJ: "Imperialistisch-südafrikanisch"</v>
+      </c>
+      <c r="D691" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A691),"",C691)</f>
+        <v> ENG_imperialist_south_africa_neutrality_ADJ: "Imperialistisch-südafrikanisch"</v>
+      </c>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="s">
@@ -15016,6 +16622,14 @@
       <c r="B692" s="1" t="s">
         <v>1138</v>
       </c>
+      <c r="C692" s="1" t="str">
+        <f aca="false">A692 &amp;" " &amp;"""" &amp;B692 &amp;""""</f>
+        <v> ENG_imperialist_australia_fascism: "Imperialistisches Australien"</v>
+      </c>
+      <c r="D692" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A692),"",C692)</f>
+        <v> ENG_imperialist_australia_fascism: "Imperialistisches Australien"</v>
+      </c>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="s">
@@ -15024,6 +16638,14 @@
       <c r="B693" s="1" t="s">
         <v>1138</v>
       </c>
+      <c r="C693" s="1" t="str">
+        <f aca="false">A693 &amp;" " &amp;"""" &amp;B693 &amp;""""</f>
+        <v> ENG_imperialist_australia_fascism_DEF: "Imperialistisches Australien"</v>
+      </c>
+      <c r="D693" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A693),"",C693)</f>
+        <v> ENG_imperialist_australia_fascism_DEF: "Imperialistisches Australien"</v>
+      </c>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="s">
@@ -15032,6 +16654,14 @@
       <c r="B694" s="1" t="s">
         <v>1141</v>
       </c>
+      <c r="C694" s="1" t="str">
+        <f aca="false">A694 &amp;" " &amp;"""" &amp;B694 &amp;""""</f>
+        <v> ENG_imperialist_australia_fascism_ADJ: "Imperialistisch-australisch"</v>
+      </c>
+      <c r="D694" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A694),"",C694)</f>
+        <v> ENG_imperialist_australia_fascism_ADJ: "Imperialistisch-australisch"</v>
+      </c>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
@@ -15040,6 +16670,14 @@
       <c r="B695" s="1" t="s">
         <v>1138</v>
       </c>
+      <c r="C695" s="1" t="str">
+        <f aca="false">A695 &amp;" " &amp;"""" &amp;B695 &amp;""""</f>
+        <v> ENG_imperialist_australia_neutrality: "Imperialistisches Australien"</v>
+      </c>
+      <c r="D695" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A695),"",C695)</f>
+        <v> ENG_imperialist_australia_neutrality: "Imperialistisches Australien"</v>
+      </c>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="s">
@@ -15048,6 +16686,14 @@
       <c r="B696" s="1" t="s">
         <v>1138</v>
       </c>
+      <c r="C696" s="1" t="str">
+        <f aca="false">A696 &amp;" " &amp;"""" &amp;B696 &amp;""""</f>
+        <v> ENG_imperialist_australia_neutrality_DEF: "Imperialistisches Australien"</v>
+      </c>
+      <c r="D696" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A696),"",C696)</f>
+        <v> ENG_imperialist_australia_neutrality_DEF: "Imperialistisches Australien"</v>
+      </c>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="s">
@@ -15056,6 +16702,14 @@
       <c r="B697" s="1" t="s">
         <v>1141</v>
       </c>
+      <c r="C697" s="1" t="str">
+        <f aca="false">A697 &amp;" " &amp;"""" &amp;B697 &amp;""""</f>
+        <v> ENG_imperialist_australia_neutrality_ADJ: "Imperialistisch-australisch"</v>
+      </c>
+      <c r="D697" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A697),"",C697)</f>
+        <v> ENG_imperialist_australia_neutrality_ADJ: "Imperialistisch-australisch"</v>
+      </c>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="s">
@@ -15064,6 +16718,14 @@
       <c r="B698" s="1" t="s">
         <v>1146</v>
       </c>
+      <c r="C698" s="1" t="str">
+        <f aca="false">A698 &amp;" " &amp;"""" &amp;B698 &amp;""""</f>
+        <v> ENG_imperialist_new_zealand_fascism: "Imperialistisches Neuseeland"</v>
+      </c>
+      <c r="D698" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A698),"",C698)</f>
+        <v> ENG_imperialist_new_zealand_fascism: "Imperialistisches Neuseeland"</v>
+      </c>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="s">
@@ -15072,6 +16734,14 @@
       <c r="B699" s="1" t="s">
         <v>1146</v>
       </c>
+      <c r="C699" s="1" t="str">
+        <f aca="false">A699 &amp;" " &amp;"""" &amp;B699 &amp;""""</f>
+        <v> ENG_imperialist_new_zealand_fascism_DEF: "Imperialistisches Neuseeland"</v>
+      </c>
+      <c r="D699" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A699),"",C699)</f>
+        <v> ENG_imperialist_new_zealand_fascism_DEF: "Imperialistisches Neuseeland"</v>
+      </c>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="s">
@@ -15080,6 +16750,14 @@
       <c r="B700" s="1" t="s">
         <v>1146</v>
       </c>
+      <c r="C700" s="1" t="str">
+        <f aca="false">A700 &amp;" " &amp;"""" &amp;B700 &amp;""""</f>
+        <v> ENG_imperialist_new_zealand_fascism_ADJ: "Imperialistisches Neuseeland"</v>
+      </c>
+      <c r="D700" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A700),"",C700)</f>
+        <v> ENG_imperialist_new_zealand_fascism_ADJ: "Imperialistisches Neuseeland"</v>
+      </c>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="s">
@@ -15088,6 +16766,14 @@
       <c r="B701" s="1" t="s">
         <v>1146</v>
       </c>
+      <c r="C701" s="1" t="str">
+        <f aca="false">A701 &amp;" " &amp;"""" &amp;B701 &amp;""""</f>
+        <v> ENG_imperialist_new_zealand_neutrality: "Imperialistisches Neuseeland"</v>
+      </c>
+      <c r="D701" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A701),"",C701)</f>
+        <v> ENG_imperialist_new_zealand_neutrality: "Imperialistisches Neuseeland"</v>
+      </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="s">
@@ -15096,6 +16782,14 @@
       <c r="B702" s="1" t="s">
         <v>1146</v>
       </c>
+      <c r="C702" s="1" t="str">
+        <f aca="false">A702 &amp;" " &amp;"""" &amp;B702 &amp;""""</f>
+        <v> ENG_imperialist_new_zealand_neutrality_DEF: "Imperialistisches Neuseeland"</v>
+      </c>
+      <c r="D702" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A702),"",C702)</f>
+        <v> ENG_imperialist_new_zealand_neutrality_DEF: "Imperialistisches Neuseeland"</v>
+      </c>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
@@ -15104,6 +16798,14 @@
       <c r="B703" s="1" t="s">
         <v>1146</v>
       </c>
+      <c r="C703" s="1" t="str">
+        <f aca="false">A703 &amp;" " &amp;"""" &amp;B703 &amp;""""</f>
+        <v> ENG_imperialist_new_zealand_neutrality_ADJ: "Imperialistisches Neuseeland"</v>
+      </c>
+      <c r="D703" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A703),"",C703)</f>
+        <v> ENG_imperialist_new_zealand_neutrality_ADJ: "Imperialistisches Neuseeland"</v>
+      </c>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="s">
@@ -15112,6 +16814,14 @@
       <c r="B704" s="1" t="s">
         <v>1153</v>
       </c>
+      <c r="C704" s="1" t="str">
+        <f aca="false">A704 &amp;" " &amp;"""" &amp;B704 &amp;""""</f>
+        <v> USA_wallis_simpson_neutrality: "Vereinigtes Königreich von Amerika"</v>
+      </c>
+      <c r="D704" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A704),"",C704)</f>
+        <v> USA_wallis_simpson_neutrality: "Vereinigtes Königreich von Amerika"</v>
+      </c>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="s">
@@ -15120,6 +16830,14 @@
       <c r="B705" s="1" t="s">
         <v>1155</v>
       </c>
+      <c r="C705" s="1" t="str">
+        <f aca="false">A705 &amp;" " &amp;"""" &amp;B705 &amp;""""</f>
+        <v> USA_wallis_simpson_neutrality_def: "das Vereinigte Königreich von Amerika"</v>
+      </c>
+      <c r="D705" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A705),"",C705)</f>
+        <v> USA_wallis_simpson_neutrality_def: "das Vereinigte Königreich von Amerika"</v>
+      </c>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="s">
@@ -15128,6 +16846,14 @@
       <c r="B706" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C706" s="1" t="str">
+        <f aca="false">A706 &amp;" " &amp;"""" &amp;B706 &amp;""""</f>
+        <v> CAN_north_america_dominion_neutrality: "Dominion Nordamerika"</v>
+      </c>
+      <c r="D706" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A706),"",C706)</f>
+        <v> CAN_north_america_dominion_neutrality: "Dominion Nordamerika"</v>
+      </c>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="s">
@@ -15136,6 +16862,14 @@
       <c r="B707" s="1" t="s">
         <v>1158</v>
       </c>
+      <c r="C707" s="1" t="str">
+        <f aca="false">A707 &amp;" " &amp;"""" &amp;B707 &amp;""""</f>
+        <v> CAN_north_america_dominion_neutrality_def: "das Dominion Nordamerika"</v>
+      </c>
+      <c r="D707" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A707),"",C707)</f>
+        <v> CAN_north_america_dominion_neutrality_def: "das Dominion Nordamerika"</v>
+      </c>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="s">
@@ -15144,6 +16878,14 @@
       <c r="B708" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C708" s="1" t="str">
+        <f aca="false">A708 &amp;" " &amp;"""" &amp;B708 &amp;""""</f>
+        <v> CAN_north_america_dominion_fascism: "Dominion Nordamerika"</v>
+      </c>
+      <c r="D708" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A708),"",C708)</f>
+        <v> CAN_north_america_dominion_fascism: "Dominion Nordamerika"</v>
+      </c>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="s">
@@ -15152,6 +16894,14 @@
       <c r="B709" s="1" t="s">
         <v>1158</v>
       </c>
+      <c r="C709" s="1" t="str">
+        <f aca="false">A709 &amp;" " &amp;"""" &amp;B709 &amp;""""</f>
+        <v> CAN_north_america_dominion_fascism_def: "das Dominion Nordamerika"</v>
+      </c>
+      <c r="D709" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A709),"",C709)</f>
+        <v> CAN_north_america_dominion_fascism_def: "das Dominion Nordamerika"</v>
+      </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="s">
@@ -15160,6 +16910,14 @@
       <c r="B710" s="1" t="s">
         <v>1162</v>
       </c>
+      <c r="C710" s="1" t="str">
+        <f aca="false">A710 &amp;" " &amp;"""" &amp;B710 &amp;""""</f>
+        <v> ENG_MEX_dominion_democratic: "Dominion Mexiko"</v>
+      </c>
+      <c r="D710" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A710),"",C710)</f>
+        <v> ENG_MEX_dominion_democratic: "Dominion Mexiko"</v>
+      </c>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="s">
@@ -15168,6 +16926,14 @@
       <c r="B711" s="1" t="s">
         <v>1164</v>
       </c>
+      <c r="C711" s="1" t="str">
+        <f aca="false">A711 &amp;" " &amp;"""" &amp;B711 &amp;""""</f>
+        <v> ENG_MEX_dominion_democratic_def: "das Dominion Mexiko"</v>
+      </c>
+      <c r="D711" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A711),"",C711)</f>
+        <v> ENG_MEX_dominion_democratic_def: "das Dominion Mexiko"</v>
+      </c>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="s">
@@ -15176,6 +16942,14 @@
       <c r="B712" s="1" t="s">
         <v>1162</v>
       </c>
+      <c r="C712" s="1" t="str">
+        <f aca="false">A712 &amp;" " &amp;"""" &amp;B712 &amp;""""</f>
+        <v> ENG_MEX_dominion_neutrality: "Dominion Mexiko"</v>
+      </c>
+      <c r="D712" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A712),"",C712)</f>
+        <v> ENG_MEX_dominion_neutrality: "Dominion Mexiko"</v>
+      </c>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="s">
@@ -15184,6 +16958,14 @@
       <c r="B713" s="1" t="s">
         <v>1164</v>
       </c>
+      <c r="C713" s="1" t="str">
+        <f aca="false">A713 &amp;" " &amp;"""" &amp;B713 &amp;""""</f>
+        <v> ENG_MEX_dominion_neutrality_def: "das Dominion Mexiko"</v>
+      </c>
+      <c r="D713" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A713),"",C713)</f>
+        <v> ENG_MEX_dominion_neutrality_def: "das Dominion Mexiko"</v>
+      </c>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="s">
@@ -15192,6 +16974,14 @@
       <c r="B714" s="1" t="s">
         <v>1162</v>
       </c>
+      <c r="C714" s="1" t="str">
+        <f aca="false">A714 &amp;" " &amp;"""" &amp;B714 &amp;""""</f>
+        <v> ENG_MEX_dominion_fascism: "Dominion Mexiko"</v>
+      </c>
+      <c r="D714" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A714),"",C714)</f>
+        <v> ENG_MEX_dominion_fascism: "Dominion Mexiko"</v>
+      </c>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="s">
@@ -15200,6 +16990,14 @@
       <c r="B715" s="1" t="s">
         <v>1164</v>
       </c>
+      <c r="C715" s="1" t="str">
+        <f aca="false">A715 &amp;" " &amp;"""" &amp;B715 &amp;""""</f>
+        <v> ENG_MEX_dominion_fascism_def: "das Dominion Mexiko"</v>
+      </c>
+      <c r="D715" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A715),"",C715)</f>
+        <v> ENG_MEX_dominion_fascism_def: "das Dominion Mexiko"</v>
+      </c>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="s">
@@ -15208,6 +17006,14 @@
       <c r="B716" s="1" t="s">
         <v>1162</v>
       </c>
+      <c r="C716" s="1" t="str">
+        <f aca="false">A716 &amp;" " &amp;"""" &amp;B716 &amp;""""</f>
+        <v> ENG_MEX_dominion_communism: "Dominion Mexiko"</v>
+      </c>
+      <c r="D716" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A716),"",C716)</f>
+        <v> ENG_MEX_dominion_communism: "Dominion Mexiko"</v>
+      </c>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="s">
@@ -15216,6 +17022,14 @@
       <c r="B717" s="1" t="s">
         <v>1164</v>
       </c>
+      <c r="C717" s="1" t="str">
+        <f aca="false">A717 &amp;" " &amp;"""" &amp;B717 &amp;""""</f>
+        <v> ENG_MEX_dominion_communism_def: "das Dominion Mexiko"</v>
+      </c>
+      <c r="D717" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A717),"",C717)</f>
+        <v> ENG_MEX_dominion_communism_def: "das Dominion Mexiko"</v>
+      </c>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="s">
@@ -15224,6 +17038,14 @@
       <c r="B718" s="1" t="s">
         <v>1172</v>
       </c>
+      <c r="C718" s="1" t="str">
+        <f aca="false">A718 &amp;" " &amp;"""" &amp;B718 &amp;""""</f>
+        <v> ENG_england_democratic: "England"</v>
+      </c>
+      <c r="D718" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A718),"",C718)</f>
+        <v> ENG_england_democratic: "England"</v>
+      </c>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="s">
@@ -15232,6 +17054,14 @@
       <c r="B719" s="1" t="s">
         <v>1172</v>
       </c>
+      <c r="C719" s="1" t="str">
+        <f aca="false">A719 &amp;" " &amp;"""" &amp;B719 &amp;""""</f>
+        <v> ENG_england_democratic_DEF: "England"</v>
+      </c>
+      <c r="D719" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A719),"",C719)</f>
+        <v> ENG_england_democratic_DEF: "England"</v>
+      </c>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="s">
@@ -15240,6 +17070,14 @@
       <c r="B720" s="1" t="s">
         <v>1175</v>
       </c>
+      <c r="C720" s="1" t="str">
+        <f aca="false">A720 &amp;" " &amp;"""" &amp;B720 &amp;""""</f>
+        <v> ENG_england_democratic_ADJ: "englisch"</v>
+      </c>
+      <c r="D720" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A720),"",C720)</f>
+        <v> ENG_england_democratic_ADJ: "englisch"</v>
+      </c>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="s">
@@ -15248,6 +17086,14 @@
       <c r="B721" s="1" t="s">
         <v>1177</v>
       </c>
+      <c r="C721" s="1" t="str">
+        <f aca="false">A721 &amp;" " &amp;"""" &amp;B721 &amp;""""</f>
+        <v> ENG_england_neutrality: "Königreich England"</v>
+      </c>
+      <c r="D721" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A721),"",C721)</f>
+        <v> ENG_england_neutrality: "Königreich England"</v>
+      </c>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="s">
@@ -15256,6 +17102,14 @@
       <c r="B722" s="1" t="s">
         <v>1179</v>
       </c>
+      <c r="C722" s="1" t="str">
+        <f aca="false">A722 &amp;" " &amp;"""" &amp;B722 &amp;""""</f>
+        <v> ENG_england_neutrality_DEF: "das Königreich England"</v>
+      </c>
+      <c r="D722" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A722),"",C722)</f>
+        <v> ENG_england_neutrality_DEF: "das Königreich England"</v>
+      </c>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="s">
@@ -15264,6 +17118,14 @@
       <c r="B723" s="1" t="s">
         <v>1175</v>
       </c>
+      <c r="C723" s="1" t="str">
+        <f aca="false">A723 &amp;" " &amp;"""" &amp;B723 &amp;""""</f>
+        <v> ENG_england_neutrality_ADJ: "englisch"</v>
+      </c>
+      <c r="D723" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A723),"",C723)</f>
+        <v> ENG_england_neutrality_ADJ: "englisch"</v>
+      </c>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="s">
@@ -15272,6 +17134,14 @@
       <c r="B724" s="1" t="s">
         <v>1182</v>
       </c>
+      <c r="C724" s="1" t="str">
+        <f aca="false">A724 &amp;" " &amp;"""" &amp;B724 &amp;""""</f>
+        <v> ENG_england_fascism: "Albion"</v>
+      </c>
+      <c r="D724" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A724),"",C724)</f>
+        <v> ENG_england_fascism: "Albion"</v>
+      </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="s">
@@ -15280,6 +17150,14 @@
       <c r="B725" s="1" t="s">
         <v>1182</v>
       </c>
+      <c r="C725" s="1" t="str">
+        <f aca="false">A725 &amp;" " &amp;"""" &amp;B725 &amp;""""</f>
+        <v> ENG_england_fascism_DEF: "Albion"</v>
+      </c>
+      <c r="D725" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A725),"",C725)</f>
+        <v> ENG_england_fascism_DEF: "Albion"</v>
+      </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
@@ -15288,6 +17166,14 @@
       <c r="B726" s="1" t="s">
         <v>1175</v>
       </c>
+      <c r="C726" s="1" t="str">
+        <f aca="false">A726 &amp;" " &amp;"""" &amp;B726 &amp;""""</f>
+        <v> ENG_england_fascism_ADJ: "englisch"</v>
+      </c>
+      <c r="D726" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A726),"",C726)</f>
+        <v> ENG_england_fascism_ADJ: "englisch"</v>
+      </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="s">
@@ -15296,6 +17182,14 @@
       <c r="B727" s="1" t="s">
         <v>1186</v>
       </c>
+      <c r="C727" s="1" t="str">
+        <f aca="false">A727 &amp;" " &amp;"""" &amp;B727 &amp;""""</f>
+        <v> ENG_england_communism: "Kommune Anglia"</v>
+      </c>
+      <c r="D727" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A727),"",C727)</f>
+        <v> ENG_england_communism: "Kommune Anglia"</v>
+      </c>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
@@ -15304,6 +17198,14 @@
       <c r="B728" s="1" t="s">
         <v>1188</v>
       </c>
+      <c r="C728" s="1" t="str">
+        <f aca="false">A728 &amp;" " &amp;"""" &amp;B728 &amp;""""</f>
+        <v> ENG_england_communism_DEF: "die Kommune Anglia"</v>
+      </c>
+      <c r="D728" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A728),"",C728)</f>
+        <v> ENG_england_communism_DEF: "die Kommune Anglia"</v>
+      </c>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="s">
@@ -15312,6 +17214,14 @@
       <c r="B729" s="1" t="s">
         <v>1190</v>
       </c>
+      <c r="C729" s="1" t="str">
+        <f aca="false">A729 &amp;" " &amp;"""" &amp;B729 &amp;""""</f>
+        <v> ENG_england_communism_ADJ: "angelsächsisch"</v>
+      </c>
+      <c r="D729" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A729),"",C729)</f>
+        <v> ENG_england_communism_ADJ: "angelsächsisch"</v>
+      </c>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="s">
@@ -15320,6 +17230,14 @@
       <c r="B730" s="1" t="s">
         <v>1192</v>
       </c>
+      <c r="C730" s="1" t="str">
+        <f aca="false">A730 &amp;" " &amp;"""" &amp;B730 &amp;""""</f>
+        <v> ENG_communist_civil_war_communism: "True Union of Britain"</v>
+      </c>
+      <c r="D730" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A730),"",C730)</f>
+        <v> ENG_communist_civil_war_communism: "True Union of Britain"</v>
+      </c>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="s">
@@ -15328,6 +17246,14 @@
       <c r="B731" s="1" t="s">
         <v>1194</v>
       </c>
+      <c r="C731" s="1" t="str">
+        <f aca="false">A731 &amp;" " &amp;"""" &amp;B731 &amp;""""</f>
+        <v> ENG_communist_civil_war_communism_def: "die True Union of Britain"</v>
+      </c>
+      <c r="D731" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A731),"",C731)</f>
+        <v> ENG_communist_civil_war_communism_def: "die True Union of Britain"</v>
+      </c>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="s">
@@ -15336,6 +17262,14 @@
       <c r="B732" s="1" t="s">
         <v>1196</v>
       </c>
+      <c r="C732" s="1" t="str">
+        <f aca="false">A732 &amp;" " &amp;"""" &amp;B732 &amp;""""</f>
+        <v> SOV_russia_communism: "Russische Sozialistische Sowjetrepublik"</v>
+      </c>
+      <c r="D732" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A732),"",C732)</f>
+        <v> SOV_russia_communism: "Russische Sozialistische Sowjetrepublik"</v>
+      </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="s">
@@ -15344,6 +17278,14 @@
       <c r="B733" s="1" t="s">
         <v>1198</v>
       </c>
+      <c r="C733" s="1" t="str">
+        <f aca="false">A733 &amp;" " &amp;"""" &amp;B733 &amp;""""</f>
+        <v> SOV_russia_communism_DEF: "die Russische Sozialistische Sowjetrepublik"</v>
+      </c>
+      <c r="D733" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A733),"",C733)</f>
+        <v> SOV_russia_communism_DEF: "die Russische Sozialistische Sowjetrepublik"</v>
+      </c>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="s">
@@ -15352,6 +17294,14 @@
       <c r="B734" s="1" t="s">
         <v>1200</v>
       </c>
+      <c r="C734" s="1" t="str">
+        <f aca="false">A734 &amp;" " &amp;"""" &amp;B734 &amp;""""</f>
+        <v> SOV_russia_communism_ADJ: "russisch"</v>
+      </c>
+      <c r="D734" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A734),"",C734)</f>
+        <v> SOV_russia_communism_ADJ: "russisch"</v>
+      </c>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="1" t="s">
@@ -15360,6 +17310,14 @@
       <c r="B735" s="1" t="s">
         <v>1202</v>
       </c>
+      <c r="C735" s="1" t="str">
+        <f aca="false">A735 &amp;" " &amp;"""" &amp;B735 &amp;""""</f>
+        <v> HOL_benelux_unified_democratic: "Benelux-Föderation"</v>
+      </c>
+      <c r="D735" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A735),"",C735)</f>
+        <v> HOL_benelux_unified_democratic: "Benelux-Föderation"</v>
+      </c>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="s">
@@ -15368,6 +17326,14 @@
       <c r="B736" s="1" t="s">
         <v>1204</v>
       </c>
+      <c r="C736" s="1" t="str">
+        <f aca="false">A736 &amp;" " &amp;"""" &amp;B736 &amp;""""</f>
+        <v> HOL_benelux_unified_democratic_DEF: "die Benelux-Föderation"</v>
+      </c>
+      <c r="D736" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A736),"",C736)</f>
+        <v> HOL_benelux_unified_democratic_DEF: "die Benelux-Föderation"</v>
+      </c>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="1" t="s">
@@ -15376,6 +17342,14 @@
       <c r="B737" s="1" t="s">
         <v>1206</v>
       </c>
+      <c r="C737" s="1" t="str">
+        <f aca="false">A737 &amp;" " &amp;"""" &amp;B737 &amp;""""</f>
+        <v> HOL_benelux_unified_democratic_ADJ: "Benelux"</v>
+      </c>
+      <c r="D737" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A737),"",C737)</f>
+        <v> HOL_benelux_unified_democratic_ADJ: "Benelux"</v>
+      </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="1" t="s">
@@ -15384,6 +17358,14 @@
       <c r="B738" s="1" t="s">
         <v>1208</v>
       </c>
+      <c r="C738" s="1" t="str">
+        <f aca="false">A738 &amp;" " &amp;"""" &amp;B738 &amp;""""</f>
+        <v> SPA_directory_fascism: "Spanisches Direktorat"</v>
+      </c>
+      <c r="D738" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A738),"",C738)</f>
+        <v> SPA_directory_fascism: "Spanisches Direktorat"</v>
+      </c>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="1" t="s">
@@ -15392,6 +17374,14 @@
       <c r="B739" s="1" t="s">
         <v>1210</v>
       </c>
+      <c r="C739" s="1" t="str">
+        <f aca="false">A739 &amp;" " &amp;"""" &amp;B739 &amp;""""</f>
+        <v> SPA_directory_fascism_DEF: "das Spanische Direktorat"</v>
+      </c>
+      <c r="D739" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A739),"",C739)</f>
+        <v> SPA_directory_fascism_DEF: "das Spanische Direktorat"</v>
+      </c>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="s">
@@ -15400,6 +17390,14 @@
       <c r="B740" s="1" t="s">
         <v>1212</v>
       </c>
+      <c r="C740" s="1" t="str">
+        <f aca="false">A740 &amp;" " &amp;"""" &amp;B740 &amp;""""</f>
+        <v> SPA_directory_fascism_ADJ: "spanisch"</v>
+      </c>
+      <c r="D740" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A740),"",C740)</f>
+        <v> SPA_directory_fascism_ADJ: "spanisch"</v>
+      </c>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
@@ -15408,6 +17406,14 @@
       <c r="B741" s="1" t="s">
         <v>1208</v>
       </c>
+      <c r="C741" s="1" t="str">
+        <f aca="false">A741 &amp;" " &amp;"""" &amp;B741 &amp;""""</f>
+        <v> SPA_directory_neutrality: "Spanisches Direktorat"</v>
+      </c>
+      <c r="D741" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A741),"",C741)</f>
+        <v> SPA_directory_neutrality: "Spanisches Direktorat"</v>
+      </c>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
@@ -15416,6 +17422,14 @@
       <c r="B742" s="1" t="s">
         <v>1210</v>
       </c>
+      <c r="C742" s="1" t="str">
+        <f aca="false">A742 &amp;" " &amp;"""" &amp;B742 &amp;""""</f>
+        <v> SPA_directory_neutrality_DEF: "das Spanische Direktorat"</v>
+      </c>
+      <c r="D742" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A742),"",C742)</f>
+        <v> SPA_directory_neutrality_DEF: "das Spanische Direktorat"</v>
+      </c>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
@@ -15424,6 +17438,14 @@
       <c r="B743" s="1" t="s">
         <v>1212</v>
       </c>
+      <c r="C743" s="1" t="str">
+        <f aca="false">A743 &amp;" " &amp;"""" &amp;B743 &amp;""""</f>
+        <v> SPA_directory_neutrality_ADJ: "spanisch"</v>
+      </c>
+      <c r="D743" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A743),"",C743)</f>
+        <v> SPA_directory_neutrality_ADJ: "spanisch"</v>
+      </c>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
@@ -15432,6 +17454,14 @@
       <c r="B744" s="1" t="s">
         <v>1217</v>
       </c>
+      <c r="C744" s="1" t="str">
+        <f aca="false">A744 &amp;" " &amp;"""" &amp;B744 &amp;""""</f>
+        <v> SPR_anarchist_aragon_neutrality: "Regionaler Verteidigungsrat von Aragonien"</v>
+      </c>
+      <c r="D744" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A744),"",C744)</f>
+        <v> SPR_anarchist_aragon_neutrality: "Regionaler Verteidigungsrat von Aragonien"</v>
+      </c>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
@@ -15440,6 +17470,14 @@
       <c r="B745" s="1" t="s">
         <v>1219</v>
       </c>
+      <c r="C745" s="1" t="str">
+        <f aca="false">A745 &amp;" " &amp;"""" &amp;B745 &amp;""""</f>
+        <v> SPR_anarchist_aragon_neutrality_DEF: "der Regionale Verteidigungsrat von Aragonien"</v>
+      </c>
+      <c r="D745" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A745),"",C745)</f>
+        <v> SPR_anarchist_aragon_neutrality_DEF: "der Regionale Verteidigungsrat von Aragonien"</v>
+      </c>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="s">
@@ -15448,6 +17486,14 @@
       <c r="B746" s="1" t="s">
         <v>1221</v>
       </c>
+      <c r="C746" s="1" t="str">
+        <f aca="false">A746 &amp;" " &amp;"""" &amp;B746 &amp;""""</f>
+        <v> SPR_anarchist_aragon_neutrality_ADJ: "aragonesisch"</v>
+      </c>
+      <c r="D746" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A746),"",C746)</f>
+        <v> SPR_anarchist_aragon_neutrality_ADJ: "aragonesisch"</v>
+      </c>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="s">
@@ -15456,6 +17502,14 @@
       <c r="B747" s="1" t="s">
         <v>1223</v>
       </c>
+      <c r="C747" s="1" t="str">
+        <f aca="false">A747 &amp;" " &amp;"""" &amp;B747 &amp;""""</f>
+        <v> SPR_anarchist_iberia_neutrality: "Regionaler Verteidigungsrat von Iberien"</v>
+      </c>
+      <c r="D747" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A747),"",C747)</f>
+        <v> SPR_anarchist_iberia_neutrality: "Regionaler Verteidigungsrat von Iberien"</v>
+      </c>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
@@ -15464,6 +17518,14 @@
       <c r="B748" s="1" t="s">
         <v>1225</v>
       </c>
+      <c r="C748" s="1" t="str">
+        <f aca="false">A748 &amp;" " &amp;"""" &amp;B748 &amp;""""</f>
+        <v> SPR_anarchist_iberia_neutrality_DEF: "der Regionale Verteidigungsrat von Iberien"</v>
+      </c>
+      <c r="D748" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A748),"",C748)</f>
+        <v> SPR_anarchist_iberia_neutrality_DEF: "der Regionale Verteidigungsrat von Iberien"</v>
+      </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
@@ -15472,6 +17534,14 @@
       <c r="B749" s="1" t="s">
         <v>1227</v>
       </c>
+      <c r="C749" s="1" t="str">
+        <f aca="false">A749 &amp;" " &amp;"""" &amp;B749 &amp;""""</f>
+        <v> SPR_anarchist_iberia_neutrality_ADJ: "iberisch"</v>
+      </c>
+      <c r="D749" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A749),"",C749)</f>
+        <v> SPR_anarchist_iberia_neutrality_ADJ: "iberisch"</v>
+      </c>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
@@ -15480,6 +17550,14 @@
       <c r="B750" s="1" t="s">
         <v>1229</v>
       </c>
+      <c r="C750" s="1" t="str">
+        <f aca="false">A750 &amp;" " &amp;"""" &amp;B750 &amp;""""</f>
+        <v> SPR_anarchist_global_neutrality: "Globaler Verteidigungsrat"</v>
+      </c>
+      <c r="D750" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A750),"",C750)</f>
+        <v> SPR_anarchist_global_neutrality: "Globaler Verteidigungsrat"</v>
+      </c>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="s">
@@ -15488,6 +17566,14 @@
       <c r="B751" s="1" t="s">
         <v>1231</v>
       </c>
+      <c r="C751" s="1" t="str">
+        <f aca="false">A751 &amp;" " &amp;"""" &amp;B751 &amp;""""</f>
+        <v> SPR_anarchist_global_neutrality_DEF: "der Globale Verteidigungsrat"</v>
+      </c>
+      <c r="D751" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A751),"",C751)</f>
+        <v> SPR_anarchist_global_neutrality_DEF: "der Globale Verteidigungsrat"</v>
+      </c>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="s">
@@ -15496,6 +17582,14 @@
       <c r="B752" s="1" t="s">
         <v>1233</v>
       </c>
+      <c r="C752" s="1" t="str">
+        <f aca="false">A752 &amp;" " &amp;"""" &amp;B752 &amp;""""</f>
+        <v> SPR_anarchist_global_neutrality_ADJ: "anarchistisch"</v>
+      </c>
+      <c r="D752" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A752),"",C752)</f>
+        <v> SPR_anarchist_global_neutrality_ADJ: "anarchistisch"</v>
+      </c>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="s">
@@ -15504,6 +17598,14 @@
       <c r="B753" s="1" t="s">
         <v>1235</v>
       </c>
+      <c r="C753" s="1" t="str">
+        <f aca="false">A753 &amp;" " &amp;"""" &amp;B753 &amp;""""</f>
+        <v> SPR_nationalist_spain_neutrality: "das nationalistische Spanien"</v>
+      </c>
+      <c r="D753" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A753),"",C753)</f>
+        <v> SPR_nationalist_spain_neutrality: "das nationalistische Spanien"</v>
+      </c>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
@@ -15512,6 +17614,14 @@
       <c r="B754" s="1" t="s">
         <v>1235</v>
       </c>
+      <c r="C754" s="1" t="str">
+        <f aca="false">A754 &amp;" " &amp;"""" &amp;B754 &amp;""""</f>
+        <v> SPR_nationalist_spain_neutrality_def: "das nationalistische Spanien"</v>
+      </c>
+      <c r="D754" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A754),"",C754)</f>
+        <v> SPR_nationalist_spain_neutrality_def: "das nationalistische Spanien"</v>
+      </c>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="s">
@@ -15520,6 +17630,14 @@
       <c r="B755" s="1" t="s">
         <v>1238</v>
       </c>
+      <c r="C755" s="1" t="str">
+        <f aca="false">A755 &amp;" " &amp;"""" &amp;B755 &amp;""""</f>
+        <v> SPR_nationalist_spain_neutrality_adj: "Spanish"</v>
+      </c>
+      <c r="D755" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A755),"",C755)</f>
+        <v> SPR_nationalist_spain_neutrality_adj: "Spanish"</v>
+      </c>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
@@ -15528,6 +17646,14 @@
       <c r="B756" s="1" t="s">
         <v>1235</v>
       </c>
+      <c r="C756" s="1" t="str">
+        <f aca="false">A756 &amp;" " &amp;"""" &amp;B756 &amp;""""</f>
+        <v> SPR_nationalist_spain_fascism: "das nationalistische Spanien"</v>
+      </c>
+      <c r="D756" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A756),"",C756)</f>
+        <v> SPR_nationalist_spain_fascism: "das nationalistische Spanien"</v>
+      </c>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="s">
@@ -15536,6 +17662,14 @@
       <c r="B757" s="1" t="s">
         <v>1235</v>
       </c>
+      <c r="C757" s="1" t="str">
+        <f aca="false">A757 &amp;" " &amp;"""" &amp;B757 &amp;""""</f>
+        <v> SPR_nationalist_spain_fascism_def: "das nationalistische Spanien"</v>
+      </c>
+      <c r="D757" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A757),"",C757)</f>
+        <v> SPR_nationalist_spain_fascism_def: "das nationalistische Spanien"</v>
+      </c>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="s">
@@ -15544,6 +17678,14 @@
       <c r="B758" s="1" t="s">
         <v>1242</v>
       </c>
+      <c r="C758" s="1" t="str">
+        <f aca="false">A758 &amp;" " &amp;"""" &amp;B758 &amp;""""</f>
+        <v> SPR_nationalist_spain_fascism_adj: "kolonialspanisch"</v>
+      </c>
+      <c r="D758" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A758),"",C758)</f>
+        <v> SPR_nationalist_spain_fascism_adj: "kolonialspanisch"</v>
+      </c>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
@@ -15552,6 +17694,14 @@
       <c r="B759" s="1" t="s">
         <v>1244</v>
       </c>
+      <c r="C759" s="1" t="str">
+        <f aca="false">A759 &amp;" " &amp;"""" &amp;B759 &amp;""""</f>
+        <v> SPR_carlist_spain_neutrality: "Carlististisches Spanien"</v>
+      </c>
+      <c r="D759" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A759),"",C759)</f>
+        <v> SPR_carlist_spain_neutrality: "Carlististisches Spanien"</v>
+      </c>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="s">
@@ -15560,6 +17710,14 @@
       <c r="B760" s="1" t="s">
         <v>1244</v>
       </c>
+      <c r="C760" s="1" t="str">
+        <f aca="false">A760 &amp;" " &amp;"""" &amp;B760 &amp;""""</f>
+        <v> SPR_carlist_spain_neutrality_def: "Carlististisches Spanien"</v>
+      </c>
+      <c r="D760" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A760),"",C760)</f>
+        <v> SPR_carlist_spain_neutrality_def: "Carlististisches Spanien"</v>
+      </c>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="s">
@@ -15568,6 +17726,14 @@
       <c r="B761" s="1" t="s">
         <v>1238</v>
       </c>
+      <c r="C761" s="1" t="str">
+        <f aca="false">A761 &amp;" " &amp;"""" &amp;B761 &amp;""""</f>
+        <v> SPR_carlist_spain_neutrality_adj: "Spanish"</v>
+      </c>
+      <c r="D761" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A761),"",C761)</f>
+        <v> SPR_carlist_spain_neutrality_adj: "Spanish"</v>
+      </c>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="s">
@@ -15576,6 +17742,14 @@
       <c r="B762" s="1" t="s">
         <v>1217</v>
       </c>
+      <c r="C762" s="1" t="str">
+        <f aca="false">A762 &amp;" " &amp;"""" &amp;B762 &amp;""""</f>
+        <v> SPR_anarchist_spain_neutrality: "Regionaler Verteidigungsrat von Aragonien"</v>
+      </c>
+      <c r="D762" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A762),"",C762)</f>
+        <v> SPR_anarchist_spain_neutrality: "Regionaler Verteidigungsrat von Aragonien"</v>
+      </c>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="s">
@@ -15584,6 +17758,14 @@
       <c r="B763" s="1" t="s">
         <v>1219</v>
       </c>
+      <c r="C763" s="1" t="str">
+        <f aca="false">A763 &amp;" " &amp;"""" &amp;B763 &amp;""""</f>
+        <v> SPR_anarchist_spain_neutrality_def: "der Regionale Verteidigungsrat von Aragonien"</v>
+      </c>
+      <c r="D763" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A763),"",C763)</f>
+        <v> SPR_anarchist_spain_neutrality_def: "der Regionale Verteidigungsrat von Aragonien"</v>
+      </c>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="s">
@@ -15592,6 +17774,14 @@
       <c r="B764" s="1" t="s">
         <v>1250</v>
       </c>
+      <c r="C764" s="1" t="str">
+        <f aca="false">A764 &amp;" " &amp;"""" &amp;B764 &amp;""""</f>
+        <v> SPR_anarchist_spain_neutrality_adj: "aragonesisch-anarchistisch"</v>
+      </c>
+      <c r="D764" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A764),"",C764)</f>
+        <v> SPR_anarchist_spain_neutrality_adj: "aragonesisch-anarchistisch"</v>
+      </c>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="s">
@@ -15600,6 +17790,14 @@
       <c r="B765" s="1" t="s">
         <v>1252</v>
       </c>
+      <c r="C765" s="1" t="str">
+        <f aca="false">A765 &amp;" " &amp;"""" &amp;B765 &amp;""""</f>
+        <v> SPR_anarchist_spain_communism: "Spanische Kommune"</v>
+      </c>
+      <c r="D765" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A765),"",C765)</f>
+        <v> SPR_anarchist_spain_communism: "Spanische Kommune"</v>
+      </c>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="s">
@@ -15608,6 +17806,14 @@
       <c r="B766" s="1" t="s">
         <v>1254</v>
       </c>
+      <c r="C766" s="1" t="str">
+        <f aca="false">A766 &amp;" " &amp;"""" &amp;B766 &amp;""""</f>
+        <v> SPR_anarchist_spain_communism_def: "die Spanische Kommune"</v>
+      </c>
+      <c r="D766" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A766),"",C766)</f>
+        <v> SPR_anarchist_spain_communism_def: "die Spanische Kommune"</v>
+      </c>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="s">
@@ -15616,6 +17822,14 @@
       <c r="B767" s="1" t="s">
         <v>1238</v>
       </c>
+      <c r="C767" s="1" t="str">
+        <f aca="false">A767 &amp;" " &amp;"""" &amp;B767 &amp;""""</f>
+        <v> SPR_anarchist_spain_communism_adj: "Spanish"</v>
+      </c>
+      <c r="D767" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A767),"",C767)</f>
+        <v> SPR_anarchist_spain_communism_adj: "Spanish"</v>
+      </c>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="s">
@@ -15624,6 +17838,14 @@
       <c r="B768" s="1" t="s">
         <v>1257</v>
       </c>
+      <c r="C768" s="1" t="str">
+        <f aca="false">A768 &amp;" " &amp;"""" &amp;B768 &amp;""""</f>
+        <v> SPR_republican_spain_democratic: "Spanien"</v>
+      </c>
+      <c r="D768" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A768),"",C768)</f>
+        <v> SPR_republican_spain_democratic: "Spanien"</v>
+      </c>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="s">
@@ -15632,6 +17854,14 @@
       <c r="B769" s="1" t="s">
         <v>1257</v>
       </c>
+      <c r="C769" s="1" t="str">
+        <f aca="false">A769 &amp;" " &amp;"""" &amp;B769 &amp;""""</f>
+        <v> SPR_republican_spain_democratic_def: "Spanien"</v>
+      </c>
+      <c r="D769" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A769),"",C769)</f>
+        <v> SPR_republican_spain_democratic_def: "Spanien"</v>
+      </c>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="s">
@@ -15640,6 +17870,14 @@
       <c r="B770" s="1" t="s">
         <v>1238</v>
       </c>
+      <c r="C770" s="1" t="str">
+        <f aca="false">A770 &amp;" " &amp;"""" &amp;B770 &amp;""""</f>
+        <v> SPR_republican_spain_democratic_adj: "Spanish"</v>
+      </c>
+      <c r="D770" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A770),"",C770)</f>
+        <v> SPR_republican_spain_democratic_adj: "Spanish"</v>
+      </c>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="1" t="s">
@@ -15648,6 +17886,14 @@
       <c r="B771" s="1" t="s">
         <v>1261</v>
       </c>
+      <c r="C771" s="1" t="str">
+        <f aca="false">A771 &amp;" " &amp;"""" &amp;B771 &amp;""""</f>
+        <v> SPR_republican_spain_communism: "Volksrepublik Spanien"</v>
+      </c>
+      <c r="D771" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A771),"",C771)</f>
+        <v> SPR_republican_spain_communism: "Volksrepublik Spanien"</v>
+      </c>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="1" t="s">
@@ -15656,6 +17902,14 @@
       <c r="B772" s="1" t="s">
         <v>1263</v>
       </c>
+      <c r="C772" s="1" t="str">
+        <f aca="false">A772 &amp;" " &amp;"""" &amp;B772 &amp;""""</f>
+        <v> SPR_republican_spain_communism_def: "die Volksrepublik Spanien"</v>
+      </c>
+      <c r="D772" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A772),"",C772)</f>
+        <v> SPR_republican_spain_communism_def: "die Volksrepublik Spanien"</v>
+      </c>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="1" t="s">
@@ -15664,6 +17918,14 @@
       <c r="B773" s="1" t="s">
         <v>1238</v>
       </c>
+      <c r="C773" s="1" t="str">
+        <f aca="false">A773 &amp;" " &amp;"""" &amp;B773 &amp;""""</f>
+        <v> SPR_republican_spain_communism_adj: "Spanish"</v>
+      </c>
+      <c r="D773" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A773),"",C773)</f>
+        <v> SPR_republican_spain_communism_adj: "Spanish"</v>
+      </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="s">
@@ -15672,6 +17934,14 @@
       <c r="B774" s="1" t="s">
         <v>1266</v>
       </c>
+      <c r="C774" s="1" t="str">
+        <f aca="false">A774 &amp;" " &amp;"""" &amp;B774 &amp;""""</f>
+        <v> SPB_kingdom_neutrality: "Königreich Spanien"</v>
+      </c>
+      <c r="D774" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A774),"",C774)</f>
+        <v> SPB_kingdom_neutrality: "Königreich Spanien"</v>
+      </c>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="s">
@@ -15680,6 +17950,14 @@
       <c r="B775" s="1" t="s">
         <v>1268</v>
       </c>
+      <c r="C775" s="1" t="str">
+        <f aca="false">A775 &amp;" " &amp;"""" &amp;B775 &amp;""""</f>
+        <v> SPB_kingdom_neutrality_def: "das Königreich Spanien"</v>
+      </c>
+      <c r="D775" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A775),"",C775)</f>
+        <v> SPB_kingdom_neutrality_def: "das Königreich Spanien"</v>
+      </c>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="s">
@@ -15688,6 +17966,14 @@
       <c r="B776" s="1" t="s">
         <v>1212</v>
       </c>
+      <c r="C776" s="1" t="str">
+        <f aca="false">A776 &amp;" " &amp;"""" &amp;B776 &amp;""""</f>
+        <v> SPB_kingdom_neutrality_adj: "spanisch"</v>
+      </c>
+      <c r="D776" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A776),"",C776)</f>
+        <v> SPB_kingdom_neutrality_adj: "spanisch"</v>
+      </c>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="s">
@@ -15696,6 +17982,14 @@
       <c r="B777" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="C777" s="1" t="str">
+        <f aca="false">A777 &amp;" " &amp;"""" &amp;B777 &amp;""""</f>
+        <v> SPA_spanish_empire_fascism: "Spanisches Reich"</v>
+      </c>
+      <c r="D777" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A777),"",C777)</f>
+        <v> SPA_spanish_empire_fascism: "Spanisches Reich"</v>
+      </c>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="s">
@@ -15704,6 +17998,14 @@
       <c r="B778" s="1" t="s">
         <v>1273</v>
       </c>
+      <c r="C778" s="1" t="str">
+        <f aca="false">A778 &amp;" " &amp;"""" &amp;B778 &amp;""""</f>
+        <v> SPA_spanish_empire_fascism_def: "das Spanische Reich"</v>
+      </c>
+      <c r="D778" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A778),"",C778)</f>
+        <v> SPA_spanish_empire_fascism_def: "das Spanische Reich"</v>
+      </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="1" t="s">
@@ -15712,6 +18014,14 @@
       <c r="B779" s="1" t="s">
         <v>1242</v>
       </c>
+      <c r="C779" s="1" t="str">
+        <f aca="false">A779 &amp;" " &amp;"""" &amp;B779 &amp;""""</f>
+        <v> SPA_spanish_empire_fascism_adj: "kolonialspanisch"</v>
+      </c>
+      <c r="D779" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A779),"",C779)</f>
+        <v> SPA_spanish_empire_fascism_adj: "kolonialspanisch"</v>
+      </c>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="1" t="s">
@@ -15720,6 +18030,14 @@
       <c r="B780" s="1" t="s">
         <v>1223</v>
       </c>
+      <c r="C780" s="1" t="str">
+        <f aca="false">A780 &amp;" " &amp;"""" &amp;B780 &amp;""""</f>
+        <v> SPC_regional_defense_council_of_iberia_neutrality: "Regionaler Verteidigungsrat von Iberien"</v>
+      </c>
+      <c r="D780" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A780),"",C780)</f>
+        <v> SPC_regional_defense_council_of_iberia_neutrality: "Regionaler Verteidigungsrat von Iberien"</v>
+      </c>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="s">
@@ -15728,6 +18046,14 @@
       <c r="B781" s="1" t="s">
         <v>1225</v>
       </c>
+      <c r="C781" s="1" t="str">
+        <f aca="false">A781 &amp;" " &amp;"""" &amp;B781 &amp;""""</f>
+        <v> SPC_regional_defense_council_of_iberia_neutrality_def: "der Regionale Verteidigungsrat von Iberien"</v>
+      </c>
+      <c r="D781" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A781),"",C781)</f>
+        <v> SPC_regional_defense_council_of_iberia_neutrality_def: "der Regionale Verteidigungsrat von Iberien"</v>
+      </c>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="s">
@@ -15736,6 +18062,14 @@
       <c r="B782" s="1" t="s">
         <v>1278</v>
       </c>
+      <c r="C782" s="1" t="str">
+        <f aca="false">A782 &amp;" " &amp;"""" &amp;B782 &amp;""""</f>
+        <v> SPC_regional_defense_council_of_iberia_neutrality_adj: "iberisch-anarchistisch"</v>
+      </c>
+      <c r="D782" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A782),"",C782)</f>
+        <v> SPC_regional_defense_council_of_iberia_neutrality_adj: "iberisch-anarchistisch"</v>
+      </c>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="1" t="s">
@@ -15744,6 +18078,14 @@
       <c r="B783" s="1" t="s">
         <v>1229</v>
       </c>
+      <c r="C783" s="1" t="str">
+        <f aca="false">A783 &amp;" " &amp;"""" &amp;B783 &amp;""""</f>
+        <v> SPC_global_defense_council_neutrality: "Globaler Verteidigungsrat"</v>
+      </c>
+      <c r="D783" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A783),"",C783)</f>
+        <v> SPC_global_defense_council_neutrality: "Globaler Verteidigungsrat"</v>
+      </c>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="1" t="s">
@@ -15752,6 +18094,14 @@
       <c r="B784" s="1" t="s">
         <v>1231</v>
       </c>
+      <c r="C784" s="1" t="str">
+        <f aca="false">A784 &amp;" " &amp;"""" &amp;B784 &amp;""""</f>
+        <v> SPC_global_defense_council_neutrality_def: "der Globale Verteidigungsrat"</v>
+      </c>
+      <c r="D784" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A784),"",C784)</f>
+        <v> SPC_global_defense_council_neutrality_def: "der Globale Verteidigungsrat"</v>
+      </c>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="s">
@@ -15760,6 +18110,14 @@
       <c r="B785" s="1" t="s">
         <v>1282</v>
       </c>
+      <c r="C785" s="1" t="str">
+        <f aca="false">A785 &amp;" " &amp;"""" &amp;B785 &amp;""""</f>
+        <v> SPC_global_defense_council_neutrality_adj: "global-anarchistisch"</v>
+      </c>
+      <c r="D785" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A785),"",C785)</f>
+        <v> SPC_global_defense_council_neutrality_adj: "global-anarchistisch"</v>
+      </c>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="s">
@@ -15768,6 +18126,14 @@
       <c r="B786" s="1" t="s">
         <v>1252</v>
       </c>
+      <c r="C786" s="1" t="str">
+        <f aca="false">A786 &amp;" " &amp;"""" &amp;B786 &amp;""""</f>
+        <v> SPC_poum_communism: "Spanische Kommune"</v>
+      </c>
+      <c r="D786" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A786),"",C786)</f>
+        <v> SPC_poum_communism: "Spanische Kommune"</v>
+      </c>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="s">
@@ -15776,6 +18142,14 @@
       <c r="B787" s="1" t="s">
         <v>1254</v>
       </c>
+      <c r="C787" s="1" t="str">
+        <f aca="false">A787 &amp;" " &amp;"""" &amp;B787 &amp;""""</f>
+        <v> SPC_poum_communism_def: "die Spanische Kommune"</v>
+      </c>
+      <c r="D787" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A787),"",C787)</f>
+        <v> SPC_poum_communism_def: "die Spanische Kommune"</v>
+      </c>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="s">
@@ -15784,6 +18158,14 @@
       <c r="B788" s="1" t="s">
         <v>1212</v>
       </c>
+      <c r="C788" s="1" t="str">
+        <f aca="false">A788 &amp;" " &amp;"""" &amp;B788 &amp;""""</f>
+        <v> SPC_poum_communism_adj: "spanisch"</v>
+      </c>
+      <c r="D788" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A788),"",C788)</f>
+        <v> SPC_poum_communism_adj: "spanisch"</v>
+      </c>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="s">
@@ -15792,6 +18174,14 @@
       <c r="B789" s="1" t="s">
         <v>1287</v>
       </c>
+      <c r="C789" s="1" t="str">
+        <f aca="false">A789 &amp;" " &amp;"""" &amp;B789 &amp;""""</f>
+        <v> SPR_anarchist_castille_neutrality: "Regionaler Verteidigungsrat von Kastilien"</v>
+      </c>
+      <c r="D789" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A789),"",C789)</f>
+        <v> SPR_anarchist_castille_neutrality: "Regionaler Verteidigungsrat von Kastilien"</v>
+      </c>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="s">
@@ -15800,6 +18190,14 @@
       <c r="B790" s="1" t="s">
         <v>1289</v>
       </c>
+      <c r="C790" s="1" t="str">
+        <f aca="false">A790 &amp;" " &amp;"""" &amp;B790 &amp;""""</f>
+        <v> SPR_anarchist_castille_neutrality_DEF: "der Regionale Verteidigungsrat von Kastilien"</v>
+      </c>
+      <c r="D790" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A790),"",C790)</f>
+        <v> SPR_anarchist_castille_neutrality_DEF: "der Regionale Verteidigungsrat von Kastilien"</v>
+      </c>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="s">
@@ -15808,6 +18206,14 @@
       <c r="B791" s="1" t="s">
         <v>1291</v>
       </c>
+      <c r="C791" s="1" t="str">
+        <f aca="false">A791 &amp;" " &amp;"""" &amp;B791 &amp;""""</f>
+        <v> SPR_anarchist_castille_neutrality_ADJ: "kastilisch"</v>
+      </c>
+      <c r="D791" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A791),"",C791)</f>
+        <v> SPR_anarchist_castille_neutrality_ADJ: "kastilisch"</v>
+      </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="s">
@@ -15816,6 +18222,14 @@
       <c r="B792" s="1" t="s">
         <v>1293</v>
       </c>
+      <c r="C792" s="1" t="str">
+        <f aca="false">A792 &amp;" " &amp;"""" &amp;B792 &amp;""""</f>
+        <v> SPR_anarchist_castille_communism: "Kastilische Kommune"</v>
+      </c>
+      <c r="D792" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A792),"",C792)</f>
+        <v> SPR_anarchist_castille_communism: "Kastilische Kommune"</v>
+      </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="1" t="s">
@@ -15824,6 +18238,14 @@
       <c r="B793" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="C793" s="1" t="str">
+        <f aca="false">A793 &amp;" " &amp;"""" &amp;B793 &amp;""""</f>
+        <v> SPR_anarchist_castille_communism_def: "die Kastilische Kommune"</v>
+      </c>
+      <c r="D793" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A793),"",C793)</f>
+        <v> SPR_anarchist_castille_communism_def: "die Kastilische Kommune"</v>
+      </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="1" t="s">
@@ -15832,6 +18254,14 @@
       <c r="B794" s="1" t="s">
         <v>1291</v>
       </c>
+      <c r="C794" s="1" t="str">
+        <f aca="false">A794 &amp;" " &amp;"""" &amp;B794 &amp;""""</f>
+        <v> SPR_anarchist_castille_communism_adj: "kastilisch"</v>
+      </c>
+      <c r="D794" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A794),"",C794)</f>
+        <v> SPR_anarchist_castille_communism_adj: "kastilisch"</v>
+      </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="1" t="s">
@@ -15840,6 +18270,14 @@
       <c r="B795" s="1" t="s">
         <v>1298</v>
       </c>
+      <c r="C795" s="1" t="str">
+        <f aca="false">A795 &amp;" " &amp;"""" &amp;B795 &amp;""""</f>
+        <v> SPR_republican_castille_democratic: "Kastilische Republik"</v>
+      </c>
+      <c r="D795" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A795),"",C795)</f>
+        <v> SPR_republican_castille_democratic: "Kastilische Republik"</v>
+      </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="1" t="s">
@@ -15848,6 +18286,14 @@
       <c r="B796" s="1" t="s">
         <v>1300</v>
       </c>
+      <c r="C796" s="1" t="str">
+        <f aca="false">A796 &amp;" " &amp;"""" &amp;B796 &amp;""""</f>
+        <v> SPR_republican_castille_democratic_def: "Kastilien"</v>
+      </c>
+      <c r="D796" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A796),"",C796)</f>
+        <v> SPR_republican_castille_democratic_def: "Kastilien"</v>
+      </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="1" t="s">
@@ -15856,6 +18302,14 @@
       <c r="B797" s="1" t="s">
         <v>1291</v>
       </c>
+      <c r="C797" s="1" t="str">
+        <f aca="false">A797 &amp;" " &amp;"""" &amp;B797 &amp;""""</f>
+        <v> SPR_republican_castille_democratic_adj: "kastilisch"</v>
+      </c>
+      <c r="D797" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A797),"",C797)</f>
+        <v> SPR_republican_castille_democratic_adj: "kastilisch"</v>
+      </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="1" t="s">
@@ -15864,6 +18318,14 @@
       <c r="B798" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="C798" s="1" t="str">
+        <f aca="false">A798 &amp;" " &amp;"""" &amp;B798 &amp;""""</f>
+        <v> SPR_republican_castille_communism: "Volksrepublik Kastilien"</v>
+      </c>
+      <c r="D798" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A798),"",C798)</f>
+        <v> SPR_republican_castille_communism: "Volksrepublik Kastilien"</v>
+      </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="1" t="s">
@@ -15872,6 +18334,14 @@
       <c r="B799" s="1" t="s">
         <v>1305</v>
       </c>
+      <c r="C799" s="1" t="str">
+        <f aca="false">A799 &amp;" " &amp;"""" &amp;B799 &amp;""""</f>
+        <v> SPR_republican_castille_communism_def: "die Volksrepublik Kastilien"</v>
+      </c>
+      <c r="D799" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A799),"",C799)</f>
+        <v> SPR_republican_castille_communism_def: "die Volksrepublik Kastilien"</v>
+      </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="1" t="s">
@@ -15880,6 +18350,14 @@
       <c r="B800" s="1" t="s">
         <v>1291</v>
       </c>
+      <c r="C800" s="1" t="str">
+        <f aca="false">A800 &amp;" " &amp;"""" &amp;B800 &amp;""""</f>
+        <v> SPR_republican_castille_communism_adj: "kastilisch"</v>
+      </c>
+      <c r="D800" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A800),"",C800)</f>
+        <v> SPR_republican_castille_communism_adj: "kastilisch"</v>
+      </c>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="1" t="s">
@@ -15888,6 +18366,14 @@
       <c r="B801" s="1" t="s">
         <v>1308</v>
       </c>
+      <c r="C801" s="1" t="str">
+        <f aca="false">A801 &amp;" " &amp;"""" &amp;B801 &amp;""""</f>
+        <v> SPR_nationalist_castille_neutrality: "Krone Kastiliens"</v>
+      </c>
+      <c r="D801" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A801),"",C801)</f>
+        <v> SPR_nationalist_castille_neutrality: "Krone Kastiliens"</v>
+      </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="1" t="s">
@@ -15896,6 +18382,14 @@
       <c r="B802" s="1" t="s">
         <v>1310</v>
       </c>
+      <c r="C802" s="1" t="str">
+        <f aca="false">A802 &amp;" " &amp;"""" &amp;B802 &amp;""""</f>
+        <v> SPR_nationalist_castille_neutrality_def: "die Krone Kastiliens"</v>
+      </c>
+      <c r="D802" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A802),"",C802)</f>
+        <v> SPR_nationalist_castille_neutrality_def: "die Krone Kastiliens"</v>
+      </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="1" t="s">
@@ -15904,6 +18398,14 @@
       <c r="B803" s="1" t="s">
         <v>1291</v>
       </c>
+      <c r="C803" s="1" t="str">
+        <f aca="false">A803 &amp;" " &amp;"""" &amp;B803 &amp;""""</f>
+        <v> SPR_nationalist_castille_neutrality_adj: "kastilisch"</v>
+      </c>
+      <c r="D803" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A803),"",C803)</f>
+        <v> SPR_nationalist_castille_neutrality_adj: "kastilisch"</v>
+      </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="1" t="s">
@@ -15912,6 +18414,14 @@
       <c r="B804" s="1" t="s">
         <v>1313</v>
       </c>
+      <c r="C804" s="1" t="str">
+        <f aca="false">A804 &amp;" " &amp;"""" &amp;B804 &amp;""""</f>
+        <v> SPR_nationalist_castille_fascism: "Nationalistisches Kastilien"</v>
+      </c>
+      <c r="D804" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A804),"",C804)</f>
+        <v> SPR_nationalist_castille_fascism: "Nationalistisches Kastilien"</v>
+      </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="1" t="s">
@@ -15920,6 +18430,14 @@
       <c r="B805" s="1" t="s">
         <v>1313</v>
       </c>
+      <c r="C805" s="1" t="str">
+        <f aca="false">A805 &amp;" " &amp;"""" &amp;B805 &amp;""""</f>
+        <v> SPR_nationalist_castille_fascism_def: "Nationalistisches Kastilien"</v>
+      </c>
+      <c r="D805" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A805),"",C805)</f>
+        <v> SPR_nationalist_castille_fascism_def: "Nationalistisches Kastilien"</v>
+      </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="1" t="s">
@@ -15928,6 +18446,14 @@
       <c r="B806" s="1" t="s">
         <v>1316</v>
       </c>
+      <c r="C806" s="1" t="str">
+        <f aca="false">A806 &amp;" " &amp;"""" &amp;B806 &amp;""""</f>
+        <v> SPR_nationalist_castille_fascism_adj: "imperial-kastilisch"</v>
+      </c>
+      <c r="D806" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A806),"",C806)</f>
+        <v> SPR_nationalist_castille_fascism_adj: "imperial-kastilisch"</v>
+      </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="1" t="s">
@@ -15936,6 +18462,14 @@
       <c r="B807" s="1" t="s">
         <v>1318</v>
       </c>
+      <c r="C807" s="1" t="str">
+        <f aca="false">A807 &amp;" " &amp;"""" &amp;B807 &amp;""""</f>
+        <v> SPR_carlist_castille_neutrality: "Carlistisches Kastilien"</v>
+      </c>
+      <c r="D807" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A807),"",C807)</f>
+        <v> SPR_carlist_castille_neutrality: "Carlistisches Kastilien"</v>
+      </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="1" t="s">
@@ -15944,6 +18478,14 @@
       <c r="B808" s="1" t="s">
         <v>1318</v>
       </c>
+      <c r="C808" s="1" t="str">
+        <f aca="false">A808 &amp;" " &amp;"""" &amp;B808 &amp;""""</f>
+        <v> SPR_carlist_castille_neutrality_def: "Carlistisches Kastilien"</v>
+      </c>
+      <c r="D808" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A808),"",C808)</f>
+        <v> SPR_carlist_castille_neutrality_def: "Carlistisches Kastilien"</v>
+      </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="1" t="s">
@@ -15952,6 +18494,14 @@
       <c r="B809" s="1" t="s">
         <v>1291</v>
       </c>
+      <c r="C809" s="1" t="str">
+        <f aca="false">A809 &amp;" " &amp;"""" &amp;B809 &amp;""""</f>
+        <v> SPR_carlist_castille_neutrality_adj: "kastilisch"</v>
+      </c>
+      <c r="D809" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A809),"",C809)</f>
+        <v> SPR_carlist_castille_neutrality_adj: "kastilisch"</v>
+      </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="1" t="s">
@@ -15960,6 +18510,14 @@
       <c r="B810" s="1" t="s">
         <v>1322</v>
       </c>
+      <c r="C810" s="1" t="str">
+        <f aca="false">A810 &amp;" " &amp;"""" &amp;B810 &amp;""""</f>
+        <v> SPR_POR_anarchism_neutrality: "Anarchistische Kommune Portugals"</v>
+      </c>
+      <c r="D810" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A810),"",C810)</f>
+        <v> SPR_POR_anarchism_neutrality: "Anarchistische Kommune Portugals"</v>
+      </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="1" t="s">
@@ -15968,6 +18526,14 @@
       <c r="B811" s="1" t="s">
         <v>1324</v>
       </c>
+      <c r="C811" s="1" t="str">
+        <f aca="false">A811 &amp;" " &amp;"""" &amp;B811 &amp;""""</f>
+        <v> SPR_POR_anarchism_neutrality_def: "die Anarchistische Kommune Portugals"</v>
+      </c>
+      <c r="D811" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A811),"",C811)</f>
+        <v> SPR_POR_anarchism_neutrality_def: "die Anarchistische Kommune Portugals"</v>
+      </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="1" t="s">
@@ -15976,6 +18542,14 @@
       <c r="B812" s="1" t="s">
         <v>1326</v>
       </c>
+      <c r="C812" s="1" t="str">
+        <f aca="false">A812 &amp;" " &amp;"""" &amp;B812 &amp;""""</f>
+        <v> SPR_POR_anarchism_neutrality_adj: "anarchistisch-portugiesisch"</v>
+      </c>
+      <c r="D812" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A812),"",C812)</f>
+        <v> SPR_POR_anarchism_neutrality_adj: "anarchistisch-portugiesisch"</v>
+      </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="1" t="s">
@@ -15984,6 +18558,14 @@
       <c r="B813" s="1" t="s">
         <v>1328</v>
       </c>
+      <c r="C813" s="1" t="str">
+        <f aca="false">A813 &amp;" " &amp;"""" &amp;B813 &amp;""""</f>
+        <v> FRA_THIRD_EMPIRE_neutrality: "Französisches Reich"</v>
+      </c>
+      <c r="D813" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A813),"",C813)</f>
+        <v> FRA_THIRD_EMPIRE_neutrality: "Französisches Reich"</v>
+      </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="1" t="s">
@@ -15992,6 +18574,14 @@
       <c r="B814" s="1" t="s">
         <v>1330</v>
       </c>
+      <c r="C814" s="1" t="str">
+        <f aca="false">A814 &amp;" " &amp;"""" &amp;B814 &amp;""""</f>
+        <v> FRA_THIRD_EMPIRE_neutrality_def: "das Französische Reich"</v>
+      </c>
+      <c r="D814" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A814),"",C814)</f>
+        <v> FRA_THIRD_EMPIRE_neutrality_def: "das Französische Reich"</v>
+      </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="1" t="s">
@@ -16000,6 +18590,14 @@
       <c r="B815" s="1" t="s">
         <v>1332</v>
       </c>
+      <c r="C815" s="1" t="str">
+        <f aca="false">A815 &amp;" " &amp;"""" &amp;B815 &amp;""""</f>
+        <v> FRA_THIRD_EMPIRE_neutrality_adj: "französisch"</v>
+      </c>
+      <c r="D815" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A815),"",C815)</f>
+        <v> FRA_THIRD_EMPIRE_neutrality_adj: "französisch"</v>
+      </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="1" t="s">
@@ -16008,6 +18606,14 @@
       <c r="B816" s="1" t="s">
         <v>1334</v>
       </c>
+      <c r="C816" s="1" t="str">
+        <f aca="false">A816 &amp;" " &amp;"""" &amp;B816 &amp;""""</f>
+        <v> FRA_ORLEANS_neutrality: "Orléanistisches Frankreich"</v>
+      </c>
+      <c r="D816" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A816),"",C816)</f>
+        <v> FRA_ORLEANS_neutrality: "Orléanistisches Frankreich"</v>
+      </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="1" t="s">
@@ -16016,6 +18622,14 @@
       <c r="B817" s="1" t="s">
         <v>1334</v>
       </c>
+      <c r="C817" s="1" t="str">
+        <f aca="false">A817 &amp;" " &amp;"""" &amp;B817 &amp;""""</f>
+        <v> FRA_ORLEANS_neutrality_def: "Orléanistisches Frankreich"</v>
+      </c>
+      <c r="D817" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A817),"",C817)</f>
+        <v> FRA_ORLEANS_neutrality_def: "Orléanistisches Frankreich"</v>
+      </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="1" t="s">
@@ -16024,6 +18638,14 @@
       <c r="B818" s="1" t="s">
         <v>1332</v>
       </c>
+      <c r="C818" s="1" t="str">
+        <f aca="false">A818 &amp;" " &amp;"""" &amp;B818 &amp;""""</f>
+        <v> FRA_ORLEANS_neutrality_adj: "französisch"</v>
+      </c>
+      <c r="D818" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A818),"",C818)</f>
+        <v> FRA_ORLEANS_neutrality_adj: "französisch"</v>
+      </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="1" t="s">
@@ -16032,6 +18654,14 @@
       <c r="B819" s="1" t="s">
         <v>1338</v>
       </c>
+      <c r="C819" s="1" t="str">
+        <f aca="false">A819 &amp;" " &amp;"""" &amp;B819 &amp;""""</f>
+        <v> KOP_kingdom_portugal_neutrality: "Königreich Portugal"</v>
+      </c>
+      <c r="D819" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A819),"",C819)</f>
+        <v> KOP_kingdom_portugal_neutrality: "Königreich Portugal"</v>
+      </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="1" t="s">
@@ -16040,6 +18670,14 @@
       <c r="B820" s="1" t="s">
         <v>1340</v>
       </c>
+      <c r="C820" s="1" t="str">
+        <f aca="false">A820 &amp;" " &amp;"""" &amp;B820 &amp;""""</f>
+        <v> KOP_kingdom_portugal_neutrality_def: "das Königreich Portugal"</v>
+      </c>
+      <c r="D820" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A820),"",C820)</f>
+        <v> KOP_kingdom_portugal_neutrality_def: "das Königreich Portugal"</v>
+      </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="s">
@@ -16048,6 +18686,14 @@
       <c r="B821" s="1" t="s">
         <v>1342</v>
       </c>
+      <c r="C821" s="1" t="str">
+        <f aca="false">A821 &amp;" " &amp;"""" &amp;B821 &amp;""""</f>
+        <v> KOP_kingdom_portugal_neutrality_adj: "portugiesisch"</v>
+      </c>
+      <c r="D821" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A821),"",C821)</f>
+        <v> KOP_kingdom_portugal_neutrality_adj: "portugiesisch"</v>
+      </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
@@ -16056,6 +18702,14 @@
       <c r="B822" s="1" t="s">
         <v>1344</v>
       </c>
+      <c r="C822" s="1" t="str">
+        <f aca="false">A822 &amp;" " &amp;"""" &amp;B822 &amp;""""</f>
+        <v> EOB_empire_brazil_neutrality: "Reich Brasilien"</v>
+      </c>
+      <c r="D822" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A822),"",C822)</f>
+        <v> EOB_empire_brazil_neutrality: "Reich Brasilien"</v>
+      </c>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
@@ -16064,6 +18718,14 @@
       <c r="B823" s="1" t="s">
         <v>1346</v>
       </c>
+      <c r="C823" s="1" t="str">
+        <f aca="false">A823 &amp;" " &amp;"""" &amp;B823 &amp;""""</f>
+        <v> EOB_empire_brazil_neutrality_def: "das Reich Brasilien"</v>
+      </c>
+      <c r="D823" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A823),"",C823)</f>
+        <v> EOB_empire_brazil_neutrality_def: "das Reich Brasilien"</v>
+      </c>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="s">
@@ -16072,6 +18734,14 @@
       <c r="B824" s="1" t="s">
         <v>1348</v>
       </c>
+      <c r="C824" s="1" t="str">
+        <f aca="false">A824 &amp;" " &amp;"""" &amp;B824 &amp;""""</f>
+        <v> EOB_empire_brazil_neutrality_adj: "brasilianisch"</v>
+      </c>
+      <c r="D824" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A824),"",C824)</f>
+        <v> EOB_empire_brazil_neutrality_adj: "brasilianisch"</v>
+      </c>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="1" t="s">
@@ -16080,6 +18750,14 @@
       <c r="B825" s="1" t="s">
         <v>1350</v>
       </c>
+      <c r="C825" s="1" t="str">
+        <f aca="false">A825 &amp;" " &amp;"""" &amp;B825 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_neutrality: "Vereinigtes Königreich Portugal-Brasilien"</v>
+      </c>
+      <c r="D825" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A825),"",C825)</f>
+        <v> KPB_kingdom_portugal_and_brazil_neutrality: "Vereinigtes Königreich Portugal-Brasilien"</v>
+      </c>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
@@ -16088,6 +18766,14 @@
       <c r="B826" s="1" t="s">
         <v>1352</v>
       </c>
+      <c r="C826" s="1" t="str">
+        <f aca="false">A826 &amp;" " &amp;"""" &amp;B826 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_neutrality_def: "das Vereinigte Königreich Portugal-Brasilien"</v>
+      </c>
+      <c r="D826" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A826),"",C826)</f>
+        <v> KPB_kingdom_portugal_and_brazil_neutrality_def: "das Vereinigte Königreich Portugal-Brasilien"</v>
+      </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="s">
@@ -16096,6 +18782,14 @@
       <c r="B827" s="1" t="s">
         <v>1354</v>
       </c>
+      <c r="C827" s="1" t="str">
+        <f aca="false">A827 &amp;" " &amp;"""" &amp;B827 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_neutrality_adj: "portugiesisch-brasilianisch"</v>
+      </c>
+      <c r="D827" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A827),"",C827)</f>
+        <v> KPB_kingdom_portugal_and_brazil_neutrality_adj: "portugiesisch-brasilianisch"</v>
+      </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="1" t="s">
@@ -16104,6 +18798,14 @@
       <c r="B828" s="1" t="s">
         <v>1356</v>
       </c>
+      <c r="C828" s="1" t="str">
+        <f aca="false">A828 &amp;" " &amp;"""" &amp;B828 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_fascism: "Königreich Portugal-Brasilien"</v>
+      </c>
+      <c r="D828" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A828),"",C828)</f>
+        <v> KPB_kingdom_portugal_and_brazil_fascism: "Königreich Portugal-Brasilien"</v>
+      </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="1" t="s">
@@ -16112,6 +18814,14 @@
       <c r="B829" s="1" t="s">
         <v>1358</v>
       </c>
+      <c r="C829" s="1" t="str">
+        <f aca="false">A829 &amp;" " &amp;"""" &amp;B829 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_fascism_def: "das Königreich Portugal-Brasilien"</v>
+      </c>
+      <c r="D829" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A829),"",C829)</f>
+        <v> KPB_kingdom_portugal_and_brazil_fascism_def: "das Königreich Portugal-Brasilien"</v>
+      </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="1" t="s">
@@ -16120,6 +18830,14 @@
       <c r="B830" s="1" t="s">
         <v>1354</v>
       </c>
+      <c r="C830" s="1" t="str">
+        <f aca="false">A830 &amp;" " &amp;"""" &amp;B830 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_fascism_adj: "portugiesisch-brasilianisch"</v>
+      </c>
+      <c r="D830" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A830),"",C830)</f>
+        <v> KPB_kingdom_portugal_and_brazil_fascism_adj: "portugiesisch-brasilianisch"</v>
+      </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="1" t="s">
@@ -16128,6 +18846,14 @@
       <c r="B831" s="1" t="s">
         <v>1361</v>
       </c>
+      <c r="C831" s="1" t="str">
+        <f aca="false">A831 &amp;" " &amp;"""" &amp;B831 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_communism: "Porto-Brasilianische Völkerunion"</v>
+      </c>
+      <c r="D831" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A831),"",C831)</f>
+        <v> KPB_kingdom_portugal_and_brazil_communism: "Porto-Brasilianische Völkerunion"</v>
+      </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="1" t="s">
@@ -16136,6 +18862,14 @@
       <c r="B832" s="1" t="s">
         <v>1363</v>
       </c>
+      <c r="C832" s="1" t="str">
+        <f aca="false">A832 &amp;" " &amp;"""" &amp;B832 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_communism_def: "die Porto-Brasilianische Völkerunion"</v>
+      </c>
+      <c r="D832" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A832),"",C832)</f>
+        <v> KPB_kingdom_portugal_and_brazil_communism_def: "die Porto-Brasilianische Völkerunion"</v>
+      </c>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="1" t="s">
@@ -16144,6 +18878,14 @@
       <c r="B833" s="1" t="s">
         <v>1354</v>
       </c>
+      <c r="C833" s="1" t="str">
+        <f aca="false">A833 &amp;" " &amp;"""" &amp;B833 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_communism_adj: "portugiesisch-brasilianisch"</v>
+      </c>
+      <c r="D833" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A833),"",C833)</f>
+        <v> KPB_kingdom_portugal_and_brazil_communism_adj: "portugiesisch-brasilianisch"</v>
+      </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="1" t="s">
@@ -16152,6 +18894,14 @@
       <c r="B834" s="1" t="s">
         <v>1366</v>
       </c>
+      <c r="C834" s="1" t="str">
+        <f aca="false">A834 &amp;" " &amp;"""" &amp;B834 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_democratic: "Vereinigte Republiken Portugal-Brasilien"</v>
+      </c>
+      <c r="D834" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A834),"",C834)</f>
+        <v> KPB_kingdom_portugal_and_brazil_democratic: "Vereinigte Republiken Portugal-Brasilien"</v>
+      </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="1" t="s">
@@ -16160,6 +18910,14 @@
       <c r="B835" s="1" t="s">
         <v>1368</v>
       </c>
+      <c r="C835" s="1" t="str">
+        <f aca="false">A835 &amp;" " &amp;"""" &amp;B835 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_democratic_def: "die Republik Portugal-Brasilien"</v>
+      </c>
+      <c r="D835" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A835),"",C835)</f>
+        <v> KPB_kingdom_portugal_and_brazil_democratic_def: "die Republik Portugal-Brasilien"</v>
+      </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="1" t="s">
@@ -16168,6 +18926,14 @@
       <c r="B836" s="1" t="s">
         <v>1354</v>
       </c>
+      <c r="C836" s="1" t="str">
+        <f aca="false">A836 &amp;" " &amp;"""" &amp;B836 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_democratic_adj: "portugiesisch-brasilianisch"</v>
+      </c>
+      <c r="D836" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A836),"",C836)</f>
+        <v> KPB_kingdom_portugal_and_brazil_democratic_adj: "portugiesisch-brasilianisch"</v>
+      </c>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="1" t="s">
@@ -16176,6 +18942,14 @@
       <c r="B837" s="1" t="s">
         <v>1371</v>
       </c>
+      <c r="C837" s="1" t="str">
+        <f aca="false">A837 &amp;" " &amp;"""" &amp;B837 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil: "Porto-Brasilien"</v>
+      </c>
+      <c r="D837" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A837),"",C837)</f>
+        <v> KPB_kingdom_portugal_and_brazil: "Porto-Brasilien"</v>
+      </c>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="1" t="s">
@@ -16184,6 +18958,14 @@
       <c r="B838" s="1" t="s">
         <v>1371</v>
       </c>
+      <c r="C838" s="1" t="str">
+        <f aca="false">A838 &amp;" " &amp;"""" &amp;B838 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_def: "Porto-Brasilien"</v>
+      </c>
+      <c r="D838" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A838),"",C838)</f>
+        <v> KPB_kingdom_portugal_and_brazil_def: "Porto-Brasilien"</v>
+      </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
@@ -16192,6 +18974,14 @@
       <c r="B839" s="1" t="s">
         <v>1354</v>
       </c>
+      <c r="C839" s="1" t="str">
+        <f aca="false">A839 &amp;" " &amp;"""" &amp;B839 &amp;""""</f>
+        <v> KPB_kingdom_portugal_and_brazil_adj: "portugiesisch-brasilianisch"</v>
+      </c>
+      <c r="D839" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A839),"",C839)</f>
+        <v> KPB_kingdom_portugal_and_brazil_adj: "portugiesisch-brasilianisch"</v>
+      </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="1" t="s">
@@ -16200,6 +18990,14 @@
       <c r="B840" s="1" t="s">
         <v>1375</v>
       </c>
+      <c r="C840" s="1" t="str">
+        <f aca="false">A840 &amp;" " &amp;"""" &amp;B840 &amp;""""</f>
+        <v> ESU_POR_unified_fascism: "Iberisches Reich"</v>
+      </c>
+      <c r="D840" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A840),"",C840)</f>
+        <v> ESU_POR_unified_fascism: "Iberisches Reich"</v>
+      </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="1" t="s">
@@ -16208,6 +19006,14 @@
       <c r="B841" s="1" t="s">
         <v>1377</v>
       </c>
+      <c r="C841" s="1" t="str">
+        <f aca="false">A841 &amp;" " &amp;"""" &amp;B841 &amp;""""</f>
+        <v> ESU_POR_unified_fascism_def: "das Iberische Reich"</v>
+      </c>
+      <c r="D841" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A841),"",C841)</f>
+        <v> ESU_POR_unified_fascism_def: "das Iberische Reich"</v>
+      </c>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="1" t="s">
@@ -16216,6 +19022,14 @@
       <c r="B842" s="1" t="s">
         <v>1227</v>
       </c>
+      <c r="C842" s="1" t="str">
+        <f aca="false">A842 &amp;" " &amp;"""" &amp;B842 &amp;""""</f>
+        <v> ESU_POR_unified_fascism_adj: "iberisch"</v>
+      </c>
+      <c r="D842" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A842),"",C842)</f>
+        <v> ESU_POR_unified_fascism_adj: "iberisch"</v>
+      </c>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="1" t="s">
@@ -16224,6 +19038,14 @@
       <c r="B843" s="1" t="s">
         <v>1380</v>
       </c>
+      <c r="C843" s="1" t="str">
+        <f aca="false">A843 &amp;" " &amp;"""" &amp;B843 &amp;""""</f>
+        <v> ESU_POR_unified_communism: "Iberische Sozialistische Union"</v>
+      </c>
+      <c r="D843" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A843),"",C843)</f>
+        <v> ESU_POR_unified_communism: "Iberische Sozialistische Union"</v>
+      </c>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="1" t="s">
@@ -16232,6 +19054,14 @@
       <c r="B844" s="1" t="s">
         <v>1382</v>
       </c>
+      <c r="C844" s="1" t="str">
+        <f aca="false">A844 &amp;" " &amp;"""" &amp;B844 &amp;""""</f>
+        <v> ESU_POR_unified_communism_def: "die Iberische Sozialistische Union"</v>
+      </c>
+      <c r="D844" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A844),"",C844)</f>
+        <v> ESU_POR_unified_communism_def: "die Iberische Sozialistische Union"</v>
+      </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
@@ -16240,6 +19070,14 @@
       <c r="B845" s="1" t="s">
         <v>1227</v>
       </c>
+      <c r="C845" s="1" t="str">
+        <f aca="false">A845 &amp;" " &amp;"""" &amp;B845 &amp;""""</f>
+        <v> ESU_POR_unified_communism_adj: "iberisch"</v>
+      </c>
+      <c r="D845" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A845),"",C845)</f>
+        <v> ESU_POR_unified_communism_adj: "iberisch"</v>
+      </c>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="1" t="s">
@@ -16248,6 +19086,14 @@
       <c r="B846" s="1" t="s">
         <v>1385</v>
       </c>
+      <c r="C846" s="1" t="str">
+        <f aca="false">A846 &amp;" " &amp;"""" &amp;B846 &amp;""""</f>
+        <v> ESU_POR_unified_democratic: "Vereinte Republiken Iberiens"</v>
+      </c>
+      <c r="D846" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A846),"",C846)</f>
+        <v> ESU_POR_unified_democratic: "Vereinte Republiken Iberiens"</v>
+      </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
@@ -16256,6 +19102,14 @@
       <c r="B847" s="1" t="s">
         <v>1387</v>
       </c>
+      <c r="C847" s="1" t="str">
+        <f aca="false">A847 &amp;" " &amp;"""" &amp;B847 &amp;""""</f>
+        <v> ESU_POR_unified_democratic_def: "die Vereinten Republiken Iberiens"</v>
+      </c>
+      <c r="D847" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A847),"",C847)</f>
+        <v> ESU_POR_unified_democratic_def: "die Vereinten Republiken Iberiens"</v>
+      </c>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="1" t="s">
@@ -16264,6 +19118,14 @@
       <c r="B848" s="1" t="s">
         <v>1227</v>
       </c>
+      <c r="C848" s="1" t="str">
+        <f aca="false">A848 &amp;" " &amp;"""" &amp;B848 &amp;""""</f>
+        <v> ESU_POR_unified_democratic_adj: "iberisch"</v>
+      </c>
+      <c r="D848" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A848),"",C848)</f>
+        <v> ESU_POR_unified_democratic_adj: "iberisch"</v>
+      </c>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="1" t="s">
@@ -16272,6 +19134,14 @@
       <c r="B849" s="1" t="s">
         <v>1390</v>
       </c>
+      <c r="C849" s="1" t="str">
+        <f aca="false">A849 &amp;" " &amp;"""" &amp;B849 &amp;""""</f>
+        <v> ESU_POR_unified: "Iberien"</v>
+      </c>
+      <c r="D849" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A849),"",C849)</f>
+        <v> ESU_POR_unified: "Iberien"</v>
+      </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="1" t="s">
@@ -16280,6 +19150,14 @@
       <c r="B850" s="1" t="s">
         <v>1390</v>
       </c>
+      <c r="C850" s="1" t="str">
+        <f aca="false">A850 &amp;" " &amp;"""" &amp;B850 &amp;""""</f>
+        <v> ESU_POR_unified_def: "Iberien"</v>
+      </c>
+      <c r="D850" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A850),"",C850)</f>
+        <v> ESU_POR_unified_def: "Iberien"</v>
+      </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="1" t="s">
@@ -16288,6 +19166,14 @@
       <c r="B851" s="1" t="s">
         <v>1227</v>
       </c>
+      <c r="C851" s="1" t="str">
+        <f aca="false">A851 &amp;" " &amp;"""" &amp;B851 &amp;""""</f>
+        <v> ESU_POR_unified_adj: "iberisch"</v>
+      </c>
+      <c r="D851" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A851),"",C851)</f>
+        <v> ESU_POR_unified_adj: "iberisch"</v>
+      </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="1" t="s">
@@ -16296,6 +19182,14 @@
       <c r="B852" s="1" t="s">
         <v>1394</v>
       </c>
+      <c r="C852" s="1" t="str">
+        <f aca="false">A852 &amp;" " &amp;"""" &amp;B852 &amp;""""</f>
+        <v> POR_empire_neutrality: "Fünftes Portugiesisches Reich"</v>
+      </c>
+      <c r="D852" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A852),"",C852)</f>
+        <v> POR_empire_neutrality: "Fünftes Portugiesisches Reich"</v>
+      </c>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="1" t="s">
@@ -16304,6 +19198,14 @@
       <c r="B853" s="1" t="s">
         <v>1396</v>
       </c>
+      <c r="C853" s="1" t="str">
+        <f aca="false">A853 &amp;" " &amp;"""" &amp;B853 &amp;""""</f>
+        <v> POR_empire_neutrality_def: "das Fünfte Portugiesische Reich"</v>
+      </c>
+      <c r="D853" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A853),"",C853)</f>
+        <v> POR_empire_neutrality_def: "das Fünfte Portugiesische Reich"</v>
+      </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="1" t="s">
@@ -16312,6 +19214,14 @@
       <c r="B854" s="1" t="s">
         <v>1342</v>
       </c>
+      <c r="C854" s="1" t="str">
+        <f aca="false">A854 &amp;" " &amp;"""" &amp;B854 &amp;""""</f>
+        <v> POR_empire_neutrality_adj: "portugiesisch"</v>
+      </c>
+      <c r="D854" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A854),"",C854)</f>
+        <v> POR_empire_neutrality_adj: "portugiesisch"</v>
+      </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="1" t="s">
@@ -16320,6 +19230,14 @@
       <c r="B855" s="1" t="s">
         <v>1394</v>
       </c>
+      <c r="C855" s="1" t="str">
+        <f aca="false">A855 &amp;" " &amp;"""" &amp;B855 &amp;""""</f>
+        <v> POR_empire_fascism: "Fünftes Portugiesisches Reich"</v>
+      </c>
+      <c r="D855" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A855),"",C855)</f>
+        <v> POR_empire_fascism: "Fünftes Portugiesisches Reich"</v>
+      </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="1" t="s">
@@ -16328,6 +19246,14 @@
       <c r="B856" s="1" t="s">
         <v>1396</v>
       </c>
+      <c r="C856" s="1" t="str">
+        <f aca="false">A856 &amp;" " &amp;"""" &amp;B856 &amp;""""</f>
+        <v> POR_empire_fascism_def: "das Fünfte Portugiesische Reich"</v>
+      </c>
+      <c r="D856" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A856),"",C856)</f>
+        <v> POR_empire_fascism_def: "das Fünfte Portugiesische Reich"</v>
+      </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="1" t="s">
@@ -16336,6 +19262,14 @@
       <c r="B857" s="1" t="s">
         <v>1342</v>
       </c>
+      <c r="C857" s="1" t="str">
+        <f aca="false">A857 &amp;" " &amp;"""" &amp;B857 &amp;""""</f>
+        <v> POR_empire_fascism_adj: "portugiesisch"</v>
+      </c>
+      <c r="D857" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A857),"",C857)</f>
+        <v> POR_empire_fascism_adj: "portugiesisch"</v>
+      </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="1" t="s">
@@ -16344,6 +19278,14 @@
       <c r="B858" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C858" s="1" t="str">
+        <f aca="false">A858 &amp;" " &amp;"""" &amp;B858 &amp;""""</f>
+        <v> HOL_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D858" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A858),"",C858)</f>
+        <v> HOL_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
@@ -16352,6 +19294,14 @@
       <c r="B859" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C859" s="1" t="str">
+        <f aca="false">A859 &amp;" " &amp;"""" &amp;B859 &amp;""""</f>
+        <v> PHI_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D859" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A859),"",C859)</f>
+        <v> PHI_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="1" t="s">
@@ -16360,6 +19310,14 @@
       <c r="B860" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C860" s="1" t="str">
+        <f aca="false">A860 &amp;" " &amp;"""" &amp;B860 &amp;""""</f>
+        <v> BAH_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D860" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A860),"",C860)</f>
+        <v> BAH_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="1" t="s">
@@ -16368,6 +19326,14 @@
       <c r="B861" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C861" s="1" t="str">
+        <f aca="false">A861 &amp;" " &amp;"""" &amp;B861 &amp;""""</f>
+        <v> CRC_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D861" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A861),"",C861)</f>
+        <v> CRC_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="1" t="s">
@@ -16376,6 +19342,14 @@
       <c r="B862" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C862" s="1" t="str">
+        <f aca="false">A862 &amp;" " &amp;"""" &amp;B862 &amp;""""</f>
+        <v> UAE_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D862" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A862),"",C862)</f>
+        <v> UAE_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="1" t="s">
@@ -16384,6 +19358,14 @@
       <c r="B863" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C863" s="1" t="str">
+        <f aca="false">A863 &amp;" " &amp;"""" &amp;B863 &amp;""""</f>
+        <v> CSA_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D863" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A863),"",C863)</f>
+        <v> CSA_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="1" t="s">
@@ -16392,6 +19374,14 @@
       <c r="B864" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C864" s="1" t="str">
+        <f aca="false">A864 &amp;" " &amp;"""" &amp;B864 &amp;""""</f>
+        <v> USB_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D864" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A864),"",C864)</f>
+        <v> USB_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="1" t="s">
@@ -16400,6 +19390,14 @@
       <c r="B865" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C865" s="1" t="str">
+        <f aca="false">A865 &amp;" " &amp;"""" &amp;B865 &amp;""""</f>
+        <v> RCG_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D865" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A865),"",C865)</f>
+        <v> RCG_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="1" t="s">
@@ -16408,6 +19406,14 @@
       <c r="B866" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C866" s="1" t="str">
+        <f aca="false">A866 &amp;" " &amp;"""" &amp;B866 &amp;""""</f>
+        <v> CAR_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D866" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A866),"",C866)</f>
+        <v> CAR_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
@@ -16416,6 +19422,14 @@
       <c r="B867" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C867" s="1" t="str">
+        <f aca="false">A867 &amp;" " &amp;"""" &amp;B867 &amp;""""</f>
+        <v> WES_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D867" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A867),"",C867)</f>
+        <v> WES_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="1" t="s">
@@ -16424,6 +19438,14 @@
       <c r="B868" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C868" s="1" t="str">
+        <f aca="false">A868 &amp;" " &amp;"""" &amp;B868 &amp;""""</f>
+        <v> BAS_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D868" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A868),"",C868)</f>
+        <v> BAS_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="1" t="s">
@@ -16432,6 +19454,14 @@
       <c r="B869" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C869" s="1" t="str">
+        <f aca="false">A869 &amp;" " &amp;"""" &amp;B869 &amp;""""</f>
+        <v> GUM_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D869" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A869),"",C869)</f>
+        <v> GUM_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="1" t="s">
@@ -16440,6 +19470,14 @@
       <c r="B870" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C870" s="1" t="str">
+        <f aca="false">A870 &amp;" " &amp;"""" &amp;B870 &amp;""""</f>
+        <v> SOL_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D870" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A870),"",C870)</f>
+        <v> SOL_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="1" t="s">
@@ -16448,6 +19486,14 @@
       <c r="B871" s="1" t="s">
         <v>1402</v>
       </c>
+      <c r="C871" s="1" t="str">
+        <f aca="false">A871 &amp;" " &amp;"""" &amp;B871 &amp;""""</f>
+        <v> NAV_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
+      <c r="D871" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A871),"",C871)</f>
+        <v> NAV_autonomy_collaboration_government_DEF: "der $OVERLORDADJ$ $NONIDEOLOGY$"</v>
+      </c>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="1" t="s">
@@ -16456,6 +19502,14 @@
       <c r="B872" s="1" t="s">
         <v>1417</v>
       </c>
+      <c r="C872" s="1" t="str">
+        <f aca="false">A872 &amp;" " &amp;"""" &amp;B872 &amp;""""</f>
+        <v> COUNTRY_autonomy_collaboration_government: ""$OVERLORDADJ$ $NONIDEOLOGY$" #fallbacks for Collaboration governments"</v>
+      </c>
+      <c r="D872" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A872),"",C872)</f>
+        <v> COUNTRY_autonomy_collaboration_government: ""$OVERLORDADJ$ $NONIDEOLOGY$" #fallbacks for Collaboration governments"</v>
+      </c>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="1" t="s">
@@ -16464,6 +19518,14 @@
       <c r="B873" s="1" t="s">
         <v>1419</v>
       </c>
+      <c r="C873" s="1" t="str">
+        <f aca="false">A873 &amp;" " &amp;"""" &amp;B873 &amp;""""</f>
+        <v> COUNTRY_autonomy_collaboration_government_DEF: "$OVERLORDADJ$ $NONIDEOLOGYDEF$"</v>
+      </c>
+      <c r="D873" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A873),"",C873)</f>
+        <v> COUNTRY_autonomy_collaboration_government_DEF: "$OVERLORDADJ$ $NONIDEOLOGYDEF$"</v>
+      </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="1" t="s">
@@ -16472,6 +19534,14 @@
       <c r="B874" s="1" t="s">
         <v>1421</v>
       </c>
+      <c r="C874" s="1" t="str">
+        <f aca="false">A874 &amp;" " &amp;"""" &amp;B874 &amp;""""</f>
+        <v> COUNTRY_autonomy_collaboration_government_ADJ: "$OVERLORDADJ$ $NONIDEOLOGYADJ$"</v>
+      </c>
+      <c r="D874" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A874),"",C874)</f>
+        <v> COUNTRY_autonomy_collaboration_government_ADJ: "$OVERLORDADJ$ $NONIDEOLOGYADJ$"</v>
+      </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="1" t="s">
@@ -16480,6 +19550,14 @@
       <c r="B875" s="1" t="s">
         <v>1423</v>
       </c>
+      <c r="C875" s="1" t="str">
+        <f aca="false">A875 &amp;" " &amp;"""" &amp;B875 &amp;""""</f>
+        <v> united_polynesia_democratic: "Pazifische Föderation"</v>
+      </c>
+      <c r="D875" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A875),"",C875)</f>
+        <v> united_polynesia_democratic: "Pazifische Föderation"</v>
+      </c>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="1" t="s">
@@ -16488,6 +19566,14 @@
       <c r="B876" s="1" t="s">
         <v>1425</v>
       </c>
+      <c r="C876" s="1" t="str">
+        <f aca="false">A876 &amp;" " &amp;"""" &amp;B876 &amp;""""</f>
+        <v> united_polynesia_democratic_DEF: "die Pazifische Föderation"</v>
+      </c>
+      <c r="D876" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A876),"",C876)</f>
+        <v> united_polynesia_democratic_DEF: "die Pazifische Föderation"</v>
+      </c>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="1" t="s">
@@ -16496,6 +19582,14 @@
       <c r="B877" s="1" t="s">
         <v>1427</v>
       </c>
+      <c r="C877" s="1" t="str">
+        <f aca="false">A877 &amp;" " &amp;"""" &amp;B877 &amp;""""</f>
+        <v> united_polynesia_democratic_ADJ: "pazifisch"</v>
+      </c>
+      <c r="D877" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A877),"",C877)</f>
+        <v> united_polynesia_democratic_ADJ: "pazifisch"</v>
+      </c>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="1" t="s">
@@ -16504,6 +19598,14 @@
       <c r="B878" s="1" t="s">
         <v>1429</v>
       </c>
+      <c r="C878" s="1" t="str">
+        <f aca="false">A878 &amp;" " &amp;"""" &amp;B878 &amp;""""</f>
+        <v> united_polynesia_communism: "Sozialistische Union der Ozeanischen Völker"</v>
+      </c>
+      <c r="D878" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A878),"",C878)</f>
+        <v> united_polynesia_communism: "Sozialistische Union der Ozeanischen Völker"</v>
+      </c>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="1" t="s">
@@ -16512,6 +19614,14 @@
       <c r="B879" s="1" t="s">
         <v>1431</v>
       </c>
+      <c r="C879" s="1" t="str">
+        <f aca="false">A879 &amp;" " &amp;"""" &amp;B879 &amp;""""</f>
+        <v> united_polynesia_communism_DEF: "die Sozialistische Union der Ozeanischen Völker"</v>
+      </c>
+      <c r="D879" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A879),"",C879)</f>
+        <v> united_polynesia_communism_DEF: "die Sozialistische Union der Ozeanischen Völker"</v>
+      </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="1" t="s">
@@ -16520,6 +19630,14 @@
       <c r="B880" s="1" t="s">
         <v>1433</v>
       </c>
+      <c r="C880" s="1" t="str">
+        <f aca="false">A880 &amp;" " &amp;"""" &amp;B880 &amp;""""</f>
+        <v> united_polynesia_communism_ADJ: "ozeanisch"</v>
+      </c>
+      <c r="D880" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A880),"",C880)</f>
+        <v> united_polynesia_communism_ADJ: "ozeanisch"</v>
+      </c>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="1" t="s">
@@ -16528,6 +19646,14 @@
       <c r="B881" s="1" t="s">
         <v>1435</v>
       </c>
+      <c r="C881" s="1" t="str">
+        <f aca="false">A881 &amp;" " &amp;"""" &amp;B881 &amp;""""</f>
+        <v> united_polynesia_neutrality: "Vereinigtes Königreich von Polynesien"</v>
+      </c>
+      <c r="D881" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A881),"",C881)</f>
+        <v> united_polynesia_neutrality: "Vereinigtes Königreich von Polynesien"</v>
+      </c>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="1" t="s">
@@ -16536,6 +19662,14 @@
       <c r="B882" s="1" t="s">
         <v>1437</v>
       </c>
+      <c r="C882" s="1" t="str">
+        <f aca="false">A882 &amp;" " &amp;"""" &amp;B882 &amp;""""</f>
+        <v> united_polynesia_neutrality_DEF: "das Vereinigte Königreich von Polynesien"</v>
+      </c>
+      <c r="D882" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A882),"",C882)</f>
+        <v> united_polynesia_neutrality_DEF: "das Vereinigte Königreich von Polynesien"</v>
+      </c>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="1" t="s">
@@ -16544,6 +19678,14 @@
       <c r="B883" s="1" t="s">
         <v>1439</v>
       </c>
+      <c r="C883" s="1" t="str">
+        <f aca="false">A883 &amp;" " &amp;"""" &amp;B883 &amp;""""</f>
+        <v> united_polynesia_neutrality_ADJ: "polynesisch"</v>
+      </c>
+      <c r="D883" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A883),"",C883)</f>
+        <v> united_polynesia_neutrality_ADJ: "polynesisch"</v>
+      </c>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="1" t="s">
@@ -16552,6 +19694,14 @@
       <c r="B884" s="1" t="s">
         <v>1441</v>
       </c>
+      <c r="C884" s="1" t="str">
+        <f aca="false">A884 &amp;" " &amp;"""" &amp;B884 &amp;""""</f>
+        <v> united_polynesia_fascism: "Polynesisches Reich"</v>
+      </c>
+      <c r="D884" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A884),"",C884)</f>
+        <v> united_polynesia_fascism: "Polynesisches Reich"</v>
+      </c>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="1" t="s">
@@ -16560,6 +19710,14 @@
       <c r="B885" s="1" t="s">
         <v>1443</v>
       </c>
+      <c r="C885" s="1" t="str">
+        <f aca="false">A885 &amp;" " &amp;"""" &amp;B885 &amp;""""</f>
+        <v> united_polynesia_fascism_DEF: "das Polynesische Reich"</v>
+      </c>
+      <c r="D885" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A885),"",C885)</f>
+        <v> united_polynesia_fascism_DEF: "das Polynesische Reich"</v>
+      </c>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="1" t="s">
@@ -16568,6 +19726,14 @@
       <c r="B886" s="1" t="s">
         <v>1439</v>
       </c>
+      <c r="C886" s="1" t="str">
+        <f aca="false">A886 &amp;" " &amp;"""" &amp;B886 &amp;""""</f>
+        <v> united_polynesia_fascism_ADJ: "polynesisch"</v>
+      </c>
+      <c r="D886" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A886),"",C886)</f>
+        <v> united_polynesia_fascism_ADJ: "polynesisch"</v>
+      </c>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="1" t="s">
@@ -16576,6 +19742,14 @@
       <c r="B887" s="1" t="s">
         <v>1446</v>
       </c>
+      <c r="C887" s="1" t="str">
+        <f aca="false">A887 &amp;" " &amp;"""" &amp;B887 &amp;""""</f>
+        <v> united_polynesia_autonomy_dominion: "Dominion Polynesien"</v>
+      </c>
+      <c r="D887" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A887),"",C887)</f>
+        <v> united_polynesia_autonomy_dominion: "Dominion Polynesien"</v>
+      </c>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="1" t="s">
@@ -16584,6 +19758,14 @@
       <c r="B888" s="1" t="s">
         <v>1448</v>
       </c>
+      <c r="C888" s="1" t="str">
+        <f aca="false">A888 &amp;" " &amp;"""" &amp;B888 &amp;""""</f>
+        <v> united_polynesia_autonomy_dominion_DEF: "das Dominion Polynesien"</v>
+      </c>
+      <c r="D888" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A888),"",C888)</f>
+        <v> united_polynesia_autonomy_dominion_DEF: "das Dominion Polynesien"</v>
+      </c>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="1" t="s">
@@ -16592,6 +19774,14 @@
       <c r="B889" s="1" t="s">
         <v>1450</v>
       </c>
+      <c r="C889" s="1" t="str">
+        <f aca="false">A889 &amp;" " &amp;"""" &amp;B889 &amp;""""</f>
+        <v> united_polynesia: "Polynesien"</v>
+      </c>
+      <c r="D889" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A889),"",C889)</f>
+        <v> united_polynesia: "Polynesien"</v>
+      </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="1" t="s">
@@ -16600,6 +19790,14 @@
       <c r="B890" s="1" t="s">
         <v>1450</v>
       </c>
+      <c r="C890" s="1" t="str">
+        <f aca="false">A890 &amp;" " &amp;"""" &amp;B890 &amp;""""</f>
+        <v> united_polynesia_DEF: "Polynesien"</v>
+      </c>
+      <c r="D890" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A890),"",C890)</f>
+        <v> united_polynesia_DEF: "Polynesien"</v>
+      </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="1" t="s">
@@ -16608,6 +19806,14 @@
       <c r="B891" s="1" t="s">
         <v>1439</v>
       </c>
+      <c r="C891" s="1" t="str">
+        <f aca="false">A891 &amp;" " &amp;"""" &amp;B891 &amp;""""</f>
+        <v> united_polynesia_ADJ: "polynesisch"</v>
+      </c>
+      <c r="D891" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A891),"",C891)</f>
+        <v> united_polynesia_ADJ: "polynesisch"</v>
+      </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
@@ -16616,6 +19822,14 @@
       <c r="B892" s="1" t="s">
         <v>1454</v>
       </c>
+      <c r="C892" s="1" t="str">
+        <f aca="false">A892 &amp;" " &amp;"""" &amp;B892 &amp;""""</f>
+        <v> CAT_aragon_fascism: "Staat Aragon"</v>
+      </c>
+      <c r="D892" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A892),"",C892)</f>
+        <v> CAT_aragon_fascism: "Staat Aragon"</v>
+      </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="1" t="s">
@@ -16624,6 +19838,14 @@
       <c r="B893" s="1" t="s">
         <v>1456</v>
       </c>
+      <c r="C893" s="1" t="str">
+        <f aca="false">A893 &amp;" " &amp;"""" &amp;B893 &amp;""""</f>
+        <v> CAT_aragon_fascism_DEF: "der Staat Aragon"</v>
+      </c>
+      <c r="D893" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A893),"",C893)</f>
+        <v> CAT_aragon_fascism_DEF: "der Staat Aragon"</v>
+      </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="1" t="s">
@@ -16632,6 +19854,14 @@
       <c r="B894" s="1" t="s">
         <v>1458</v>
       </c>
+      <c r="C894" s="1" t="str">
+        <f aca="false">A894 &amp;" " &amp;"""" &amp;B894 &amp;""""</f>
+        <v> CAT_aragon_democratic: "Aragonesische Republik"</v>
+      </c>
+      <c r="D894" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A894),"",C894)</f>
+        <v> CAT_aragon_democratic: "Aragonesische Republik"</v>
+      </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="1" t="s">
@@ -16640,6 +19870,14 @@
       <c r="B895" s="1" t="s">
         <v>1460</v>
       </c>
+      <c r="C895" s="1" t="str">
+        <f aca="false">A895 &amp;" " &amp;"""" &amp;B895 &amp;""""</f>
+        <v> CAT_aragon_democratic_DEF: "die Aragonesische Republik"</v>
+      </c>
+      <c r="D895" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A895),"",C895)</f>
+        <v> CAT_aragon_democratic_DEF: "die Aragonesische Republik"</v>
+      </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="s">
@@ -16648,6 +19886,14 @@
       <c r="B896" s="1" t="s">
         <v>1462</v>
       </c>
+      <c r="C896" s="1" t="str">
+        <f aca="false">A896 &amp;" " &amp;"""" &amp;B896 &amp;""""</f>
+        <v> CAT_aragon_neutrality: "Krone Aragons"</v>
+      </c>
+      <c r="D896" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A896),"",C896)</f>
+        <v> CAT_aragon_neutrality: "Krone Aragons"</v>
+      </c>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="s">
@@ -16656,6 +19902,14 @@
       <c r="B897" s="1" t="s">
         <v>1464</v>
       </c>
+      <c r="C897" s="1" t="str">
+        <f aca="false">A897 &amp;" " &amp;"""" &amp;B897 &amp;""""</f>
+        <v> CAT_aragon_neutrality_DEF: "die Krone Aragons"</v>
+      </c>
+      <c r="D897" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A897),"",C897)</f>
+        <v> CAT_aragon_neutrality_DEF: "die Krone Aragons"</v>
+      </c>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="s">
@@ -16664,6 +19918,14 @@
       <c r="B898" s="1" t="s">
         <v>1466</v>
       </c>
+      <c r="C898" s="1" t="str">
+        <f aca="false">A898 &amp;" " &amp;"""" &amp;B898 &amp;""""</f>
+        <v> CAT_aragon_communism: "Volksrepublik Aragon"</v>
+      </c>
+      <c r="D898" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A898),"",C898)</f>
+        <v> CAT_aragon_communism: "Volksrepublik Aragon"</v>
+      </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="s">
@@ -16672,6 +19934,14 @@
       <c r="B899" s="1" t="s">
         <v>1468</v>
       </c>
+      <c r="C899" s="1" t="str">
+        <f aca="false">A899 &amp;" " &amp;"""" &amp;B899 &amp;""""</f>
+        <v> CAT_aragon_communism_DEF: "die Aragonesische Volksrepublik"</v>
+      </c>
+      <c r="D899" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A899),"",C899)</f>
+        <v> CAT_aragon_communism_DEF: "die Aragonesische Volksrepublik"</v>
+      </c>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="s">
@@ -16680,6 +19950,14 @@
       <c r="B900" s="1" t="s">
         <v>1221</v>
       </c>
+      <c r="C900" s="1" t="str">
+        <f aca="false">A900 &amp;" " &amp;"""" &amp;B900 &amp;""""</f>
+        <v> CAT_aragon_fascism_ADJ: "aragonesisch"</v>
+      </c>
+      <c r="D900" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A900),"",C900)</f>
+        <v> CAT_aragon_fascism_ADJ: "aragonesisch"</v>
+      </c>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="s">
@@ -16688,6 +19966,14 @@
       <c r="B901" s="1" t="s">
         <v>1221</v>
       </c>
+      <c r="C901" s="1" t="str">
+        <f aca="false">A901 &amp;" " &amp;"""" &amp;B901 &amp;""""</f>
+        <v> CAT_aragon_democratic_ADJ: "aragonesisch"</v>
+      </c>
+      <c r="D901" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A901),"",C901)</f>
+        <v> CAT_aragon_democratic_ADJ: "aragonesisch"</v>
+      </c>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="s">
@@ -16696,6 +19982,14 @@
       <c r="B902" s="1" t="s">
         <v>1221</v>
       </c>
+      <c r="C902" s="1" t="str">
+        <f aca="false">A902 &amp;" " &amp;"""" &amp;B902 &amp;""""</f>
+        <v> CAT_aragon_neutrality_ADJ: "aragonesisch"</v>
+      </c>
+      <c r="D902" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A902),"",C902)</f>
+        <v> CAT_aragon_neutrality_ADJ: "aragonesisch"</v>
+      </c>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="s">
@@ -16704,6 +19998,14 @@
       <c r="B903" s="1" t="s">
         <v>1221</v>
       </c>
+      <c r="C903" s="1" t="str">
+        <f aca="false">A903 &amp;" " &amp;"""" &amp;B903 &amp;""""</f>
+        <v> CAT_aragon_communism_ADJ: "aragonesisch"</v>
+      </c>
+      <c r="D903" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A903),"",C903)</f>
+        <v> CAT_aragon_communism_ADJ: "aragonesisch"</v>
+      </c>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="1" t="s">
@@ -16712,6 +20014,14 @@
       <c r="B904" s="1" t="s">
         <v>1474</v>
       </c>
+      <c r="C904" s="1" t="str">
+        <f aca="false">A904 &amp;" " &amp;"""" &amp;B904 &amp;""""</f>
+        <v> CAT_aragon: "Aragón"</v>
+      </c>
+      <c r="D904" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A904),"",C904)</f>
+        <v> CAT_aragon: "Aragón"</v>
+      </c>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="1" t="s">
@@ -16720,6 +20030,14 @@
       <c r="B905" s="1" t="s">
         <v>1474</v>
       </c>
+      <c r="C905" s="1" t="str">
+        <f aca="false">A905 &amp;" " &amp;"""" &amp;B905 &amp;""""</f>
+        <v> CAT_aragon_DEF: "Aragón"</v>
+      </c>
+      <c r="D905" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A905),"",C905)</f>
+        <v> CAT_aragon_DEF: "Aragón"</v>
+      </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="1" t="s">
@@ -16728,6 +20046,14 @@
       <c r="B906" s="1" t="s">
         <v>1221</v>
       </c>
+      <c r="C906" s="1" t="str">
+        <f aca="false">A906 &amp;" " &amp;"""" &amp;B906 &amp;""""</f>
+        <v> CAT_aragon_ADJ: "aragonesisch"</v>
+      </c>
+      <c r="D906" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A906),"",C906)</f>
+        <v> CAT_aragon_ADJ: "aragonesisch"</v>
+      </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="1" t="s">
@@ -16736,6 +20062,14 @@
       <c r="B907" s="1" t="s">
         <v>1478</v>
       </c>
+      <c r="C907" s="1" t="str">
+        <f aca="false">A907 &amp;" " &amp;"""" &amp;B907 &amp;""""</f>
+        <v> SPR_castille_communism: "Republikanisches Kastilien"</v>
+      </c>
+      <c r="D907" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A907),"",C907)</f>
+        <v> SPR_castille_communism: "Republikanisches Kastilien"</v>
+      </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="1" t="s">
@@ -16744,6 +20078,14 @@
       <c r="B908" s="1" t="s">
         <v>1478</v>
       </c>
+      <c r="C908" s="1" t="str">
+        <f aca="false">A908 &amp;" " &amp;"""" &amp;B908 &amp;""""</f>
+        <v> SPR_castille_communism_DEF: "Republikanisches Kastilien"</v>
+      </c>
+      <c r="D908" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A908),"",C908)</f>
+        <v> SPR_castille_communism_DEF: "Republikanisches Kastilien"</v>
+      </c>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="1" t="s">
@@ -16752,6 +20094,14 @@
       <c r="B909" s="1" t="s">
         <v>1291</v>
       </c>
+      <c r="C909" s="1" t="str">
+        <f aca="false">A909 &amp;" " &amp;"""" &amp;B909 &amp;""""</f>
+        <v> SPR_castille_communism_ADJ: "kastilisch"</v>
+      </c>
+      <c r="D909" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A909),"",C909)</f>
+        <v> SPR_castille_communism_ADJ: "kastilisch"</v>
+      </c>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="s">
@@ -16760,6 +20110,14 @@
       <c r="B910" s="1" t="s">
         <v>1313</v>
       </c>
+      <c r="C910" s="1" t="str">
+        <f aca="false">A910 &amp;" " &amp;"""" &amp;B910 &amp;""""</f>
+        <v> SPR_castille_fascism: "Nationalistisches Kastilien"</v>
+      </c>
+      <c r="D910" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A910),"",C910)</f>
+        <v> SPR_castille_fascism: "Nationalistisches Kastilien"</v>
+      </c>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="s">
@@ -16768,6 +20126,14 @@
       <c r="B911" s="1" t="s">
         <v>1313</v>
       </c>
+      <c r="C911" s="1" t="str">
+        <f aca="false">A911 &amp;" " &amp;"""" &amp;B911 &amp;""""</f>
+        <v> SPR_castille_fascism_DEF: "Nationalistisches Kastilien"</v>
+      </c>
+      <c r="D911" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A911),"",C911)</f>
+        <v> SPR_castille_fascism_DEF: "Nationalistisches Kastilien"</v>
+      </c>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="s">
@@ -16776,6 +20142,14 @@
       <c r="B912" s="1" t="s">
         <v>1291</v>
       </c>
+      <c r="C912" s="1" t="str">
+        <f aca="false">A912 &amp;" " &amp;"""" &amp;B912 &amp;""""</f>
+        <v> SPR_castille_fascism_ADJ: "kastilisch"</v>
+      </c>
+      <c r="D912" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A912),"",C912)</f>
+        <v> SPR_castille_fascism_ADJ: "kastilisch"</v>
+      </c>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="1" t="s">
@@ -16784,6 +20158,14 @@
       <c r="B913" s="1" t="s">
         <v>1308</v>
       </c>
+      <c r="C913" s="1" t="str">
+        <f aca="false">A913 &amp;" " &amp;"""" &amp;B913 &amp;""""</f>
+        <v> SPR_castille_neutrality: "Krone Kastiliens"</v>
+      </c>
+      <c r="D913" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A913),"",C913)</f>
+        <v> SPR_castille_neutrality: "Krone Kastiliens"</v>
+      </c>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="s">
@@ -16792,6 +20174,14 @@
       <c r="B914" s="1" t="s">
         <v>1310</v>
       </c>
+      <c r="C914" s="1" t="str">
+        <f aca="false">A914 &amp;" " &amp;"""" &amp;B914 &amp;""""</f>
+        <v> SPR_castille_neutrality_DEF: "die Krone Kastiliens"</v>
+      </c>
+      <c r="D914" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A914),"",C914)</f>
+        <v> SPR_castille_neutrality_DEF: "die Krone Kastiliens"</v>
+      </c>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
@@ -16800,6 +20190,14 @@
       <c r="B915" s="1" t="s">
         <v>1291</v>
       </c>
+      <c r="C915" s="1" t="str">
+        <f aca="false">A915 &amp;" " &amp;"""" &amp;B915 &amp;""""</f>
+        <v> SPR_castille_neutrality_ADJ: "kastilisch"</v>
+      </c>
+      <c r="D915" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A915),"",C915)</f>
+        <v> SPR_castille_neutrality_ADJ: "kastilisch"</v>
+      </c>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="s">
@@ -16808,6 +20206,14 @@
       <c r="B916" s="1" t="s">
         <v>1300</v>
       </c>
+      <c r="C916" s="1" t="str">
+        <f aca="false">A916 &amp;" " &amp;"""" &amp;B916 &amp;""""</f>
+        <v> SPR_castille: "Kastilien"</v>
+      </c>
+      <c r="D916" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A916),"",C916)</f>
+        <v> SPR_castille: "Kastilien"</v>
+      </c>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="s">
@@ -16816,6 +20222,14 @@
       <c r="B917" s="1" t="s">
         <v>1300</v>
       </c>
+      <c r="C917" s="1" t="str">
+        <f aca="false">A917 &amp;" " &amp;"""" &amp;B917 &amp;""""</f>
+        <v> SPR_castille_DEF: "Kastilien"</v>
+      </c>
+      <c r="D917" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A917),"",C917)</f>
+        <v> SPR_castille_DEF: "Kastilien"</v>
+      </c>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="s">
@@ -16824,6 +20238,14 @@
       <c r="B918" s="1" t="s">
         <v>1291</v>
       </c>
+      <c r="C918" s="1" t="str">
+        <f aca="false">A918 &amp;" " &amp;"""" &amp;B918 &amp;""""</f>
+        <v> SPR_castille_ADJ: "kastilisch"</v>
+      </c>
+      <c r="D918" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A918),"",C918)</f>
+        <v> SPR_castille_ADJ: "kastilisch"</v>
+      </c>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="s">
@@ -16832,6 +20254,14 @@
       <c r="B919" s="1" t="s">
         <v>1491</v>
       </c>
+      <c r="C919" s="1" t="str">
+        <f aca="false">A919 &amp;" " &amp;"""" &amp;B919 &amp;""""</f>
+        <v> FRANCO_SPAIN_neutrality: "Königreich Frankreich-Spanien"</v>
+      </c>
+      <c r="D919" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A919),"",C919)</f>
+        <v> FRANCO_SPAIN_neutrality: "Königreich Frankreich-Spanien"</v>
+      </c>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="s">
@@ -16840,6 +20270,14 @@
       <c r="B920" s="1" t="s">
         <v>1493</v>
       </c>
+      <c r="C920" s="1" t="str">
+        <f aca="false">A920 &amp;" " &amp;"""" &amp;B920 &amp;""""</f>
+        <v> FRANCO_SPAIN_neutrality_DEF: "das Königreich Frankreich-Spanien"</v>
+      </c>
+      <c r="D920" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A920),"",C920)</f>
+        <v> FRANCO_SPAIN_neutrality_DEF: "das Königreich Frankreich-Spanien"</v>
+      </c>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="s">
@@ -16848,6 +20286,14 @@
       <c r="B921" s="1" t="s">
         <v>1495</v>
       </c>
+      <c r="C921" s="1" t="str">
+        <f aca="false">A921 &amp;" " &amp;"""" &amp;B921 &amp;""""</f>
+        <v> FRANCO_SPAIN_neutrality_ADJ: "französisch-spanisch"</v>
+      </c>
+      <c r="D921" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A921),"",C921)</f>
+        <v> FRANCO_SPAIN_neutrality_ADJ: "französisch-spanisch"</v>
+      </c>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="s">
@@ -16856,6 +20302,14 @@
       <c r="B922" s="1" t="s">
         <v>1497</v>
       </c>
+      <c r="C922" s="1" t="str">
+        <f aca="false">A922 &amp;" " &amp;"""" &amp;B922 &amp;""""</f>
+        <v> FRANCO_SPAIN_democratic: "Bundesrepublik Frankreich-Spanien"</v>
+      </c>
+      <c r="D922" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A922),"",C922)</f>
+        <v> FRANCO_SPAIN_democratic: "Bundesrepublik Frankreich-Spanien"</v>
+      </c>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="s">
@@ -16864,6 +20318,14 @@
       <c r="B923" s="1" t="s">
         <v>1499</v>
       </c>
+      <c r="C923" s="1" t="str">
+        <f aca="false">A923 &amp;" " &amp;"""" &amp;B923 &amp;""""</f>
+        <v> FRANCO_SPAIN_democratic_DEF: "die Bundesrepublik Frankreich-Spanien"</v>
+      </c>
+      <c r="D923" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A923),"",C923)</f>
+        <v> FRANCO_SPAIN_democratic_DEF: "die Bundesrepublik Frankreich-Spanien"</v>
+      </c>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="1" t="s">
@@ -16872,6 +20334,14 @@
       <c r="B924" s="1" t="s">
         <v>1495</v>
       </c>
+      <c r="C924" s="1" t="str">
+        <f aca="false">A924 &amp;" " &amp;"""" &amp;B924 &amp;""""</f>
+        <v> FRANCO_SPAIN_democratic_ADJ: "französisch-spanisch"</v>
+      </c>
+      <c r="D924" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A924),"",C924)</f>
+        <v> FRANCO_SPAIN_democratic_ADJ: "französisch-spanisch"</v>
+      </c>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
@@ -16880,6 +20350,14 @@
       <c r="B925" s="1" t="s">
         <v>1502</v>
       </c>
+      <c r="C925" s="1" t="str">
+        <f aca="false">A925 &amp;" " &amp;"""" &amp;B925 &amp;""""</f>
+        <v> FRANCO_SPAIN_fascism: "Französisch-Spanisches Reich"</v>
+      </c>
+      <c r="D925" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A925),"",C925)</f>
+        <v> FRANCO_SPAIN_fascism: "Französisch-Spanisches Reich"</v>
+      </c>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="1" t="s">
@@ -16888,6 +20366,14 @@
       <c r="B926" s="1" t="s">
         <v>1504</v>
       </c>
+      <c r="C926" s="1" t="str">
+        <f aca="false">A926 &amp;" " &amp;"""" &amp;B926 &amp;""""</f>
+        <v> FRANCO_SPAIN_fascism_DEF: "das Französisch-Spanische Reich"</v>
+      </c>
+      <c r="D926" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A926),"",C926)</f>
+        <v> FRANCO_SPAIN_fascism_DEF: "das Französisch-Spanische Reich"</v>
+      </c>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="1" t="s">
@@ -16896,6 +20382,14 @@
       <c r="B927" s="1" t="s">
         <v>1495</v>
       </c>
+      <c r="C927" s="1" t="str">
+        <f aca="false">A927 &amp;" " &amp;"""" &amp;B927 &amp;""""</f>
+        <v> FRANCO_SPAIN_fascism_ADJ: "französisch-spanisch"</v>
+      </c>
+      <c r="D927" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A927),"",C927)</f>
+        <v> FRANCO_SPAIN_fascism_ADJ: "französisch-spanisch"</v>
+      </c>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="1" t="s">
@@ -16904,6 +20398,14 @@
       <c r="B928" s="1" t="s">
         <v>1507</v>
       </c>
+      <c r="C928" s="1" t="str">
+        <f aca="false">A928 &amp;" " &amp;"""" &amp;B928 &amp;""""</f>
+        <v> FRANCO_SPAIN_communism: "Französisch-Spanische Volksrepublik"</v>
+      </c>
+      <c r="D928" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A928),"",C928)</f>
+        <v> FRANCO_SPAIN_communism: "Französisch-Spanische Volksrepublik"</v>
+      </c>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="1" t="s">
@@ -16912,6 +20414,14 @@
       <c r="B929" s="1" t="s">
         <v>1509</v>
       </c>
+      <c r="C929" s="1" t="str">
+        <f aca="false">A929 &amp;" " &amp;"""" &amp;B929 &amp;""""</f>
+        <v> FRANCO_SPAIN_communism_DEF: "die Französisch-Spanische Volksrepublik"</v>
+      </c>
+      <c r="D929" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A929),"",C929)</f>
+        <v> FRANCO_SPAIN_communism_DEF: "die Französisch-Spanische Volksrepublik"</v>
+      </c>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="1" t="s">
@@ -16920,6 +20430,14 @@
       <c r="B930" s="1" t="s">
         <v>1495</v>
       </c>
+      <c r="C930" s="1" t="str">
+        <f aca="false">A930 &amp;" " &amp;"""" &amp;B930 &amp;""""</f>
+        <v> FRANCO_SPAIN_communism_ADJ: "französisch-spanisch"</v>
+      </c>
+      <c r="D930" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A930),"",C930)</f>
+        <v> FRANCO_SPAIN_communism_ADJ: "französisch-spanisch"</v>
+      </c>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="1" t="s">
@@ -16928,6 +20446,14 @@
       <c r="B931" s="1" t="s">
         <v>1512</v>
       </c>
+      <c r="C931" s="1" t="str">
+        <f aca="false">A931 &amp;" " &amp;"""" &amp;B931 &amp;""""</f>
+        <v> GRE_byz_republic_fascism: "Nationale Union Griechenland"</v>
+      </c>
+      <c r="D931" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A931),"",C931)</f>
+        <v> GRE_byz_republic_fascism: "Nationale Union Griechenland"</v>
+      </c>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="1" t="s">
@@ -16936,6 +20462,14 @@
       <c r="B932" s="1" t="s">
         <v>1514</v>
       </c>
+      <c r="C932" s="1" t="str">
+        <f aca="false">A932 &amp;" " &amp;"""" &amp;B932 &amp;""""</f>
+        <v> GRE_byz_republic_fascism_DEF: "die Nationale Union Griechenland"</v>
+      </c>
+      <c r="D932" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A932),"",C932)</f>
+        <v> GRE_byz_republic_fascism_DEF: "die Nationale Union Griechenland"</v>
+      </c>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="1" t="s">
@@ -16944,6 +20478,14 @@
       <c r="B933" s="1" t="s">
         <v>1516</v>
       </c>
+      <c r="C933" s="1" t="str">
+        <f aca="false">A933 &amp;" " &amp;"""" &amp;B933 &amp;""""</f>
+        <v> GRE_byz_republic_fascism_ADJ: "griechisch"</v>
+      </c>
+      <c r="D933" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A933),"",C933)</f>
+        <v> GRE_byz_republic_fascism_ADJ: "griechisch"</v>
+      </c>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="s">
@@ -16952,6 +20494,14 @@
       <c r="B934" s="1" t="s">
         <v>1518</v>
       </c>
+      <c r="C934" s="1" t="str">
+        <f aca="false">A934 &amp;" " &amp;"""" &amp;B934 &amp;""""</f>
+        <v> GRE_dem_monarchy_democratic: "Griechenland"</v>
+      </c>
+      <c r="D934" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A934),"",C934)</f>
+        <v> GRE_dem_monarchy_democratic: "Griechenland"</v>
+      </c>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="s">
@@ -16960,6 +20510,14 @@
       <c r="B935" s="1" t="s">
         <v>1518</v>
       </c>
+      <c r="C935" s="1" t="str">
+        <f aca="false">A935 &amp;" " &amp;"""" &amp;B935 &amp;""""</f>
+        <v> GRE_dem_monarchy_democratic_DEF: "Griechenland"</v>
+      </c>
+      <c r="D935" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A935),"",C935)</f>
+        <v> GRE_dem_monarchy_democratic_DEF: "Griechenland"</v>
+      </c>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="1" t="s">
@@ -16968,6 +20526,14 @@
       <c r="B936" s="1" t="s">
         <v>1516</v>
       </c>
+      <c r="C936" s="1" t="str">
+        <f aca="false">A936 &amp;" " &amp;"""" &amp;B936 &amp;""""</f>
+        <v> GRE_dem_monarchy_democratic_ADJ: "griechisch"</v>
+      </c>
+      <c r="D936" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A936),"",C936)</f>
+        <v> GRE_dem_monarchy_democratic_ADJ: "griechisch"</v>
+      </c>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="1" t="s">
@@ -16976,6 +20542,14 @@
       <c r="B937" s="1" t="s">
         <v>1522</v>
       </c>
+      <c r="C937" s="1" t="str">
+        <f aca="false">A937 &amp;" " &amp;"""" &amp;B937 &amp;""""</f>
+        <v> GRE_com_independent_communism: "Volksrepublik Hellas"</v>
+      </c>
+      <c r="D937" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A937),"",C937)</f>
+        <v> GRE_com_independent_communism: "Volksrepublik Hellas"</v>
+      </c>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="1" t="s">
@@ -16984,6 +20558,14 @@
       <c r="B938" s="1" t="s">
         <v>1524</v>
       </c>
+      <c r="C938" s="1" t="str">
+        <f aca="false">A938 &amp;" " &amp;"""" &amp;B938 &amp;""""</f>
+        <v> GRE_com_independent_communism_DEF: "die Volksrepublik Hellas"</v>
+      </c>
+      <c r="D938" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A938),"",C938)</f>
+        <v> GRE_com_independent_communism_DEF: "die Volksrepublik Hellas"</v>
+      </c>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="1" t="s">
@@ -16992,6 +20574,14 @@
       <c r="B939" s="1" t="s">
         <v>1526</v>
       </c>
+      <c r="C939" s="1" t="str">
+        <f aca="false">A939 &amp;" " &amp;"""" &amp;B939 &amp;""""</f>
+        <v> GRE_com_independent_communism_ADJ: "hellenisch"</v>
+      </c>
+      <c r="D939" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A939),"",C939)</f>
+        <v> GRE_com_independent_communism_ADJ: "hellenisch"</v>
+      </c>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="1" t="s">
@@ -17000,6 +20590,14 @@
       <c r="B940" s="1" t="s">
         <v>1528</v>
       </c>
+      <c r="C940" s="1" t="str">
+        <f aca="false">A940 &amp;" " &amp;"""" &amp;B940 &amp;""""</f>
+        <v> GRE_stalinist_communism: "Union der Griechischen Sowjetrepubliken"</v>
+      </c>
+      <c r="D940" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A940),"",C940)</f>
+        <v> GRE_stalinist_communism: "Union der Griechischen Sowjetrepubliken"</v>
+      </c>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
@@ -17008,6 +20606,14 @@
       <c r="B941" s="1" t="s">
         <v>1530</v>
       </c>
+      <c r="C941" s="1" t="str">
+        <f aca="false">A941 &amp;" " &amp;"""" &amp;B941 &amp;""""</f>
+        <v> GRE_stalinist_communism_DEF: "die Union der Griechischen Sowjetrepubliken"</v>
+      </c>
+      <c r="D941" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A941),"",C941)</f>
+        <v> GRE_stalinist_communism_DEF: "die Union der Griechischen Sowjetrepubliken"</v>
+      </c>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
@@ -17016,6 +20622,14 @@
       <c r="B942" s="1" t="s">
         <v>1516</v>
       </c>
+      <c r="C942" s="1" t="str">
+        <f aca="false">A942 &amp;" " &amp;"""" &amp;B942 &amp;""""</f>
+        <v> GRE_stalinist_communism_ADJ: "griechisch"</v>
+      </c>
+      <c r="D942" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A942),"",C942)</f>
+        <v> GRE_stalinist_communism_ADJ: "griechisch"</v>
+      </c>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
@@ -17024,6 +20638,14 @@
       <c r="B943" s="1" t="s">
         <v>1533</v>
       </c>
+      <c r="C943" s="1" t="str">
+        <f aca="false">A943 &amp;" " &amp;"""" &amp;B943 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_neutrality: "Königreich Großgriechenland"</v>
+      </c>
+      <c r="D943" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A943),"",C943)</f>
+        <v> GRE_GREATER_GREECE_neutrality: "Königreich Großgriechenland"</v>
+      </c>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
@@ -17032,6 +20654,14 @@
       <c r="B944" s="1" t="s">
         <v>1535</v>
       </c>
+      <c r="C944" s="1" t="str">
+        <f aca="false">A944 &amp;" " &amp;"""" &amp;B944 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_fascism: "Hellenistisches Reich"</v>
+      </c>
+      <c r="D944" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A944),"",C944)</f>
+        <v> GRE_GREATER_GREECE_fascism: "Hellenistisches Reich"</v>
+      </c>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
@@ -17040,6 +20670,14 @@
       <c r="B945" s="1" t="s">
         <v>1537</v>
       </c>
+      <c r="C945" s="1" t="str">
+        <f aca="false">A945 &amp;" " &amp;"""" &amp;B945 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_democratic: "Hellas"</v>
+      </c>
+      <c r="D945" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A945),"",C945)</f>
+        <v> GRE_GREATER_GREECE_democratic: "Hellas"</v>
+      </c>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="1" t="s">
@@ -17048,6 +20686,14 @@
       <c r="B946" s="1" t="s">
         <v>1539</v>
       </c>
+      <c r="C946" s="1" t="str">
+        <f aca="false">A946 &amp;" " &amp;"""" &amp;B946 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_communism: "Ägäische Kommune"</v>
+      </c>
+      <c r="D946" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A946),"",C946)</f>
+        <v> GRE_GREATER_GREECE_communism: "Ägäische Kommune"</v>
+      </c>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
@@ -17056,6 +20702,14 @@
       <c r="B947" s="1" t="s">
         <v>1541</v>
       </c>
+      <c r="C947" s="1" t="str">
+        <f aca="false">A947 &amp;" " &amp;"""" &amp;B947 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_neutrality_DEF: "das Königreich Großgriechenland"</v>
+      </c>
+      <c r="D947" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A947),"",C947)</f>
+        <v> GRE_GREATER_GREECE_neutrality_DEF: "das Königreich Großgriechenland"</v>
+      </c>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
@@ -17064,6 +20718,14 @@
       <c r="B948" s="1" t="s">
         <v>1543</v>
       </c>
+      <c r="C948" s="1" t="str">
+        <f aca="false">A948 &amp;" " &amp;"""" &amp;B948 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_fascism_DEF: "das Hellenistische Reich"</v>
+      </c>
+      <c r="D948" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A948),"",C948)</f>
+        <v> GRE_GREATER_GREECE_fascism_DEF: "das Hellenistische Reich"</v>
+      </c>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
@@ -17072,6 +20734,14 @@
       <c r="B949" s="1" t="s">
         <v>1537</v>
       </c>
+      <c r="C949" s="1" t="str">
+        <f aca="false">A949 &amp;" " &amp;"""" &amp;B949 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_democratic_DEF: "Hellas"</v>
+      </c>
+      <c r="D949" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A949),"",C949)</f>
+        <v> GRE_GREATER_GREECE_democratic_DEF: "Hellas"</v>
+      </c>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
@@ -17080,6 +20750,14 @@
       <c r="B950" s="1" t="s">
         <v>1546</v>
       </c>
+      <c r="C950" s="1" t="str">
+        <f aca="false">A950 &amp;" " &amp;"""" &amp;B950 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_communism_DEF: "die Ägäische Kommune"</v>
+      </c>
+      <c r="D950" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A950),"",C950)</f>
+        <v> GRE_GREATER_GREECE_communism_DEF: "die Ägäische Kommune"</v>
+      </c>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="1" t="s">
@@ -17088,6 +20766,14 @@
       <c r="B951" s="1" t="s">
         <v>1526</v>
       </c>
+      <c r="C951" s="1" t="str">
+        <f aca="false">A951 &amp;" " &amp;"""" &amp;B951 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_fascism_ADJ: "hellenisch"</v>
+      </c>
+      <c r="D951" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A951),"",C951)</f>
+        <v> GRE_GREATER_GREECE_fascism_ADJ: "hellenisch"</v>
+      </c>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="1" t="s">
@@ -17096,6 +20782,14 @@
       <c r="B952" s="1" t="s">
         <v>1526</v>
       </c>
+      <c r="C952" s="1" t="str">
+        <f aca="false">A952 &amp;" " &amp;"""" &amp;B952 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_democratic_ADJ: "hellenisch"</v>
+      </c>
+      <c r="D952" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A952),"",C952)</f>
+        <v> GRE_GREATER_GREECE_democratic_ADJ: "hellenisch"</v>
+      </c>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="s">
@@ -17104,6 +20798,14 @@
       <c r="B953" s="1" t="s">
         <v>1550</v>
       </c>
+      <c r="C953" s="1" t="str">
+        <f aca="false">A953 &amp;" " &amp;"""" &amp;B953 &amp;""""</f>
+        <v> GRE_GREATER_GREECE_communism_ADJ: "ägäisch"</v>
+      </c>
+      <c r="D953" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A953),"",C953)</f>
+        <v> GRE_GREATER_GREECE_communism_ADJ: "ägäisch"</v>
+      </c>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="s">
@@ -17112,6 +20814,14 @@
       <c r="B954" s="1" t="s">
         <v>1552</v>
       </c>
+      <c r="C954" s="1" t="str">
+        <f aca="false">A954 &amp;" " &amp;"""" &amp;B954 &amp;""""</f>
+        <v> MAE_neutrality: "Mazedonischer Staat"</v>
+      </c>
+      <c r="D954" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A954),"",C954)</f>
+        <v> MAE_neutrality: "Mazedonischer Staat"</v>
+      </c>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="s">
@@ -17120,6 +20830,14 @@
       <c r="B955" s="1" t="s">
         <v>1554</v>
       </c>
+      <c r="C955" s="1" t="str">
+        <f aca="false">A955 &amp;" " &amp;"""" &amp;B955 &amp;""""</f>
+        <v> MAE_fascism: "Großreich Mazedonien"</v>
+      </c>
+      <c r="D955" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A955),"",C955)</f>
+        <v> MAE_fascism: "Großreich Mazedonien"</v>
+      </c>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
@@ -17128,6 +20846,14 @@
       <c r="B956" s="1" t="s">
         <v>1556</v>
       </c>
+      <c r="C956" s="1" t="str">
+        <f aca="false">A956 &amp;" " &amp;"""" &amp;B956 &amp;""""</f>
+        <v> MAE_democratic: "Großrepublik Großmazedonien"</v>
+      </c>
+      <c r="D956" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A956),"",C956)</f>
+        <v> MAE_democratic: "Großrepublik Großmazedonien"</v>
+      </c>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="s">
@@ -17136,6 +20862,14 @@
       <c r="B957" s="1" t="s">
         <v>1558</v>
       </c>
+      <c r="C957" s="1" t="str">
+        <f aca="false">A957 &amp;" " &amp;"""" &amp;B957 &amp;""""</f>
+        <v> MAE_communism: "Kollektiv Argos"</v>
+      </c>
+      <c r="D957" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A957),"",C957)</f>
+        <v> MAE_communism: "Kollektiv Argos"</v>
+      </c>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="s">
@@ -17144,6 +20878,14 @@
       <c r="B958" s="1" t="s">
         <v>1560</v>
       </c>
+      <c r="C958" s="1" t="str">
+        <f aca="false">A958 &amp;" " &amp;"""" &amp;B958 &amp;""""</f>
+        <v> MAE_neutrality_DEF: "der mazedonische Staat"</v>
+      </c>
+      <c r="D958" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A958),"",C958)</f>
+        <v> MAE_neutrality_DEF: "der mazedonische Staat"</v>
+      </c>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="s">
@@ -17152,6 +20894,14 @@
       <c r="B959" s="1" t="s">
         <v>1562</v>
       </c>
+      <c r="C959" s="1" t="str">
+        <f aca="false">A959 &amp;" " &amp;"""" &amp;B959 &amp;""""</f>
+        <v> MAE_fascism_DEF: "das Großreich Mazedonien"</v>
+      </c>
+      <c r="D959" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A959),"",C959)</f>
+        <v> MAE_fascism_DEF: "das Großreich Mazedonien"</v>
+      </c>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="1" t="s">
@@ -17160,6 +20910,14 @@
       <c r="B960" s="1" t="s">
         <v>1564</v>
       </c>
+      <c r="C960" s="1" t="str">
+        <f aca="false">A960 &amp;" " &amp;"""" &amp;B960 &amp;""""</f>
+        <v> MAE_democratic_DEF: "die Großrepublik Großmazedonien"</v>
+      </c>
+      <c r="D960" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A960),"",C960)</f>
+        <v> MAE_democratic_DEF: "die Großrepublik Großmazedonien"</v>
+      </c>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="s">
@@ -17168,6 +20926,14 @@
       <c r="B961" s="1" t="s">
         <v>1566</v>
       </c>
+      <c r="C961" s="1" t="str">
+        <f aca="false">A961 &amp;" " &amp;"""" &amp;B961 &amp;""""</f>
+        <v> MAE_communism_DEF: "das Kollektiv Argos"</v>
+      </c>
+      <c r="D961" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A961),"",C961)</f>
+        <v> MAE_communism_DEF: "das Kollektiv Argos"</v>
+      </c>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="1" t="s">
@@ -17176,6 +20942,14 @@
       <c r="B962" s="1" t="s">
         <v>1568</v>
       </c>
+      <c r="C962" s="1" t="str">
+        <f aca="false">A962 &amp;" " &amp;"""" &amp;B962 &amp;""""</f>
+        <v> MAE_fascism_ADJ: "hellenistisch"</v>
+      </c>
+      <c r="D962" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A962),"",C962)</f>
+        <v> MAE_fascism_ADJ: "hellenistisch"</v>
+      </c>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="1" t="s">
@@ -17184,6 +20958,14 @@
       <c r="B963" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="C963" s="1" t="str">
+        <f aca="false">A963 &amp;" " &amp;"""" &amp;B963 &amp;""""</f>
+        <v> MAE_neutrality_ADJ: "mazedonisch"</v>
+      </c>
+      <c r="D963" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A963),"",C963)</f>
+        <v> MAE_neutrality_ADJ: "mazedonisch"</v>
+      </c>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="1" t="s">
@@ -17192,6 +20974,14 @@
       <c r="B964" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="C964" s="1" t="str">
+        <f aca="false">A964 &amp;" " &amp;"""" &amp;B964 &amp;""""</f>
+        <v> MAE_democratic_ADJ: "mazedonisch"</v>
+      </c>
+      <c r="D964" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A964),"",C964)</f>
+        <v> MAE_democratic_ADJ: "mazedonisch"</v>
+      </c>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="1" t="s">
@@ -17200,6 +20990,14 @@
       <c r="B965" s="1" t="s">
         <v>1568</v>
       </c>
+      <c r="C965" s="1" t="str">
+        <f aca="false">A965 &amp;" " &amp;"""" &amp;B965 &amp;""""</f>
+        <v> MAE_communism_ADJ: "hellenistisch"</v>
+      </c>
+      <c r="D965" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A965),"",C965)</f>
+        <v> MAE_communism_ADJ: "hellenistisch"</v>
+      </c>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="1" t="s">
@@ -17208,6 +21006,14 @@
       <c r="B966" s="1" t="s">
         <v>1574</v>
       </c>
+      <c r="C966" s="1" t="str">
+        <f aca="false">A966 &amp;" " &amp;"""" &amp;B966 &amp;""""</f>
+        <v> ARM_UK_autonomy_dominion: "Dominion Armenien"</v>
+      </c>
+      <c r="D966" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A966),"",C966)</f>
+        <v> ARM_UK_autonomy_dominion: "Dominion Armenien"</v>
+      </c>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
@@ -17216,6 +21022,14 @@
       <c r="B967" s="1" t="s">
         <v>1576</v>
       </c>
+      <c r="C967" s="1" t="str">
+        <f aca="false">A967 &amp;" " &amp;"""" &amp;B967 &amp;""""</f>
+        <v> ARM_UK_autonomy_colony: "Gouvernement Armenien"</v>
+      </c>
+      <c r="D967" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A967),"",C967)</f>
+        <v> ARM_UK_autonomy_colony: "Gouvernement Armenien"</v>
+      </c>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="1" t="s">
@@ -17224,6 +21038,14 @@
       <c r="B968" s="1" t="s">
         <v>1578</v>
       </c>
+      <c r="C968" s="1" t="str">
+        <f aca="false">A968 &amp;" " &amp;"""" &amp;B968 &amp;""""</f>
+        <v> ARM_UK_autonomy_puppet: "Protektorat Armenien"</v>
+      </c>
+      <c r="D968" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A968),"",C968)</f>
+        <v> ARM_UK_autonomy_puppet: "Protektorat Armenien"</v>
+      </c>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="1" t="s">
@@ -17232,6 +21054,14 @@
       <c r="B969" s="1" t="s">
         <v>1580</v>
       </c>
+      <c r="C969" s="1" t="str">
+        <f aca="false">A969 &amp;" " &amp;"""" &amp;B969 &amp;""""</f>
+        <v> ARM_UK_autonomy_integrated_puppet: "$OVERLORDADJ$-Armenien"</v>
+      </c>
+      <c r="D969" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A969),"",C969)</f>
+        <v> ARM_UK_autonomy_integrated_puppet: "$OVERLORDADJ$-Armenien"</v>
+      </c>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1" t="s">
@@ -17240,6 +21070,14 @@
       <c r="B970" s="1" t="s">
         <v>1582</v>
       </c>
+      <c r="C970" s="1" t="str">
+        <f aca="false">A970 &amp;" " &amp;"""" &amp;B970 &amp;""""</f>
+        <v> ARM_UK_autonomy_dominion_DEF: "das Dominion Armenien"</v>
+      </c>
+      <c r="D970" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A970),"",C970)</f>
+        <v> ARM_UK_autonomy_dominion_DEF: "das Dominion Armenien"</v>
+      </c>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="1" t="s">
@@ -17248,6 +21086,14 @@
       <c r="B971" s="1" t="s">
         <v>1584</v>
       </c>
+      <c r="C971" s="1" t="str">
+        <f aca="false">A971 &amp;" " &amp;"""" &amp;B971 &amp;""""</f>
+        <v> ARM_UK_autonomy_colony_DEF: "das Gouvernement Armenien"</v>
+      </c>
+      <c r="D971" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A971),"",C971)</f>
+        <v> ARM_UK_autonomy_colony_DEF: "das Gouvernement Armenien"</v>
+      </c>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="1" t="s">
@@ -17256,6 +21102,14 @@
       <c r="B972" s="1" t="s">
         <v>1586</v>
       </c>
+      <c r="C972" s="1" t="str">
+        <f aca="false">A972 &amp;" " &amp;"""" &amp;B972 &amp;""""</f>
+        <v> ARM_UK_autonomy_puppet_DEF: "das Protektorat Armenien"</v>
+      </c>
+      <c r="D972" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A972),"",C972)</f>
+        <v> ARM_UK_autonomy_puppet_DEF: "das Protektorat Armenien"</v>
+      </c>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="1" t="s">
@@ -17264,6 +21118,14 @@
       <c r="B973" s="1" t="s">
         <v>1580</v>
       </c>
+      <c r="C973" s="1" t="str">
+        <f aca="false">A973 &amp;" " &amp;"""" &amp;B973 &amp;""""</f>
+        <v> ARM_UK_autonomy_integrated_puppet_DEF: "$OVERLORDADJ$-Armenien"</v>
+      </c>
+      <c r="D973" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A973),"",C973)</f>
+        <v> ARM_UK_autonomy_integrated_puppet_DEF: "$OVERLORDADJ$-Armenien"</v>
+      </c>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="1" t="s">
@@ -17272,6 +21134,14 @@
       <c r="B974" s="1" t="s">
         <v>1589</v>
       </c>
+      <c r="C974" s="1" t="str">
+        <f aca="false">A974 &amp;" " &amp;"""" &amp;B974 &amp;""""</f>
+        <v> CYP_UK_autonomy_dominion: "Dominion Zypern"</v>
+      </c>
+      <c r="D974" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A974),"",C974)</f>
+        <v> CYP_UK_autonomy_dominion: "Dominion Zypern"</v>
+      </c>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="1" t="s">
@@ -17280,6 +21150,14 @@
       <c r="B975" s="1" t="s">
         <v>1591</v>
       </c>
+      <c r="C975" s="1" t="str">
+        <f aca="false">A975 &amp;" " &amp;"""" &amp;B975 &amp;""""</f>
+        <v> CYP_UK_autonomy_colony: "Gouvernement Zypern"</v>
+      </c>
+      <c r="D975" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A975),"",C975)</f>
+        <v> CYP_UK_autonomy_colony: "Gouvernement Zypern"</v>
+      </c>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="1" t="s">
@@ -17288,6 +21166,14 @@
       <c r="B976" s="1" t="s">
         <v>1593</v>
       </c>
+      <c r="C976" s="1" t="str">
+        <f aca="false">A976 &amp;" " &amp;"""" &amp;B976 &amp;""""</f>
+        <v> CYP_UK_autonomy_puppet: "Protektorat Zypern"</v>
+      </c>
+      <c r="D976" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A976),"",C976)</f>
+        <v> CYP_UK_autonomy_puppet: "Protektorat Zypern"</v>
+      </c>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="1" t="s">
@@ -17296,6 +21182,14 @@
       <c r="B977" s="1" t="s">
         <v>1595</v>
       </c>
+      <c r="C977" s="1" t="str">
+        <f aca="false">A977 &amp;" " &amp;"""" &amp;B977 &amp;""""</f>
+        <v> CYP_UK_autonomy_integrated_puppet: "$OVERLORDADJ$-Zypern"</v>
+      </c>
+      <c r="D977" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A977),"",C977)</f>
+        <v> CYP_UK_autonomy_integrated_puppet: "$OVERLORDADJ$-Zypern"</v>
+      </c>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="1" t="s">
@@ -17304,6 +21198,14 @@
       <c r="B978" s="1" t="s">
         <v>1597</v>
       </c>
+      <c r="C978" s="1" t="str">
+        <f aca="false">A978 &amp;" " &amp;"""" &amp;B978 &amp;""""</f>
+        <v> CYP_UK_autonomy_dominion_DEF: "das Dominion Zypern"</v>
+      </c>
+      <c r="D978" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A978),"",C978)</f>
+        <v> CYP_UK_autonomy_dominion_DEF: "das Dominion Zypern"</v>
+      </c>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="1" t="s">
@@ -17312,6 +21214,14 @@
       <c r="B979" s="1" t="s">
         <v>1599</v>
       </c>
+      <c r="C979" s="1" t="str">
+        <f aca="false">A979 &amp;" " &amp;"""" &amp;B979 &amp;""""</f>
+        <v> CYP_UK_autonomy_colony_DEF: "das Gouvernement Zypern"</v>
+      </c>
+      <c r="D979" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A979),"",C979)</f>
+        <v> CYP_UK_autonomy_colony_DEF: "das Gouvernement Zypern"</v>
+      </c>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="s">
@@ -17320,6 +21230,14 @@
       <c r="B980" s="1" t="s">
         <v>1601</v>
       </c>
+      <c r="C980" s="1" t="str">
+        <f aca="false">A980 &amp;" " &amp;"""" &amp;B980 &amp;""""</f>
+        <v> CYP_UK_autonomy_puppet_DEF: "das Protektorat Zypern"</v>
+      </c>
+      <c r="D980" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A980),"",C980)</f>
+        <v> CYP_UK_autonomy_puppet_DEF: "das Protektorat Zypern"</v>
+      </c>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="s">
@@ -17328,6 +21246,14 @@
       <c r="B981" s="1" t="s">
         <v>1595</v>
       </c>
+      <c r="C981" s="1" t="str">
+        <f aca="false">A981 &amp;" " &amp;"""" &amp;B981 &amp;""""</f>
+        <v> CYP_UK_autonomy_integrated_puppet_DEF: "$OVERLORDADJ$-Zypern"</v>
+      </c>
+      <c r="D981" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A981),"",C981)</f>
+        <v> CYP_UK_autonomy_integrated_puppet_DEF: "$OVERLORDADJ$-Zypern"</v>
+      </c>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="s">
@@ -17336,6 +21262,14 @@
       <c r="B982" s="1" t="s">
         <v>1604</v>
       </c>
+      <c r="C982" s="1" t="str">
+        <f aca="false">A982 &amp;" " &amp;"""" &amp;B982 &amp;""""</f>
+        <v> BUL_zveno_bulgaria: "Republik Bulgarien"</v>
+      </c>
+      <c r="D982" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A982),"",C982)</f>
+        <v> BUL_zveno_bulgaria: "Republik Bulgarien"</v>
+      </c>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="s">
@@ -17344,6 +21278,14 @@
       <c r="B983" s="1" t="s">
         <v>1606</v>
       </c>
+      <c r="C983" s="1" t="str">
+        <f aca="false">A983 &amp;" " &amp;"""" &amp;B983 &amp;""""</f>
+        <v> BUL_zveno_bulgaria_DEF: "die Republik Bulgarien"</v>
+      </c>
+      <c r="D983" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A983),"",C983)</f>
+        <v> BUL_zveno_bulgaria_DEF: "die Republik Bulgarien"</v>
+      </c>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
@@ -17352,6 +21294,14 @@
       <c r="B984" s="1" t="s">
         <v>1608</v>
       </c>
+      <c r="C984" s="1" t="str">
+        <f aca="false">A984 &amp;" " &amp;"""" &amp;B984 &amp;""""</f>
+        <v> BUL_constitutional_monarchy: "$BUL_neutrality$"</v>
+      </c>
+      <c r="D984" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A984),"",C984)</f>
+        <v> BUL_constitutional_monarchy: "$BUL_neutrality$"</v>
+      </c>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="s">
@@ -17360,6 +21310,14 @@
       <c r="B985" s="1" t="s">
         <v>1610</v>
       </c>
+      <c r="C985" s="1" t="str">
+        <f aca="false">A985 &amp;" " &amp;"""" &amp;B985 &amp;""""</f>
+        <v> BUL_constitutional_monarchy_DEF: "$BUL_neutrality_DEF$"</v>
+      </c>
+      <c r="D985" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A985),"",C985)</f>
+        <v> BUL_constitutional_monarchy_DEF: "$BUL_neutrality_DEF$"</v>
+      </c>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="s">
@@ -17368,6 +21326,14 @@
       <c r="B986" s="1" t="s">
         <v>1612</v>
       </c>
+      <c r="C986" s="1" t="str">
+        <f aca="false">A986 &amp;" " &amp;"""" &amp;B986 &amp;""""</f>
+        <v> BUL_constitutional_monarchy_ADJ: "$BUL_neutrality_ADJ$"</v>
+      </c>
+      <c r="D986" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A986),"",C986)</f>
+        <v> BUL_constitutional_monarchy_ADJ: "$BUL_neutrality_ADJ$"</v>
+      </c>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="s">
@@ -17376,6 +21342,14 @@
       <c r="B987" s="1" t="s">
         <v>1614</v>
       </c>
+      <c r="C987" s="1" t="str">
+        <f aca="false">A987 &amp;" " &amp;"""" &amp;B987 &amp;""""</f>
+        <v> UBF_united_balkan_federation: "Vereinte Balkanföderation"</v>
+      </c>
+      <c r="D987" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A987),"",C987)</f>
+        <v> UBF_united_balkan_federation: "Vereinte Balkanföderation"</v>
+      </c>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="s">
@@ -17384,6 +21358,14 @@
       <c r="B988" s="1" t="s">
         <v>1616</v>
       </c>
+      <c r="C988" s="1" t="str">
+        <f aca="false">A988 &amp;" " &amp;"""" &amp;B988 &amp;""""</f>
+        <v> UBF_united_balkan_federation_DEF: "die Vereinte Balkanföderation"</v>
+      </c>
+      <c r="D988" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A988),"",C988)</f>
+        <v> UBF_united_balkan_federation_DEF: "die Vereinte Balkanföderation"</v>
+      </c>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="s">
@@ -17392,6 +21374,14 @@
       <c r="B989" s="1" t="s">
         <v>1618</v>
       </c>
+      <c r="C989" s="1" t="str">
+        <f aca="false">A989 &amp;" " &amp;"""" &amp;B989 &amp;""""</f>
+        <v> UBF_united_balkan_federation_ADJ: "balkanisch"</v>
+      </c>
+      <c r="D989" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A989),"",C989)</f>
+        <v> UBF_united_balkan_federation_ADJ: "balkanisch"</v>
+      </c>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="s">
@@ -17400,6 +21390,14 @@
       <c r="B990" s="1" t="s">
         <v>1620</v>
       </c>
+      <c r="C990" s="1" t="str">
+        <f aca="false">A990 &amp;" " &amp;"""" &amp;B990 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_neutrality: "Drittes Bulgarisches Reich"</v>
+      </c>
+      <c r="D990" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A990),"",C990)</f>
+        <v> TBE_third_bulgarian_empire_neutrality: "Drittes Bulgarisches Reich"</v>
+      </c>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="s">
@@ -17408,6 +21406,14 @@
       <c r="B991" s="1" t="s">
         <v>1622</v>
       </c>
+      <c r="C991" s="1" t="str">
+        <f aca="false">A991 &amp;" " &amp;"""" &amp;B991 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_neutrality_DEF: "das Dritte Bulgarische Reich"</v>
+      </c>
+      <c r="D991" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A991),"",C991)</f>
+        <v> TBE_third_bulgarian_empire_neutrality_DEF: "das Dritte Bulgarische Reich"</v>
+      </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="s">
@@ -17416,6 +21422,14 @@
       <c r="B992" s="1" t="s">
         <v>1624</v>
       </c>
+      <c r="C992" s="1" t="str">
+        <f aca="false">A992 &amp;" " &amp;"""" &amp;B992 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_neutrality_ADJ: "bulgarisch"</v>
+      </c>
+      <c r="D992" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A992),"",C992)</f>
+        <v> TBE_third_bulgarian_empire_neutrality_ADJ: "bulgarisch"</v>
+      </c>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="s">
@@ -17424,6 +21438,14 @@
       <c r="B993" s="1" t="s">
         <v>1620</v>
       </c>
+      <c r="C993" s="1" t="str">
+        <f aca="false">A993 &amp;" " &amp;"""" &amp;B993 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_fascism: "Drittes Bulgarisches Reich"</v>
+      </c>
+      <c r="D993" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A993),"",C993)</f>
+        <v> TBE_third_bulgarian_empire_fascism: "Drittes Bulgarisches Reich"</v>
+      </c>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="1" t="s">
@@ -17432,6 +21454,14 @@
       <c r="B994" s="1" t="s">
         <v>1622</v>
       </c>
+      <c r="C994" s="1" t="str">
+        <f aca="false">A994 &amp;" " &amp;"""" &amp;B994 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_fascism_DEF: "das Dritte Bulgarische Reich"</v>
+      </c>
+      <c r="D994" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A994),"",C994)</f>
+        <v> TBE_third_bulgarian_empire_fascism_DEF: "das Dritte Bulgarische Reich"</v>
+      </c>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
@@ -17440,6 +21470,14 @@
       <c r="B995" s="1" t="s">
         <v>1624</v>
       </c>
+      <c r="C995" s="1" t="str">
+        <f aca="false">A995 &amp;" " &amp;"""" &amp;B995 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_fascism_ADJ: "bulgarisch"</v>
+      </c>
+      <c r="D995" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A995),"",C995)</f>
+        <v> TBE_third_bulgarian_empire_fascism_ADJ: "bulgarisch"</v>
+      </c>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="1" t="s">
@@ -17448,6 +21486,14 @@
       <c r="B996" s="1" t="s">
         <v>1629</v>
       </c>
+      <c r="C996" s="1" t="str">
+        <f aca="false">A996 &amp;" " &amp;"""" &amp;B996 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_communism: "Volksrepublik Bulgarien"</v>
+      </c>
+      <c r="D996" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A996),"",C996)</f>
+        <v> TBE_third_bulgarian_empire_communism: "Volksrepublik Bulgarien"</v>
+      </c>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="1" t="s">
@@ -17456,6 +21502,14 @@
       <c r="B997" s="1" t="s">
         <v>1631</v>
       </c>
+      <c r="C997" s="1" t="str">
+        <f aca="false">A997 &amp;" " &amp;"""" &amp;B997 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_communism_DEF: "die Volksrepublik Bulgarien"</v>
+      </c>
+      <c r="D997" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A997),"",C997)</f>
+        <v> TBE_third_bulgarian_empire_communism_DEF: "die Volksrepublik Bulgarien"</v>
+      </c>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="1" t="s">
@@ -17464,6 +21518,14 @@
       <c r="B998" s="1" t="s">
         <v>1624</v>
       </c>
+      <c r="C998" s="1" t="str">
+        <f aca="false">A998 &amp;" " &amp;"""" &amp;B998 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_communism_ADJ: "bulgarisch"</v>
+      </c>
+      <c r="D998" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A998),"",C998)</f>
+        <v> TBE_third_bulgarian_empire_communism_ADJ: "bulgarisch"</v>
+      </c>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="1" t="s">
@@ -17472,6 +21534,14 @@
       <c r="B999" s="1" t="s">
         <v>1634</v>
       </c>
+      <c r="C999" s="1" t="str">
+        <f aca="false">A999 &amp;" " &amp;"""" &amp;B999 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_democratic: "Bulgarische Föderation"</v>
+      </c>
+      <c r="D999" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A999),"",C999)</f>
+        <v> TBE_third_bulgarian_empire_democratic: "Bulgarische Föderation"</v>
+      </c>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="1" t="s">
@@ -17480,6 +21550,14 @@
       <c r="B1000" s="1" t="s">
         <v>1636</v>
       </c>
+      <c r="C1000" s="1" t="str">
+        <f aca="false">A1000 &amp;" " &amp;"""" &amp;B1000 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_democratic_DEF: "die Bulgarische Föderation"</v>
+      </c>
+      <c r="D1000" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1000),"",C1000)</f>
+        <v> TBE_third_bulgarian_empire_democratic_DEF: "die Bulgarische Föderation"</v>
+      </c>
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="1" t="s">
@@ -17488,6 +21566,14 @@
       <c r="B1001" s="1" t="s">
         <v>1624</v>
       </c>
+      <c r="C1001" s="1" t="str">
+        <f aca="false">A1001 &amp;" " &amp;"""" &amp;B1001 &amp;""""</f>
+        <v> TBE_third_bulgarian_empire_democratic_ADJ: "bulgarisch"</v>
+      </c>
+      <c r="D1001" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1001),"",C1001)</f>
+        <v> TBE_third_bulgarian_empire_democratic_ADJ: "bulgarisch"</v>
+      </c>
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="1" t="s">
@@ -17496,6 +21582,14 @@
       <c r="B1002" s="1" t="s">
         <v>1639</v>
       </c>
+      <c r="C1002" s="1" t="str">
+        <f aca="false">A1002 &amp;" " &amp;"""" &amp;B1002 &amp;""""</f>
+        <v> KUR_FRA_autonomy_dominion: "$OVERLORDADJ$er Staat Kurdistan"</v>
+      </c>
+      <c r="D1002" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1002),"",C1002)</f>
+        <v> KUR_FRA_autonomy_dominion: "$OVERLORDADJ$er Staat Kurdistan"</v>
+      </c>
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="1" t="s">
@@ -17504,6 +21598,14 @@
       <c r="B1003" s="1" t="s">
         <v>1641</v>
       </c>
+      <c r="C1003" s="1" t="str">
+        <f aca="false">A1003 &amp;" " &amp;"""" &amp;B1003 &amp;""""</f>
+        <v> KUR_FRA_autonomy_colony: "Gouvernement Kurdistan"</v>
+      </c>
+      <c r="D1003" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1003),"",C1003)</f>
+        <v> KUR_FRA_autonomy_colony: "Gouvernement Kurdistan"</v>
+      </c>
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="1" t="s">
@@ -17512,6 +21614,14 @@
       <c r="B1004" s="1" t="s">
         <v>1643</v>
       </c>
+      <c r="C1004" s="1" t="str">
+        <f aca="false">A1004 &amp;" " &amp;"""" &amp;B1004 &amp;""""</f>
+        <v> KUR_FRA_autonomy_puppet: "$OVERLORDADJ$es Mandat Kurdistan"</v>
+      </c>
+      <c r="D1004" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1004),"",C1004)</f>
+        <v> KUR_FRA_autonomy_puppet: "$OVERLORDADJ$es Mandat Kurdistan"</v>
+      </c>
     </row>
     <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="1" t="s">
@@ -17520,6 +21630,14 @@
       <c r="B1005" s="1" t="s">
         <v>1645</v>
       </c>
+      <c r="C1005" s="1" t="str">
+        <f aca="false">A1005 &amp;" " &amp;"""" &amp;B1005 &amp;""""</f>
+        <v> KUR_FRA_autonomy_integrated_puppet: "$OVERLORDADJ$-Kurdistan"</v>
+      </c>
+      <c r="D1005" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1005),"",C1005)</f>
+        <v> KUR_FRA_autonomy_integrated_puppet: "$OVERLORDADJ$-Kurdistan"</v>
+      </c>
     </row>
     <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="1" t="s">
@@ -17528,6 +21646,14 @@
       <c r="B1006" s="1" t="s">
         <v>1647</v>
       </c>
+      <c r="C1006" s="1" t="str">
+        <f aca="false">A1006 &amp;" " &amp;"""" &amp;B1006 &amp;""""</f>
+        <v> KUR_FRA_autonomy_dominion_DEF: "der $OVERLORDADJ$e Staat Kurdistan"</v>
+      </c>
+      <c r="D1006" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1006),"",C1006)</f>
+        <v> KUR_FRA_autonomy_dominion_DEF: "der $OVERLORDADJ$e Staat Kurdistan"</v>
+      </c>
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="1" t="s">
@@ -17536,6 +21662,14 @@
       <c r="B1007" s="1" t="s">
         <v>1649</v>
       </c>
+      <c r="C1007" s="1" t="str">
+        <f aca="false">A1007 &amp;" " &amp;"""" &amp;B1007 &amp;""""</f>
+        <v> KUR_FRA_autonomy_colony_DEF: "das Gouvernement Kurdistan"</v>
+      </c>
+      <c r="D1007" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1007),"",C1007)</f>
+        <v> KUR_FRA_autonomy_colony_DEF: "das Gouvernement Kurdistan"</v>
+      </c>
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="1" t="s">
@@ -17544,6 +21678,14 @@
       <c r="B1008" s="1" t="s">
         <v>1651</v>
       </c>
+      <c r="C1008" s="1" t="str">
+        <f aca="false">A1008 &amp;" " &amp;"""" &amp;B1008 &amp;""""</f>
+        <v> KUR_FRA_autonomy_puppet_DEF: "das $OVERLORDADJ$e Mandat Kurdistan"</v>
+      </c>
+      <c r="D1008" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1008),"",C1008)</f>
+        <v> KUR_FRA_autonomy_puppet_DEF: "das $OVERLORDADJ$e Mandat Kurdistan"</v>
+      </c>
     </row>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="1" t="s">
@@ -17552,6 +21694,14 @@
       <c r="B1009" s="1" t="s">
         <v>1645</v>
       </c>
+      <c r="C1009" s="1" t="str">
+        <f aca="false">A1009 &amp;" " &amp;"""" &amp;B1009 &amp;""""</f>
+        <v> KUR_FRA_autonomy_integrated_puppet_DEF: "$OVERLORDADJ$-Kurdistan"</v>
+      </c>
+      <c r="D1009" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1009),"",C1009)</f>
+        <v> KUR_FRA_autonomy_integrated_puppet_DEF: "$OVERLORDADJ$-Kurdistan"</v>
+      </c>
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="1" t="s">
@@ -17560,6 +21710,14 @@
       <c r="B1010" s="1" t="s">
         <v>1654</v>
       </c>
+      <c r="C1010" s="1" t="str">
+        <f aca="false">A1010 &amp;" " &amp;"""" &amp;B1010 &amp;""""</f>
+        <v> TRN_neutrality: "Turan"</v>
+      </c>
+      <c r="D1010" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1010),"",C1010)</f>
+        <v> TRN_neutrality: "Turan"</v>
+      </c>
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="1" t="s">
@@ -17568,6 +21726,14 @@
       <c r="B1011" s="1" t="s">
         <v>1656</v>
       </c>
+      <c r="C1011" s="1" t="str">
+        <f aca="false">A1011 &amp;" " &amp;"""" &amp;B1011 &amp;""""</f>
+        <v> TRN_fascism: "Khaganat Turan"</v>
+      </c>
+      <c r="D1011" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1011),"",C1011)</f>
+        <v> TRN_fascism: "Khaganat Turan"</v>
+      </c>
     </row>
     <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="1" t="s">
@@ -17576,6 +21742,14 @@
       <c r="B1012" s="1" t="s">
         <v>1658</v>
       </c>
+      <c r="C1012" s="1" t="str">
+        <f aca="false">A1012 &amp;" " &amp;"""" &amp;B1012 &amp;""""</f>
+        <v> TRN_democratic: "Föderation Turan"</v>
+      </c>
+      <c r="D1012" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1012),"",C1012)</f>
+        <v> TRN_democratic: "Föderation Turan"</v>
+      </c>
     </row>
     <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="1" t="s">
@@ -17584,6 +21758,14 @@
       <c r="B1013" s="1" t="s">
         <v>1660</v>
       </c>
+      <c r="C1013" s="1" t="str">
+        <f aca="false">A1013 &amp;" " &amp;"""" &amp;B1013 &amp;""""</f>
+        <v> TRN_communism: "Union der Türkischen Sozialistischen Republiken"</v>
+      </c>
+      <c r="D1013" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1013),"",C1013)</f>
+        <v> TRN_communism: "Union der Türkischen Sozialistischen Republiken"</v>
+      </c>
     </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="1" t="s">
@@ -17592,6 +21774,14 @@
       <c r="B1014" s="1" t="s">
         <v>1662</v>
       </c>
+      <c r="C1014" s="1" t="str">
+        <f aca="false">A1014 &amp;" " &amp;"""" &amp;B1014 &amp;""""</f>
+        <v> TRN_fascism_DEF: "das Khaganat Turan"</v>
+      </c>
+      <c r="D1014" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1014),"",C1014)</f>
+        <v> TRN_fascism_DEF: "das Khaganat Turan"</v>
+      </c>
     </row>
     <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="1" t="s">
@@ -17600,6 +21790,14 @@
       <c r="B1015" s="1" t="s">
         <v>1664</v>
       </c>
+      <c r="C1015" s="1" t="str">
+        <f aca="false">A1015 &amp;" " &amp;"""" &amp;B1015 &amp;""""</f>
+        <v> TRN_democratic_DEF: "die Föderation Turan"</v>
+      </c>
+      <c r="D1015" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1015),"",C1015)</f>
+        <v> TRN_democratic_DEF: "die Föderation Turan"</v>
+      </c>
     </row>
     <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="1" t="s">
@@ -17608,6 +21806,14 @@
       <c r="B1016" s="1" t="s">
         <v>1666</v>
       </c>
+      <c r="C1016" s="1" t="str">
+        <f aca="false">A1016 &amp;" " &amp;"""" &amp;B1016 &amp;""""</f>
+        <v> TRN_communism_DEF: "die Union der Türkischen Sozialistischen Republiken"</v>
+      </c>
+      <c r="D1016" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1016),"",C1016)</f>
+        <v> TRN_communism_DEF: "die Union der Türkischen Sozialistischen Republiken"</v>
+      </c>
     </row>
     <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="1" t="s">
@@ -17616,6 +21822,14 @@
       <c r="B1017" s="1" t="s">
         <v>1668</v>
       </c>
+      <c r="C1017" s="1" t="str">
+        <f aca="false">A1017 &amp;" " &amp;"""" &amp;B1017 &amp;""""</f>
+        <v> TRN_fascism_ADJ: "turkisch"</v>
+      </c>
+      <c r="D1017" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1017),"",C1017)</f>
+        <v> TRN_fascism_ADJ: "turkisch"</v>
+      </c>
     </row>
     <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="1" t="s">
@@ -17624,6 +21838,14 @@
       <c r="B1018" s="1" t="s">
         <v>1668</v>
       </c>
+      <c r="C1018" s="1" t="str">
+        <f aca="false">A1018 &amp;" " &amp;"""" &amp;B1018 &amp;""""</f>
+        <v> TRN_neutrality_ADJ: "turkisch"</v>
+      </c>
+      <c r="D1018" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1018),"",C1018)</f>
+        <v> TRN_neutrality_ADJ: "turkisch"</v>
+      </c>
     </row>
     <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="1" t="s">
@@ -17632,6 +21854,14 @@
       <c r="B1019" s="1" t="s">
         <v>1671</v>
       </c>
+      <c r="C1019" s="1" t="str">
+        <f aca="false">A1019 &amp;" " &amp;"""" &amp;B1019 &amp;""""</f>
+        <v> TRN_democratic_ADJ: "turanisch"</v>
+      </c>
+      <c r="D1019" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1019),"",C1019)</f>
+        <v> TRN_democratic_ADJ: "turanisch"</v>
+      </c>
     </row>
     <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="1" t="s">
@@ -17640,6 +21870,14 @@
       <c r="B1020" s="1" t="s">
         <v>1668</v>
       </c>
+      <c r="C1020" s="1" t="str">
+        <f aca="false">A1020 &amp;" " &amp;"""" &amp;B1020 &amp;""""</f>
+        <v> TRN_communism_ADJ: "turkisch"</v>
+      </c>
+      <c r="D1020" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1020),"",C1020)</f>
+        <v> TRN_communism_ADJ: "turkisch"</v>
+      </c>
     </row>
     <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="1" t="s">
@@ -17648,6 +21886,14 @@
       <c r="B1021" s="1" t="s">
         <v>1674</v>
       </c>
+      <c r="C1021" s="1" t="str">
+        <f aca="false">A1021 &amp;" " &amp;"""" &amp;B1021 &amp;""""</f>
+        <v> KOS_YUG_subject: "Autonome Region Kosovo"</v>
+      </c>
+      <c r="D1021" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1021),"",C1021)</f>
+        <v> KOS_YUG_subject: "Autonome Region Kosovo"</v>
+      </c>
     </row>
     <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="1" t="s">
@@ -17656,6 +21902,14 @@
       <c r="B1022" s="1" t="s">
         <v>1676</v>
       </c>
+      <c r="C1022" s="1" t="str">
+        <f aca="false">A1022 &amp;" " &amp;"""" &amp;B1022 &amp;""""</f>
+        <v> KOS_YUG_subject_DEF: "die Autonome Region Kosovo"</v>
+      </c>
+      <c r="D1022" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1022),"",C1022)</f>
+        <v> KOS_YUG_subject_DEF: "die Autonome Region Kosovo"</v>
+      </c>
     </row>
     <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="1" t="s">
@@ -17664,6 +21918,14 @@
       <c r="B1023" s="1" t="s">
         <v>1678</v>
       </c>
+      <c r="C1023" s="1" t="str">
+        <f aca="false">A1023 &amp;" " &amp;"""" &amp;B1023 &amp;""""</f>
+        <v> CRO_YUG_subject: "Banovina Kroatien"</v>
+      </c>
+      <c r="D1023" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1023),"",C1023)</f>
+        <v> CRO_YUG_subject: "Banovina Kroatien"</v>
+      </c>
     </row>
     <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="1" t="s">
@@ -17672,6 +21934,14 @@
       <c r="B1024" s="1" t="s">
         <v>1680</v>
       </c>
+      <c r="C1024" s="1" t="str">
+        <f aca="false">A1024 &amp;" " &amp;"""" &amp;B1024 &amp;""""</f>
+        <v> CRO_YUG_subject_DEF: "das Banovina Kroatien"</v>
+      </c>
+      <c r="D1024" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1024),"",C1024)</f>
+        <v> CRO_YUG_subject_DEF: "das Banovina Kroatien"</v>
+      </c>
     </row>
     <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="1" t="s">
@@ -17680,6 +21950,14 @@
       <c r="B1025" s="1" t="s">
         <v>1682</v>
       </c>
+      <c r="C1025" s="1" t="str">
+        <f aca="false">A1025 &amp;" " &amp;"""" &amp;B1025 &amp;""""</f>
+        <v> SLV_YUG_subject: "Drau-Banovina"</v>
+      </c>
+      <c r="D1025" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1025),"",C1025)</f>
+        <v> SLV_YUG_subject: "Drau-Banovina"</v>
+      </c>
     </row>
     <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="1" t="s">
@@ -17688,6 +21966,14 @@
       <c r="B1026" s="1" t="s">
         <v>1684</v>
       </c>
+      <c r="C1026" s="1" t="str">
+        <f aca="false">A1026 &amp;" " &amp;"""" &amp;B1026 &amp;""""</f>
+        <v> SLV_YUG_subject_DEF: "das Drau-Banovina"</v>
+      </c>
+      <c r="D1026" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1026),"",C1026)</f>
+        <v> SLV_YUG_subject_DEF: "das Drau-Banovina"</v>
+      </c>
     </row>
     <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="1" t="s">
@@ -17696,6 +21982,14 @@
       <c r="B1027" s="1" t="s">
         <v>1686</v>
       </c>
+      <c r="C1027" s="1" t="str">
+        <f aca="false">A1027 &amp;" " &amp;"""" &amp;B1027 &amp;""""</f>
+        <v> SLV_YUG_subject_ADJ: "drau-banovinisch"</v>
+      </c>
+      <c r="D1027" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1027),"",C1027)</f>
+        <v> SLV_YUG_subject_ADJ: "drau-banovinisch"</v>
+      </c>
     </row>
     <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="1" t="s">
@@ -17704,6 +21998,14 @@
       <c r="B1028" s="1" t="s">
         <v>1688</v>
       </c>
+      <c r="C1028" s="1" t="str">
+        <f aca="false">A1028 &amp;" " &amp;"""" &amp;B1028 &amp;""""</f>
+        <v> BOS_YUG_subject: "Banovina Bosnien"</v>
+      </c>
+      <c r="D1028" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1028),"",C1028)</f>
+        <v> BOS_YUG_subject: "Banovina Bosnien"</v>
+      </c>
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="1" t="s">
@@ -17712,6 +22014,14 @@
       <c r="B1029" s="1" t="s">
         <v>1690</v>
       </c>
+      <c r="C1029" s="1" t="str">
+        <f aca="false">A1029 &amp;" " &amp;"""" &amp;B1029 &amp;""""</f>
+        <v> BOS_YUG_subject_DEF: "das Banovina Bosnien"</v>
+      </c>
+      <c r="D1029" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1029),"",C1029)</f>
+        <v> BOS_YUG_subject_DEF: "das Banovina Bosnien"</v>
+      </c>
     </row>
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="1" t="s">
@@ -17720,6 +22030,14 @@
       <c r="B1030" s="1" t="s">
         <v>1692</v>
       </c>
+      <c r="C1030" s="1" t="str">
+        <f aca="false">A1030 &amp;" " &amp;"""" &amp;B1030 &amp;""""</f>
+        <v> HRZ_YUG_subject: "Banovina Herzegowina"</v>
+      </c>
+      <c r="D1030" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1030),"",C1030)</f>
+        <v> HRZ_YUG_subject: "Banovina Herzegowina"</v>
+      </c>
     </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="1" t="s">
@@ -17728,6 +22046,14 @@
       <c r="B1031" s="1" t="s">
         <v>1694</v>
       </c>
+      <c r="C1031" s="1" t="str">
+        <f aca="false">A1031 &amp;" " &amp;"""" &amp;B1031 &amp;""""</f>
+        <v> HRZ_YUG_subject_DEF: "das Banovina Herzegowina"</v>
+      </c>
+      <c r="D1031" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1031),"",C1031)</f>
+        <v> HRZ_YUG_subject_DEF: "das Banovina Herzegowina"</v>
+      </c>
     </row>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="1" t="s">
@@ -17736,6 +22062,14 @@
       <c r="B1032" s="1" t="s">
         <v>1696</v>
       </c>
+      <c r="C1032" s="1" t="str">
+        <f aca="false">A1032 &amp;" " &amp;"""" &amp;B1032 &amp;""""</f>
+        <v> MAC_YUG_subject: "Vardar-Banovina"</v>
+      </c>
+      <c r="D1032" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1032),"",C1032)</f>
+        <v> MAC_YUG_subject: "Vardar-Banovina"</v>
+      </c>
     </row>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1" t="s">
@@ -17744,6 +22078,14 @@
       <c r="B1033" s="1" t="s">
         <v>1698</v>
       </c>
+      <c r="C1033" s="1" t="str">
+        <f aca="false">A1033 &amp;" " &amp;"""" &amp;B1033 &amp;""""</f>
+        <v> MAC_YUG_subject_DEF: "das Vardar-Banovina"</v>
+      </c>
+      <c r="D1033" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1033),"",C1033)</f>
+        <v> MAC_YUG_subject_DEF: "das Vardar-Banovina"</v>
+      </c>
     </row>
     <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="1" t="s">
@@ -17752,6 +22094,14 @@
       <c r="B1034" s="1" t="s">
         <v>1700</v>
       </c>
+      <c r="C1034" s="1" t="str">
+        <f aca="false">A1034 &amp;" " &amp;"""" &amp;B1034 &amp;""""</f>
+        <v> MAC_YUG_subject_ADJ: "vardar-banovinisch"</v>
+      </c>
+      <c r="D1034" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1034),"",C1034)</f>
+        <v> MAC_YUG_subject_ADJ: "vardar-banovinisch"</v>
+      </c>
     </row>
     <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="1" t="s">
@@ -17760,6 +22110,14 @@
       <c r="B1035" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C1035" s="1" t="str">
+        <f aca="false">A1035 &amp;" " &amp;"""" &amp;B1035 &amp;""""</f>
+        <v> MNT_YUG_subject: "Zeta-Banovina"</v>
+      </c>
+      <c r="D1035" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1035),"",C1035)</f>
+        <v> MNT_YUG_subject: "Zeta-Banovina"</v>
+      </c>
     </row>
     <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="1" t="s">
@@ -17768,6 +22126,14 @@
       <c r="B1036" s="1" t="s">
         <v>1704</v>
       </c>
+      <c r="C1036" s="1" t="str">
+        <f aca="false">A1036 &amp;" " &amp;"""" &amp;B1036 &amp;""""</f>
+        <v> MNT_YUG_subject_DEF: "das Zeta-Banovina"</v>
+      </c>
+      <c r="D1036" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1036),"",C1036)</f>
+        <v> MNT_YUG_subject_DEF: "das Zeta-Banovina"</v>
+      </c>
     </row>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="1" t="s">
@@ -17776,6 +22142,14 @@
       <c r="B1037" s="1" t="s">
         <v>1706</v>
       </c>
+      <c r="C1037" s="1" t="str">
+        <f aca="false">A1037 &amp;" " &amp;"""" &amp;B1037 &amp;""""</f>
+        <v> MNT_YUG_subject_ADJ: "zeta-banovinisch"</v>
+      </c>
+      <c r="D1037" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1037),"",C1037)</f>
+        <v> MNT_YUG_subject_ADJ: "zeta-banovinisch"</v>
+      </c>
     </row>
     <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
@@ -17784,6 +22158,14 @@
       <c r="B1038" s="1" t="s">
         <v>1708</v>
       </c>
+      <c r="C1038" s="1" t="str">
+        <f aca="false">A1038 &amp;" " &amp;"""" &amp;B1038 &amp;""""</f>
+        <v> dalmatia_YUG_subject: "Banovina Dalmatien"</v>
+      </c>
+      <c r="D1038" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1038),"",C1038)</f>
+        <v> dalmatia_YUG_subject: "Banovina Dalmatien"</v>
+      </c>
     </row>
     <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="1" t="s">
@@ -17792,6 +22174,14 @@
       <c r="B1039" s="1" t="s">
         <v>1710</v>
       </c>
+      <c r="C1039" s="1" t="str">
+        <f aca="false">A1039 &amp;" " &amp;"""" &amp;B1039 &amp;""""</f>
+        <v> dalmatia_YUG_subject_DEF: "das Banovina Dalmatien"</v>
+      </c>
+      <c r="D1039" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1039),"",C1039)</f>
+        <v> dalmatia_YUG_subject_DEF: "das Banovina Dalmatien"</v>
+      </c>
     </row>
     <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="1" t="s">
@@ -17800,6 +22190,14 @@
       <c r="B1040" s="1" t="s">
         <v>1712</v>
       </c>
+      <c r="C1040" s="1" t="str">
+        <f aca="false">A1040 &amp;" " &amp;"""" &amp;B1040 &amp;""""</f>
+        <v> TRA_YUG_subject: "Autonome Region Transsilvanien"</v>
+      </c>
+      <c r="D1040" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1040),"",C1040)</f>
+        <v> TRA_YUG_subject: "Autonome Region Transsilvanien"</v>
+      </c>
     </row>
     <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
@@ -17808,6 +22206,14 @@
       <c r="B1041" s="1" t="s">
         <v>1714</v>
       </c>
+      <c r="C1041" s="1" t="str">
+        <f aca="false">A1041 &amp;" " &amp;"""" &amp;B1041 &amp;""""</f>
+        <v> TRA_YUG_subject_DEF: "die Autonome Region Transsilvanien"</v>
+      </c>
+      <c r="D1041" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1041),"",C1041)</f>
+        <v> TRA_YUG_subject_DEF: "die Autonome Region Transsilvanien"</v>
+      </c>
     </row>
     <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="1" t="s">
@@ -17816,6 +22222,14 @@
       <c r="B1042" s="1" t="s">
         <v>1716</v>
       </c>
+      <c r="C1042" s="1" t="str">
+        <f aca="false">A1042 &amp;" " &amp;"""" &amp;B1042 &amp;""""</f>
+        <v> vojvodina_YUG_subject: "Autonome Region Wojwodina"</v>
+      </c>
+      <c r="D1042" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1042),"",C1042)</f>
+        <v> vojvodina_YUG_subject: "Autonome Region Wojwodina"</v>
+      </c>
     </row>
     <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="1" t="s">
@@ -17824,6 +22238,14 @@
       <c r="B1043" s="1" t="s">
         <v>1718</v>
       </c>
+      <c r="C1043" s="1" t="str">
+        <f aca="false">A1043 &amp;" " &amp;"""" &amp;B1043 &amp;""""</f>
+        <v> vojvodina_YUG_subject_DEF: "die Autonome Region Wojwodina"</v>
+      </c>
+      <c r="D1043" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1043),"",C1043)</f>
+        <v> vojvodina_YUG_subject_DEF: "die Autonome Region Wojwodina"</v>
+      </c>
     </row>
     <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="1" t="s">
@@ -17832,6 +22254,14 @@
       <c r="B1044" s="1" t="s">
         <v>1614</v>
       </c>
+      <c r="C1044" s="1" t="str">
+        <f aca="false">A1044 &amp;" " &amp;"""" &amp;B1044 &amp;""""</f>
+        <v> UBF_united_balkan_federation_communism: "Vereinte Balkanföderation"</v>
+      </c>
+      <c r="D1044" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1044),"",C1044)</f>
+        <v> UBF_united_balkan_federation_communism: "Vereinte Balkanföderation"</v>
+      </c>
     </row>
     <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="1" t="s">
@@ -17840,6 +22270,14 @@
       <c r="B1045" s="1" t="s">
         <v>1616</v>
       </c>
+      <c r="C1045" s="1" t="str">
+        <f aca="false">A1045 &amp;" " &amp;"""" &amp;B1045 &amp;""""</f>
+        <v> UBF_united_balkan_federation_communism_DEF: "die Vereinte Balkanföderation"</v>
+      </c>
+      <c r="D1045" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1045),"",C1045)</f>
+        <v> UBF_united_balkan_federation_communism_DEF: "die Vereinte Balkanföderation"</v>
+      </c>
     </row>
     <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="1" t="s">
@@ -17848,6 +22286,14 @@
       <c r="B1046" s="1" t="s">
         <v>1618</v>
       </c>
+      <c r="C1046" s="1" t="str">
+        <f aca="false">A1046 &amp;" " &amp;"""" &amp;B1046 &amp;""""</f>
+        <v> UBF_united_balkan_federation_communism_ADJ: "balkanisch"</v>
+      </c>
+      <c r="D1046" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1046),"",C1046)</f>
+        <v> UBF_united_balkan_federation_communism_ADJ: "balkanisch"</v>
+      </c>
     </row>
     <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="1" t="s">
@@ -17856,6 +22302,14 @@
       <c r="B1047" s="1" t="s">
         <v>1614</v>
       </c>
+      <c r="C1047" s="1" t="str">
+        <f aca="false">A1047 &amp;" " &amp;"""" &amp;B1047 &amp;""""</f>
+        <v> UBF_united_balkan_federation_democratic: "Vereinte Balkanföderation"</v>
+      </c>
+      <c r="D1047" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1047),"",C1047)</f>
+        <v> UBF_united_balkan_federation_democratic: "Vereinte Balkanföderation"</v>
+      </c>
     </row>
     <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="1" t="s">
@@ -17864,6 +22318,14 @@
       <c r="B1048" s="1" t="s">
         <v>1616</v>
       </c>
+      <c r="C1048" s="1" t="str">
+        <f aca="false">A1048 &amp;" " &amp;"""" &amp;B1048 &amp;""""</f>
+        <v> UBF_united_balkan_federation_democratic_DEF: "die Vereinte Balkanföderation"</v>
+      </c>
+      <c r="D1048" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1048),"",C1048)</f>
+        <v> UBF_united_balkan_federation_democratic_DEF: "die Vereinte Balkanföderation"</v>
+      </c>
     </row>
     <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="1" t="s">
@@ -17872,6 +22334,14 @@
       <c r="B1049" s="1" t="s">
         <v>1618</v>
       </c>
+      <c r="C1049" s="1" t="str">
+        <f aca="false">A1049 &amp;" " &amp;"""" &amp;B1049 &amp;""""</f>
+        <v> UBF_united_balkan_federation_democratic_ADJ: "balkanisch"</v>
+      </c>
+      <c r="D1049" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1049),"",C1049)</f>
+        <v> UBF_united_balkan_federation_democratic_ADJ: "balkanisch"</v>
+      </c>
     </row>
     <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="1" t="s">
@@ -17880,6 +22350,14 @@
       <c r="B1050" s="1" t="s">
         <v>1614</v>
       </c>
+      <c r="C1050" s="1" t="str">
+        <f aca="false">A1050 &amp;" " &amp;"""" &amp;B1050 &amp;""""</f>
+        <v> UBF_united_balkan_federation_fascism: "Vereinte Balkanföderation"</v>
+      </c>
+      <c r="D1050" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1050),"",C1050)</f>
+        <v> UBF_united_balkan_federation_fascism: "Vereinte Balkanföderation"</v>
+      </c>
     </row>
     <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="1" t="s">
@@ -17888,6 +22366,14 @@
       <c r="B1051" s="1" t="s">
         <v>1616</v>
       </c>
+      <c r="C1051" s="1" t="str">
+        <f aca="false">A1051 &amp;" " &amp;"""" &amp;B1051 &amp;""""</f>
+        <v> UBF_united_balkan_federation_fascism_DEF: "die Vereinte Balkanföderation"</v>
+      </c>
+      <c r="D1051" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1051),"",C1051)</f>
+        <v> UBF_united_balkan_federation_fascism_DEF: "die Vereinte Balkanföderation"</v>
+      </c>
     </row>
     <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="1" t="s">
@@ -17896,6 +22382,14 @@
       <c r="B1052" s="1" t="s">
         <v>1618</v>
       </c>
+      <c r="C1052" s="1" t="str">
+        <f aca="false">A1052 &amp;" " &amp;"""" &amp;B1052 &amp;""""</f>
+        <v> UBF_united_balkan_federation_fascism_ADJ: "balkanisch"</v>
+      </c>
+      <c r="D1052" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1052),"",C1052)</f>
+        <v> UBF_united_balkan_federation_fascism_ADJ: "balkanisch"</v>
+      </c>
     </row>
     <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="1" t="s">
@@ -17904,6 +22398,14 @@
       <c r="B1053" s="1" t="s">
         <v>1614</v>
       </c>
+      <c r="C1053" s="1" t="str">
+        <f aca="false">A1053 &amp;" " &amp;"""" &amp;B1053 &amp;""""</f>
+        <v> UBF_united_balkan_federation_neutrality: "Vereinte Balkanföderation"</v>
+      </c>
+      <c r="D1053" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1053),"",C1053)</f>
+        <v> UBF_united_balkan_federation_neutrality: "Vereinte Balkanföderation"</v>
+      </c>
     </row>
     <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="1" t="s">
@@ -17912,6 +22414,14 @@
       <c r="B1054" s="1" t="s">
         <v>1616</v>
       </c>
+      <c r="C1054" s="1" t="str">
+        <f aca="false">A1054 &amp;" " &amp;"""" &amp;B1054 &amp;""""</f>
+        <v> UBF_united_balkan_federation_neutrality_DEF: "die Vereinte Balkanföderation"</v>
+      </c>
+      <c r="D1054" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1054),"",C1054)</f>
+        <v> UBF_united_balkan_federation_neutrality_DEF: "die Vereinte Balkanföderation"</v>
+      </c>
     </row>
     <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="1" t="s">
@@ -17920,6 +22430,14 @@
       <c r="B1055" s="1" t="s">
         <v>1618</v>
       </c>
+      <c r="C1055" s="1" t="str">
+        <f aca="false">A1055 &amp;" " &amp;"""" &amp;B1055 &amp;""""</f>
+        <v> UBF_united_balkan_federation_neutrality_ADJ: "balkanisch"</v>
+      </c>
+      <c r="D1055" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1055),"",C1055)</f>
+        <v> UBF_united_balkan_federation_neutrality_ADJ: "balkanisch"</v>
+      </c>
     </row>
     <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="1" t="s">
@@ -17928,6 +22446,14 @@
       <c r="B1056" s="1" t="s">
         <v>1732</v>
       </c>
+      <c r="C1056" s="1" t="str">
+        <f aca="false">A1056 &amp;" " &amp;"""" &amp;B1056 &amp;""""</f>
+        <v> BUL_ff_bulgaria: "$BUL_communism$"</v>
+      </c>
+      <c r="D1056" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1056),"",C1056)</f>
+        <v> BUL_ff_bulgaria: "$BUL_communism$"</v>
+      </c>
     </row>
     <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="1" t="s">
@@ -17936,6 +22462,14 @@
       <c r="B1057" s="1" t="s">
         <v>1734</v>
       </c>
+      <c r="C1057" s="1" t="str">
+        <f aca="false">A1057 &amp;" " &amp;"""" &amp;B1057 &amp;""""</f>
+        <v> BUL_ff_bulgaria_DEF: "$BUL_communism_DEF$"</v>
+      </c>
+      <c r="D1057" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1057),"",C1057)</f>
+        <v> BUL_ff_bulgaria_DEF: "$BUL_communism_DEF$"</v>
+      </c>
     </row>
     <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
@@ -17944,6 +22478,14 @@
       <c r="B1058" s="1" t="s">
         <v>1736</v>
       </c>
+      <c r="C1058" s="1" t="str">
+        <f aca="false">A1058 &amp;" " &amp;"""" &amp;B1058 &amp;""""</f>
+        <v> BUL_ff_bulgaria_ADJ: "$BUL_communism_ADJ$"</v>
+      </c>
+      <c r="D1058" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1058),"",C1058)</f>
+        <v> BUL_ff_bulgaria_ADJ: "$BUL_communism_ADJ$"</v>
+      </c>
     </row>
     <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
@@ -17952,6 +22494,14 @@
       <c r="B1059" s="1" t="s">
         <v>1512</v>
       </c>
+      <c r="C1059" s="1" t="str">
+        <f aca="false">A1059 &amp;" " &amp;"""" &amp;B1059 &amp;""""</f>
+        <v> GRE_dem_monarchy_fascism: "Nationale Union Griechenland"</v>
+      </c>
+      <c r="D1059" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1059),"",C1059)</f>
+        <v> GRE_dem_monarchy_fascism: "Nationale Union Griechenland"</v>
+      </c>
     </row>
     <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="1" t="s">
@@ -17960,6 +22510,14 @@
       <c r="B1060" s="1" t="s">
         <v>1514</v>
       </c>
+      <c r="C1060" s="1" t="str">
+        <f aca="false">A1060 &amp;" " &amp;"""" &amp;B1060 &amp;""""</f>
+        <v> GRE_dem_monarchy_fascism_DEF: "die Nationale Union Griechenland"</v>
+      </c>
+      <c r="D1060" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1060),"",C1060)</f>
+        <v> GRE_dem_monarchy_fascism_DEF: "die Nationale Union Griechenland"</v>
+      </c>
     </row>
     <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="1" t="s">
@@ -17968,6 +22526,14 @@
       <c r="B1061" s="1" t="s">
         <v>1516</v>
       </c>
+      <c r="C1061" s="1" t="str">
+        <f aca="false">A1061 &amp;" " &amp;"""" &amp;B1061 &amp;""""</f>
+        <v> GRE_dem_monarchy_fascism_ADJ: "griechisch"</v>
+      </c>
+      <c r="D1061" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1061),"",C1061)</f>
+        <v> GRE_dem_monarchy_fascism_ADJ: "griechisch"</v>
+      </c>
     </row>
     <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="1" t="s">
@@ -17976,6 +22542,14 @@
       <c r="B1062" s="1" t="s">
         <v>705</v>
       </c>
+      <c r="C1062" s="1" t="str">
+        <f aca="false">A1062 &amp;" " &amp;"""" &amp;B1062 &amp;""""</f>
+        <v> TUR_PROVISIONARY_communism: "Provisorischer Staat Anatolien"</v>
+      </c>
+      <c r="D1062" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1062),"",C1062)</f>
+        <v> TUR_PROVISIONARY_communism: "Provisorischer Staat Anatolien"</v>
+      </c>
     </row>
     <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="1" t="s">
@@ -17984,6 +22558,14 @@
       <c r="B1063" s="1" t="s">
         <v>705</v>
       </c>
+      <c r="C1063" s="1" t="str">
+        <f aca="false">A1063 &amp;" " &amp;"""" &amp;B1063 &amp;""""</f>
+        <v> TUR_PROVISIONARY_democratic: "Provisorischer Staat Anatolien"</v>
+      </c>
+      <c r="D1063" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1063),"",C1063)</f>
+        <v> TUR_PROVISIONARY_democratic: "Provisorischer Staat Anatolien"</v>
+      </c>
     </row>
     <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="1" t="s">
@@ -17992,6 +22574,14 @@
       <c r="B1064" s="1" t="s">
         <v>705</v>
       </c>
+      <c r="C1064" s="1" t="str">
+        <f aca="false">A1064 &amp;" " &amp;"""" &amp;B1064 &amp;""""</f>
+        <v> TUR_PROVISIONARY_fascism: "Provisorischer Staat Anatolien"</v>
+      </c>
+      <c r="D1064" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1064),"",C1064)</f>
+        <v> TUR_PROVISIONARY_fascism: "Provisorischer Staat Anatolien"</v>
+      </c>
     </row>
     <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="1" t="s">
@@ -18000,6 +22590,14 @@
       <c r="B1065" s="1" t="s">
         <v>705</v>
       </c>
+      <c r="C1065" s="1" t="str">
+        <f aca="false">A1065 &amp;" " &amp;"""" &amp;B1065 &amp;""""</f>
+        <v> TUR_PROVISIONARY_neutrality: "Provisorischer Staat Anatolien"</v>
+      </c>
+      <c r="D1065" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1065),"",C1065)</f>
+        <v> TUR_PROVISIONARY_neutrality: "Provisorischer Staat Anatolien"</v>
+      </c>
     </row>
     <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="1" t="s">
@@ -18008,11 +22606,27 @@
       <c r="B1066" s="1" t="s">
         <v>1654</v>
       </c>
+      <c r="C1066" s="1" t="str">
+        <f aca="false">A1066 &amp;" " &amp;"""" &amp;B1066 &amp;""""</f>
+        <v> TRN_neutrality_DEF: "Turan"</v>
+      </c>
+      <c r="D1066" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1066),"",C1066)</f>
+        <v> TRN_neutrality_DEF: "Turan"</v>
+      </c>
     </row>
     <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="1" t="s">
         <v>1745</v>
       </c>
+      <c r="C1067" s="1" t="str">
+        <f aca="false">A1067 &amp;" " &amp;"""" &amp;B1067 &amp;""""</f>
+        <v>  ""</v>
+      </c>
+      <c r="D1067" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1067),"",C1067)</f>
+        <v>  ""</v>
+      </c>
     </row>
     <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="1" t="s">
@@ -18021,6 +22635,14 @@
       <c r="B1068" s="1" t="s">
         <v>1747</v>
       </c>
+      <c r="C1068" s="1" t="str">
+        <f aca="false">A1068 &amp;" " &amp;"""" &amp;B1068 &amp;""""</f>
+        <v> SIA_THAI_fascism: "Thailand"</v>
+      </c>
+      <c r="D1068" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1068),"",C1068)</f>
+        <v> SIA_THAI_fascism: "Thailand"</v>
+      </c>
     </row>
     <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="1" t="s">
@@ -18029,6 +22651,14 @@
       <c r="B1069" s="1" t="s">
         <v>1747</v>
       </c>
+      <c r="C1069" s="1" t="str">
+        <f aca="false">A1069 &amp;" " &amp;"""" &amp;B1069 &amp;""""</f>
+        <v> SIA_THAI_fascism_DEF: "Thailand"</v>
+      </c>
+      <c r="D1069" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1069),"",C1069)</f>
+        <v> SIA_THAI_fascism_DEF: "Thailand"</v>
+      </c>
     </row>
     <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="1" t="s">
@@ -18037,6 +22667,14 @@
       <c r="B1070" s="1" t="s">
         <v>1750</v>
       </c>
+      <c r="C1070" s="1" t="str">
+        <f aca="false">A1070 &amp;" " &amp;"""" &amp;B1070 &amp;""""</f>
+        <v> SIA_THAI_fascism_ADJ:0 "Thai"</v>
+      </c>
+      <c r="D1070" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1070),"",C1070)</f>
+        <v> SIA_THAI_fascism_ADJ:0 "Thai"</v>
+      </c>
     </row>
     <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="1" t="s">
@@ -18045,6 +22683,14 @@
       <c r="B1071" s="1" t="s">
         <v>1747</v>
       </c>
+      <c r="C1071" s="1" t="str">
+        <f aca="false">A1071 &amp;" " &amp;"""" &amp;B1071 &amp;""""</f>
+        <v> SIA_THAI_neutrality: "Thailand"</v>
+      </c>
+      <c r="D1071" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1071),"",C1071)</f>
+        <v> SIA_THAI_neutrality: "Thailand"</v>
+      </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="1" t="s">
@@ -18053,6 +22699,14 @@
       <c r="B1072" s="1" t="s">
         <v>1747</v>
       </c>
+      <c r="C1072" s="1" t="str">
+        <f aca="false">A1072 &amp;" " &amp;"""" &amp;B1072 &amp;""""</f>
+        <v> SIA_THAI_neutrality_DEF: "Thailand"</v>
+      </c>
+      <c r="D1072" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1072),"",C1072)</f>
+        <v> SIA_THAI_neutrality_DEF: "Thailand"</v>
+      </c>
     </row>
     <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="1" t="s">
@@ -18061,11 +22715,27 @@
       <c r="B1073" s="1" t="s">
         <v>1750</v>
       </c>
+      <c r="C1073" s="1" t="str">
+        <f aca="false">A1073 &amp;" " &amp;"""" &amp;B1073 &amp;""""</f>
+        <v> SIA_THAI_neutrality_ADJ: "Thai"</v>
+      </c>
+      <c r="D1073" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1073),"",C1073)</f>
+        <v> SIA_THAI_neutrality_ADJ: "Thai"</v>
+      </c>
     </row>
     <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="1" t="s">
         <v>1745</v>
       </c>
+      <c r="C1074" s="1" t="str">
+        <f aca="false">A1074 &amp;" " &amp;"""" &amp;B1074 &amp;""""</f>
+        <v>  ""</v>
+      </c>
+      <c r="D1074" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1074),"",C1074)</f>
+        <v>  ""</v>
+      </c>
     </row>
     <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="1" t="s">
@@ -18074,6 +22744,14 @@
       <c r="B1075" s="1" t="s">
         <v>1755</v>
       </c>
+      <c r="C1075" s="1" t="str">
+        <f aca="false">A1075 &amp;" " &amp;"""" &amp;B1075 &amp;""""</f>
+        <v> SIA_THAI_GREAT_fascism: "Großes Königreich Thailand"</v>
+      </c>
+      <c r="D1075" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1075),"",C1075)</f>
+        <v> SIA_THAI_GREAT_fascism: "Großes Königreich Thailand"</v>
+      </c>
     </row>
     <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="1" t="s">
@@ -18082,39 +22760,82 @@
       <c r="B1076" s="1" t="s">
         <v>1757</v>
       </c>
+      <c r="C1076" s="1" t="str">
+        <f aca="false">A1076 &amp;" " &amp;"""" &amp;B1076 &amp;""""</f>
+        <v> SIA_THAI_GREAT_fascism_DEF: "Groß-Thailand"</v>
+      </c>
+      <c r="D1076" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1076),"",C1076)</f>
+        <v> SIA_THAI_GREAT_fascism_DEF: "Groß-Thailand"</v>
+      </c>
     </row>
     <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="1" t="s">
         <v>1758</v>
       </c>
       <c r="B1077" s="1" t="s">
-        <v>1750</v>
+        <v>1759</v>
+      </c>
+      <c r="C1077" s="1" t="str">
+        <f aca="false">A1077 &amp;" " &amp;"""" &amp;B1077 &amp;""""</f>
+        <v> SIA_THAI_GREAT_fascism_ADJ:0 "Thailändisch"</v>
+      </c>
+      <c r="D1077" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1077),"",C1077)</f>
+        <v> SIA_THAI_GREAT_fascism_ADJ:0 "Thailändisch"</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="1" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1078" s="1" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="1079" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1761</v>
+      </c>
+      <c r="C1078" s="1" t="str">
+        <f aca="false">A1078 &amp;" " &amp;"""" &amp;B1078 &amp;""""</f>
+        <v> SIA_THAI_GREAT_neutrality: "Großes Königreich von Thailand"</v>
+      </c>
+      <c r="D1078" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1078),"",C1078)</f>
+        <v> SIA_THAI_GREAT_neutrality: "Großes Königreich von Thailand"</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="1" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B1079" s="4" t="s">
-        <v>1761</v>
+        <v>1763</v>
+      </c>
+      <c r="C1079" s="1" t="str">
+        <f aca="false">A1079 &amp;" " &amp;"""" &amp;B1079 &amp;""""</f>
+        <v> SIA_THAI_GREAT_neutrality_DEF: "Das Großkönigreich Thailand"</v>
+      </c>
+      <c r="D1079" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1079),"",C1079)</f>
+        <v> SIA_THAI_GREAT_neutrality_DEF: "Das Großkönigreich Thailand"</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="1" t="s">
-        <v>1745</v>
+        <v>1764</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1080" s="1" t="str">
+        <f aca="false">A1080 &amp;" " &amp;"""" &amp;B1080 &amp;""""</f>
+        <v> SIA_THAI_GREAT_neutrality_ADJ: "Thailändisch"</v>
+      </c>
+      <c r="D1080" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A1080),"",C1080)</f>
+        <v> SIA_THAI_GREAT_neutrality_ADJ: "Thailändisch"</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
